--- a/QuantLibXL/Data2/XLS/AUD/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD/AUD_Market.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="261">
   <si>
     <t>Currency</t>
   </si>
@@ -893,7 +893,7 @@
     <t>12M</t>
   </si>
   <si>
-    <t>Europe</t>
+    <t>Asia</t>
   </si>
 </sst>
 </file>
@@ -2502,91 +2502,91 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{356E377D-D922-41A5-AC51-A629B230DBEA}_x0000_</stp>
-        <tr r="V17" s="6"/>
+        <stp>{6AD2C92C-ACB5-4F30-A733-1D5C937A6027}_x0000_</stp>
+        <tr r="V22" s="6"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:53</v>
         <stp/>
-        <stp>{FDA87A88-43DD-468B-B9BD-4D916419DD1F}</stp>
-        <tr r="O4" s="22"/>
+        <stp>{A6D5C3B6-4CC0-4DDD-AF70-F576264048E5}</stp>
+        <tr r="O4" s="25"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:47:28</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{85829ED8-EA47-4543-A421-4E95AC2B7171}</stp>
+        <stp>{80386BEE-3348-48A9-B6AA-FC28ED13479F}</stp>
+        <tr r="O4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:37:24</v>
+        <stp/>
+        <stp>{C482D60C-ACE1-4AD0-AE1F-5F100EFCA2D1}</stp>
+        <tr r="O4" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:37:24</v>
+        <stp/>
+        <stp>{1F8897DD-9A6F-460E-A42C-6648E8618AC6}</stp>
+        <tr r="O4" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:37:53</v>
+        <stp/>
+        <stp>{06513912-79CC-44FB-A3E7-2694997B6F93}</stp>
         <tr r="O4" s="67"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{A3473DEB-5409-426C-8CAD-9E9A06832307}</stp>
-        <tr r="O4" s="12"/>
+        <stp>{E59486DA-1F75-4752-BDAD-F637E2D87521}</stp>
+        <tr r="O4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:49:53</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{1ED766BE-D821-470D-8A91-50F13E2A16FC}</stp>
+        <stp>{CEBE8B24-2D3D-497C-B601-E7B0CB142245}</stp>
+        <tr r="Q5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:37:24</v>
+        <stp/>
+        <stp>{B5DD56F3-D016-44C8-9576-E4E9471EBF36}</stp>
         <tr r="R4" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:47:49</v>
+        <v>Updated at 10:37:52</v>
         <stp/>
-        <stp>{AB5CF04C-E802-4993-8BF3-776819187A44}</stp>
-        <tr r="O4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:16:11</v>
-        <stp/>
-        <stp>{AC689C52-6A6D-4487-BB71-49DA60D21559}</stp>
-        <tr r="Q5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:16:11</v>
-        <stp/>
-        <stp>{FB551821-4BE8-4B17-802E-CA132C1088E3}</stp>
-        <tr r="O4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:16:11</v>
-        <stp/>
-        <stp>{5E14B076-B7D1-41D2-9350-B9D63F1EB71E}</stp>
-        <tr r="O4" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:43:43</v>
-        <stp/>
-        <stp>{DD5417A8-5C63-4200-905F-3AE0FA6D92A2}</stp>
+        <stp>{E6DAE4DF-C780-4297-9A5B-E37A2B48BE8A}</stp>
         <tr r="L4" s="15"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{CF9F7E9B-A61E-4B6D-B2B0-5CB8A2077B82}</stp>
-        <tr r="O4" s="13"/>
+        <stp>{3AB6AA51-CE5D-4219-B138-D570F5A53E74}</stp>
+        <tr r="O4" s="22"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{01851DB5-C3B9-4692-AA1D-7613950D1342}_x0000_</stp>
-        <tr r="V22" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:16:11</v>
-        <stp/>
-        <stp>{67DC15E9-1EC1-4613-B34A-DB6DA61C83B3}_x0000_</stp>
+        <stp>{C5963F87-1682-4943-A967-5492E89A83BB}_x0000_</stp>
         <tr r="Q22" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
         <stp/>
-        <stp>{1FDFF035-F6FB-4CE6-96A1-791BDA8BCA64}_x0000_</stp>
+        <stp>{22C0F543-B6BA-41B7-BEBB-C875B8BC12B6}_x0000_</stp>
+        <tr r="V17" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:37:24</v>
+        <stp/>
+        <stp>{59E1C249-C3EC-453C-BBF0-43C57FB0578A}_x0000_</stp>
         <tr r="Q17" s="6"/>
       </tp>
     </main>
@@ -2963,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="63">
-        <v>42061.385659722226</v>
+        <v>42065.442048611112</v>
       </c>
       <c r="E4" s="55"/>
       <c r="G4" s="87"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D5" s="64">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="E5" s="59"/>
       <c r="G5" s="87"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="I5" s="88">
         <f>INDEX(MATCH(Area,L2:O2,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="33"/>
       <c r="L5" s="250" t="s">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D7" s="43">
         <f>_xll.ohTrigger(Deposits!T2,FRA!Z2,Futures3M!AF2,FuturesHWConvAdj!U2,Swap3M!Z2,BasisSwap3M6M!AB2,BasisSwap1M3M!AB2,OIS!Z2)</f>
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E7" s="44"/>
       <c r="G7" s="79"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="AB7" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="70"/>
       <c r="AD7" s="155"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="AB9" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>1.2238217258305232E-5</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="70"/>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="AB10" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
-        <v>1.9361232603529828E-5</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="70"/>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="AB11" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11/10000,Trigger)</f>
-        <v>1.4668260437885683E-5</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="70"/>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="AB13" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="70"/>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AB14" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14/10000,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="70"/>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="AB15" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F15,AA15/10000,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="70"/>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="AB16" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16/10000,Trigger)</f>
-        <v>2.563781102954204E-5</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="70"/>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AB17" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="70"/>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="AB18" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18/10000,Trigger)</f>
-        <v>2.4733242713456086E-5</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="70"/>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="AB19" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F19,AA19/10000,Trigger)</f>
-        <v>2.4866621356728021E-5</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="70"/>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="AB20" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="70"/>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="AB21" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="70"/>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="AB22" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="70"/>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="AB23" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="70"/>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="AB24" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="70"/>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="AB25" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="70"/>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="AB26" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>2.3764102564102513E-5</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="70"/>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="AB27" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>2.0792307692307668E-5</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="70"/>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="AB28" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28/10000,Trigger)</f>
-        <v>1.7188461538461541E-5</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="70"/>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="AB29" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>1.4056410256410253E-5</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="70"/>
     </row>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="AB30" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="70"/>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="AB31" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>1.1302837294993031E-5</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="70"/>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="AB32" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>8.8892811157485069E-6</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="70"/>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="AB33" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F33,AA33/10000,Trigger)</f>
-        <v>5.8243062890073714E-6</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="70"/>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="AB34" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>2.6728876415108623E-6</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="70"/>
     </row>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="AB36" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>-1.9736919262391267E-6</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="70"/>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="AB37" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>-3.4371366794439277E-6</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="70"/>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB38" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F38,AA38/10000,Trigger)</f>
-        <v>-4.4397793101582511E-6</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="70"/>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="AB39" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F39,AA39/10000,Trigger)</f>
-        <v>-4.2715373954120518E-6</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="70"/>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -7326,10 +7326,10 @@
         <v>AUBR6AB1Y=ICAA</v>
       </c>
       <c r="P6" s="353">
-        <v>10.125</v>
+        <v>10.375</v>
       </c>
       <c r="Q6" s="353">
-        <v>12.125</v>
+        <v>12.375</v>
       </c>
       <c r="R6" s="374">
         <v>0</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="T6" s="353">
         <f>_xll.qlMidEquivalent(P6,Q6)</f>
-        <v>11.125</v>
+        <v>11.375</v>
       </c>
       <c r="U6" s="373">
         <v>1</v>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="353">
-        <v>11.125</v>
+        <v>11.375</v>
       </c>
       <c r="X6" s="153"/>
       <c r="Y6" s="353">
@@ -7357,11 +7357,11 @@
       </c>
       <c r="Z6" s="153"/>
       <c r="AA6" s="353">
-        <v>11.125</v>
+        <v>11.375</v>
       </c>
       <c r="AB6" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AC6" s="70"/>
       <c r="AD6" s="155"/>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="353">
-        <v>10.827847639919199</v>
+        <v>11.126026374424494</v>
       </c>
       <c r="X7" s="153"/>
       <c r="Y7" s="353">
@@ -7440,11 +7440,11 @@
       </c>
       <c r="Z7" s="153"/>
       <c r="AA7" s="353">
-        <v>10.827847639919199</v>
+        <v>11.126026374424494</v>
       </c>
       <c r="AB7" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-5.826377358210226E-7</v>
+        <v>2.9817873450529477E-5</v>
       </c>
       <c r="AC7" s="70"/>
       <c r="AD7" s="155"/>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="353">
-        <v>10.554132779838399</v>
+        <v>10.853615248848991</v>
       </c>
       <c r="X8" s="153"/>
       <c r="Y8" s="353">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="Z8" s="153"/>
       <c r="AA8" s="353">
-        <v>10.554132779838399</v>
+        <v>10.853615248848991</v>
       </c>
       <c r="AB8" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>-1.165275471642262E-6</v>
+        <v>2.9948246901059187E-5</v>
       </c>
       <c r="AC8" s="70"/>
     </row>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="353">
-        <v>10.315851529838399</v>
+        <v>10.591896498848991</v>
       </c>
       <c r="X9" s="153"/>
       <c r="Y9" s="353">
@@ -7607,11 +7607,11 @@
       </c>
       <c r="Z9" s="153"/>
       <c r="AA9" s="353">
-        <v>10.315851529838399</v>
+        <v>10.591896498848991</v>
       </c>
       <c r="AB9" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>-1.165275471642262E-6</v>
+        <v>2.7604496901059011E-5</v>
       </c>
       <c r="AC9" s="70"/>
     </row>
@@ -7658,10 +7658,10 @@
         <v>AUBR6AB2Y=ICAA</v>
       </c>
       <c r="P10" s="353">
-        <v>9.125</v>
+        <v>9.375</v>
       </c>
       <c r="Q10" s="353">
-        <v>11.125</v>
+        <v>11.375</v>
       </c>
       <c r="R10" s="374">
         <v>0</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="T10" s="353">
         <f>_xll.qlMidEquivalent(P10,Q10)</f>
-        <v>10.125</v>
+        <v>10.375</v>
       </c>
       <c r="U10" s="135">
         <v>2</v>
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="353">
-        <v>10.125</v>
+        <v>10.375</v>
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="353">
@@ -7689,11 +7689,11 @@
       </c>
       <c r="Z10" s="153"/>
       <c r="AA10" s="353">
-        <v>10.125</v>
+        <v>10.375</v>
       </c>
       <c r="AB10" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AC10" s="70"/>
     </row>
@@ -7740,10 +7740,10 @@
         <v>AUBR6AB3Y=ICAA</v>
       </c>
       <c r="P11" s="353">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="353">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="R11" s="374">
         <v>0</v>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="T11" s="353">
         <f>_xll.qlMidEquivalent(P11,Q11)</f>
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U11" s="135">
         <v>3</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="353">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="353">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="Z11" s="153"/>
       <c r="AA11" s="353">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AC11" s="70"/>
     </row>
@@ -7822,10 +7822,10 @@
         <v>AUBR6AB4Y=ICAA</v>
       </c>
       <c r="P12" s="353">
-        <v>8.375</v>
+        <v>8.625</v>
       </c>
       <c r="Q12" s="353">
-        <v>10.375</v>
+        <v>10.625</v>
       </c>
       <c r="R12" s="374">
         <v>0</v>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="T12" s="353">
         <f>_xll.qlMidEquivalent(P12,Q12)</f>
-        <v>9.375</v>
+        <v>9.625</v>
       </c>
       <c r="U12" s="135">
         <v>4</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="353">
-        <v>9.375</v>
+        <v>9.625</v>
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="353">
@@ -7853,11 +7853,11 @@
       </c>
       <c r="Z12" s="153"/>
       <c r="AA12" s="353">
-        <v>9.375</v>
+        <v>9.625</v>
       </c>
       <c r="AB12" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F12,AA12/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AC12" s="70"/>
     </row>
@@ -7904,10 +7904,10 @@
         <v>AUBR6AB5Y=ICAA</v>
       </c>
       <c r="P13" s="353">
-        <v>8</v>
+        <v>8.375</v>
       </c>
       <c r="Q13" s="353">
-        <v>10</v>
+        <v>10.375</v>
       </c>
       <c r="R13" s="374">
         <v>0</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="T13" s="353">
         <f>_xll.qlMidEquivalent(P13,Q13)</f>
-        <v>9</v>
+        <v>9.375</v>
       </c>
       <c r="U13" s="135">
         <v>5</v>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="353">
-        <v>9</v>
+        <v>9.375</v>
       </c>
       <c r="X13" s="153"/>
       <c r="Y13" s="353">
@@ -7935,11 +7935,11 @@
       </c>
       <c r="Z13" s="153"/>
       <c r="AA13" s="353">
-        <v>9</v>
+        <v>9.375</v>
       </c>
       <c r="AB13" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC13" s="70"/>
     </row>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="353">
-        <v>8.8160672877256658</v>
+        <v>9.2268070927732566</v>
       </c>
       <c r="X14" s="153"/>
       <c r="Y14" s="353">
@@ -8017,11 +8017,11 @@
       </c>
       <c r="Z14" s="153"/>
       <c r="AA14" s="353">
-        <v>8.8160672877256658</v>
+        <v>9.2268070927732566</v>
       </c>
       <c r="AB14" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14/10000,Trigger)</f>
-        <v>1.2752705692255597E-5</v>
+        <v>4.1073980504759068E-5</v>
       </c>
       <c r="AC14" s="70"/>
     </row>
@@ -8068,10 +8068,10 @@
         <v>AUBR6AB7Y=ICAA</v>
       </c>
       <c r="P15" s="353">
-        <v>7.75</v>
+        <v>8.125</v>
       </c>
       <c r="Q15" s="353">
-        <v>9.75</v>
+        <v>10.125</v>
       </c>
       <c r="R15" s="374">
         <v>0</v>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="T15" s="353">
         <f>_xll.qlMidEquivalent(P15,Q15)</f>
-        <v>8.75</v>
+        <v>9.125</v>
       </c>
       <c r="U15" s="135">
         <v>7</v>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="353">
-        <v>8.75</v>
+        <v>9.125</v>
       </c>
       <c r="X15" s="153"/>
       <c r="Y15" s="353">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="Z15" s="153"/>
       <c r="AA15" s="353">
-        <v>8.75</v>
+        <v>9.125</v>
       </c>
       <c r="AB15" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F15,AA15/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC15" s="70"/>
     </row>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="353">
-        <v>8.6851254944456624</v>
+        <v>9.0432663952922798</v>
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="353">
@@ -8181,11 +8181,11 @@
       </c>
       <c r="Z16" s="153"/>
       <c r="AA16" s="353">
-        <v>8.6851254944456624</v>
+        <v>9.0432663952922798</v>
       </c>
       <c r="AB16" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16/10000,Trigger)</f>
-        <v>1.2380794248410408E-5</v>
+        <v>3.5814090084661742E-5</v>
       </c>
       <c r="AC16" s="70"/>
     </row>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="353">
-        <v>8.6007089497814029</v>
+        <v>8.9647597535511689</v>
       </c>
       <c r="X17" s="153"/>
       <c r="Y17" s="353">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="Z17" s="153"/>
       <c r="AA17" s="353">
-        <v>8.6007089497814029</v>
+        <v>8.9647597535511689</v>
       </c>
       <c r="AB17" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17/10000,Trigger)</f>
-        <v>1.2422581440796224E-5</v>
+        <v>3.6405080376976547E-5</v>
       </c>
       <c r="AC17" s="70"/>
     </row>
@@ -8314,10 +8314,10 @@
         <v>AUBR6AB10Y=ICAA</v>
       </c>
       <c r="P18" s="353">
-        <v>7.5</v>
+        <v>7.875</v>
       </c>
       <c r="Q18" s="353">
-        <v>9.5</v>
+        <v>9.875</v>
       </c>
       <c r="R18" s="374">
         <v>0</v>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="T18" s="353">
         <f>_xll.qlMidEquivalent(P18,Q18)</f>
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="U18" s="135">
         <v>10</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="353">
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="X18" s="153"/>
       <c r="Y18" s="353">
@@ -8345,11 +8345,11 @@
       </c>
       <c r="Z18" s="153"/>
       <c r="AA18" s="353">
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="AB18" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC18" s="70"/>
     </row>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="353">
-        <v>8.3846603514621183</v>
+        <v>8.7621569525670022</v>
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="353">
@@ -8427,11 +8427,11 @@
       </c>
       <c r="Z19" s="153"/>
       <c r="AA19" s="353">
-        <v>8.3846603514621183</v>
+        <v>8.7621569525670022</v>
       </c>
       <c r="AB19" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F19,AA19/10000,Trigger)</f>
-        <v>1.2517652735084925E-5</v>
+        <v>3.7749660110488414E-5</v>
       </c>
       <c r="AC19" s="70"/>
     </row>
@@ -8478,10 +8478,10 @@
         <v>AUBR6AB12Y=ICAA</v>
       </c>
       <c r="P20" s="353">
-        <v>6.75</v>
+        <v>7.125</v>
       </c>
       <c r="Q20" s="353">
-        <v>9.75</v>
+        <v>10.125</v>
       </c>
       <c r="R20" s="374">
         <v>0</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="T20" s="353">
         <f>_xll.qlMidEquivalent(P20,Q20)</f>
-        <v>8.25</v>
+        <v>8.625</v>
       </c>
       <c r="U20" s="135">
         <v>12</v>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="353">
-        <v>8.25</v>
+        <v>8.625</v>
       </c>
       <c r="X20" s="153"/>
       <c r="Y20" s="353">
@@ -8509,11 +8509,11 @@
       </c>
       <c r="Z20" s="153"/>
       <c r="AA20" s="353">
-        <v>8.25</v>
+        <v>8.625</v>
       </c>
       <c r="AB20" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC20" s="70"/>
     </row>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="353">
-        <v>8.092803406033422</v>
+        <v>8.4665469968620073</v>
       </c>
       <c r="X21" s="153"/>
       <c r="Y21" s="353">
@@ -8591,11 +8591,11 @@
       </c>
       <c r="Z21" s="153"/>
       <c r="AA21" s="353">
-        <v>8.092803406033422</v>
+        <v>8.4665469968620073</v>
       </c>
       <c r="AB21" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>1.2491116298787874E-5</v>
+        <v>3.7374359082858566E-5</v>
       </c>
       <c r="AC21" s="70"/>
     </row>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="353">
-        <v>7.9221045988607521</v>
+        <v>8.2962100901571905</v>
       </c>
       <c r="X22" s="153"/>
       <c r="Y22" s="353">
@@ -8673,11 +8673,11 @@
       </c>
       <c r="Z22" s="153"/>
       <c r="AA22" s="353">
-        <v>7.9221045988607521</v>
+        <v>8.2962100901571905</v>
       </c>
       <c r="AB22" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>1.2493675190984968E-5</v>
+        <v>3.7410549129643865E-5</v>
       </c>
       <c r="AC22" s="70"/>
     </row>
@@ -8724,10 +8724,10 @@
         <v>AUBR6AB15Y=ICAA</v>
       </c>
       <c r="P23" s="353">
-        <v>6.25</v>
+        <v>6.625</v>
       </c>
       <c r="Q23" s="353">
-        <v>9.25</v>
+        <v>9.625</v>
       </c>
       <c r="R23" s="374">
         <v>0</v>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="T23" s="353">
         <f>_xll.qlMidEquivalent(P23,Q23)</f>
-        <v>7.75</v>
+        <v>8.125</v>
       </c>
       <c r="U23" s="135">
         <v>15</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="353">
-        <v>7.75</v>
+        <v>8.125</v>
       </c>
       <c r="X23" s="153"/>
       <c r="Y23" s="353">
@@ -8755,11 +8755,11 @@
       </c>
       <c r="Z23" s="153"/>
       <c r="AA23" s="353">
-        <v>7.75</v>
+        <v>8.125</v>
       </c>
       <c r="AB23" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC23" s="70"/>
     </row>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="353">
-        <v>7.5862519119011349</v>
+        <v>7.9617976304934146</v>
       </c>
       <c r="X24" s="153"/>
       <c r="Y24" s="353">
@@ -8837,11 +8837,11 @@
       </c>
       <c r="Z24" s="153"/>
       <c r="AA24" s="353">
-        <v>7.5862519119011349</v>
+        <v>7.9617976304934146</v>
       </c>
       <c r="AB24" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>1.25038586163091E-5</v>
+        <v>3.7554571859227913E-5</v>
       </c>
       <c r="AC24" s="70"/>
     </row>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="353">
-        <v>7.4312861607419523</v>
+        <v>7.8069646216945161</v>
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="353">
@@ -8919,11 +8919,11 @@
       </c>
       <c r="Z25" s="153"/>
       <c r="AA25" s="353">
-        <v>7.4312861607419523</v>
+        <v>7.8069646216945161</v>
       </c>
       <c r="AB25" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>1.2504797198654516E-5</v>
+        <v>3.7567846095256318E-5</v>
       </c>
       <c r="AC25" s="70"/>
     </row>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="353">
-        <v>7.2831944536322011</v>
+        <v>7.6587327976489092</v>
       </c>
       <c r="X26" s="153"/>
       <c r="Y26" s="353">
@@ -9001,11 +9001,11 @@
       </c>
       <c r="Z26" s="153"/>
       <c r="AA26" s="353">
-        <v>7.2831944536322011</v>
+        <v>7.6587327976489092</v>
       </c>
       <c r="AB26" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>1.2503806472845399E-5</v>
+        <v>3.755383440167087E-5</v>
       </c>
       <c r="AC26" s="70"/>
     </row>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="353">
-        <v>7.1400684976816331</v>
+        <v>7.5153339824022023</v>
       </c>
       <c r="X27" s="153"/>
       <c r="Y27" s="353">
@@ -9083,11 +9083,11 @@
       </c>
       <c r="Z27" s="153"/>
       <c r="AA27" s="353">
-        <v>7.1400684976816331</v>
+        <v>7.5153339824022023</v>
       </c>
       <c r="AB27" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>1.2501877164690866E-5</v>
+        <v>3.7526548472056908E-5</v>
       </c>
       <c r="AC27" s="70"/>
     </row>
@@ -9134,10 +9134,10 @@
         <v>AUBR6AB20Y=ICAA</v>
       </c>
       <c r="P28" s="353">
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
       <c r="Q28" s="353">
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="R28" s="374">
         <v>0</v>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="T28" s="353">
         <f>_xll.qlMidEquivalent(P28,Q28)</f>
-        <v>7</v>
+        <v>7.375</v>
       </c>
       <c r="U28" s="135">
         <v>20</v>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="353">
-        <v>7</v>
+        <v>7.375</v>
       </c>
       <c r="X28" s="153"/>
       <c r="Y28" s="353">
@@ -9165,11 +9165,11 @@
       </c>
       <c r="Z28" s="153"/>
       <c r="AA28" s="353">
-        <v>7</v>
+        <v>7.375</v>
       </c>
       <c r="AB28" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC28" s="70"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="353">
-        <v>6.8618508346213147</v>
+        <v>7.2367033431098875</v>
       </c>
       <c r="X29" s="153"/>
       <c r="Y29" s="353">
@@ -9247,11 +9247,11 @@
       </c>
       <c r="Z29" s="153"/>
       <c r="AA29" s="353">
-        <v>6.8618508346213147</v>
+        <v>7.2367033431098875</v>
       </c>
       <c r="AB29" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>1.2498957130727324E-5</v>
+        <v>3.7485250848857282E-5</v>
       </c>
       <c r="AC29" s="70"/>
     </row>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="353">
-        <v>6.7275635432766432</v>
+        <v>7.10237917888736</v>
       </c>
       <c r="X30" s="153"/>
       <c r="Y30" s="353">
@@ -9329,11 +9329,11 @@
       </c>
       <c r="Z30" s="153"/>
       <c r="AA30" s="353">
-        <v>6.7275635432766432</v>
+        <v>7.10237917888736</v>
       </c>
       <c r="AB30" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>1.2498696413409146E-5</v>
+        <v>3.7481563561071632E-5</v>
       </c>
       <c r="AC30" s="70"/>
     </row>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="353">
-        <v>6.5998508346213152</v>
+        <v>6.9747033431098879</v>
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="353">
@@ -9411,11 +9411,11 @@
       </c>
       <c r="Z31" s="153"/>
       <c r="AA31" s="353">
-        <v>6.5998508346213152</v>
+        <v>6.9747033431098879</v>
       </c>
       <c r="AB31" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>1.2498957130727215E-5</v>
+        <v>3.7485250848857282E-5</v>
       </c>
       <c r="AC31" s="70"/>
     </row>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="353">
-        <v>6.4814254173106578</v>
+        <v>6.8563516715549442</v>
       </c>
       <c r="X32" s="153"/>
       <c r="Y32" s="353">
@@ -9493,11 +9493,11 @@
       </c>
       <c r="Z32" s="153"/>
       <c r="AA32" s="353">
-        <v>6.4814254173106578</v>
+        <v>6.8563516715549442</v>
       </c>
       <c r="AB32" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>1.2499478565363678E-5</v>
+        <v>3.7492625424428582E-5</v>
       </c>
       <c r="AC32" s="70"/>
     </row>
@@ -9544,10 +9544,10 @@
         <v>AUBR6AB25Y=ICAA</v>
       </c>
       <c r="P33" s="353">
-        <v>4.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q33" s="353">
-        <v>7.875</v>
+        <v>8.25</v>
       </c>
       <c r="R33" s="374">
         <v>0</v>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="T33" s="353">
         <f>_xll.qlMidEquivalent(P33,Q33)</f>
-        <v>6.375</v>
+        <v>6.75</v>
       </c>
       <c r="U33" s="135">
         <v>25</v>
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="W33" s="353">
-        <v>6.375</v>
+        <v>6.75</v>
       </c>
       <c r="X33" s="153"/>
       <c r="Y33" s="353">
@@ -9575,11 +9575,11 @@
       </c>
       <c r="Z33" s="153"/>
       <c r="AA33" s="353">
-        <v>6.375</v>
+        <v>6.75</v>
       </c>
       <c r="AB33" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F33,AA33/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AC33" s="70"/>
     </row>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="353">
-        <v>6.2823447496136051</v>
+        <v>6.6573889970670335</v>
       </c>
       <c r="X34" s="153"/>
       <c r="Y34" s="353">
@@ -9657,11 +9657,11 @@
       </c>
       <c r="Z34" s="153"/>
       <c r="AA34" s="353">
-        <v>6.2823447496136051</v>
+        <v>6.6573889970670335</v>
       </c>
       <c r="AB34" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>1.2500312860781694E-5</v>
+        <v>3.75044247453429E-5</v>
       </c>
       <c r="AC34" s="70"/>
     </row>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="353">
-        <v>6.2014596661514743</v>
+        <v>6.5765186627560448</v>
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="353">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="Z35" s="153"/>
       <c r="AA35" s="353">
-        <v>6.2014596661514743</v>
+        <v>6.5765186627560448</v>
       </c>
       <c r="AB35" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F35,AA35/10000,Trigger)</f>
-        <v>1.2500417147709095E-5</v>
+        <v>3.7505899660457095E-5</v>
       </c>
       <c r="AC35" s="70"/>
     </row>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="353">
-        <v>6.1294022078825394</v>
+        <v>6.5044538299115393</v>
       </c>
       <c r="X36" s="153"/>
       <c r="Y36" s="353">
@@ -9821,11 +9821,11 @@
       </c>
       <c r="Z36" s="153"/>
       <c r="AA36" s="353">
-        <v>6.1294022078825394</v>
+        <v>6.5044538299115393</v>
       </c>
       <c r="AB36" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>1.2500365004245394E-5</v>
+        <v>3.7505162202899943E-5</v>
       </c>
       <c r="AC36" s="70"/>
     </row>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="353">
-        <v>6.063229833075737</v>
+        <v>6.4382593313780223</v>
       </c>
       <c r="X37" s="153"/>
       <c r="Y37" s="353">
@@ -9903,11 +9903,11 @@
       </c>
       <c r="Z37" s="153"/>
       <c r="AA37" s="353">
-        <v>6.063229833075737</v>
+        <v>6.4382593313780223</v>
       </c>
       <c r="AB37" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>1.250020857385451E-5</v>
+        <v>3.7502949830228597E-5</v>
       </c>
       <c r="AC37" s="70"/>
     </row>
@@ -9954,10 +9954,10 @@
         <v>AUBR6AB30Y=ICAA</v>
       </c>
       <c r="P38" s="353">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="Q38" s="353">
-        <v>7.5</v>
+        <v>7.875</v>
       </c>
       <c r="R38" s="374">
         <v>0</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="T38" s="353">
         <f>_xll.qlMidEquivalent(P38,Q38)</f>
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="U38" s="135">
         <v>30</v>
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="353">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="X38" s="153"/>
       <c r="Y38" s="353">
@@ -9985,11 +9985,11 @@
       </c>
       <c r="Z38" s="153"/>
       <c r="AA38" s="353">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="AB38" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F38,AA38/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC38" s="70"/>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="W39" s="191">
         <f>W38</f>
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="X39" s="153"/>
       <c r="Y39" s="191">
@@ -10068,11 +10068,11 @@
       </c>
       <c r="Z39" s="153"/>
       <c r="AA39" s="191">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="AB39" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F39,AA39/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC39" s="70"/>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="W40" s="191">
         <f>W39</f>
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="X40" s="153"/>
       <c r="Y40" s="191">
@@ -10151,11 +10151,11 @@
       </c>
       <c r="Z40" s="153"/>
       <c r="AA40" s="191">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="AB40" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F40,AA40/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC40" s="70"/>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="W41" s="191">
         <f>W40</f>
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="X41" s="153"/>
       <c r="Y41" s="191">
@@ -10234,11 +10234,11 @@
       </c>
       <c r="Z41" s="153"/>
       <c r="AA41" s="191">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="AB41" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F41,AA41/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC41" s="70"/>
     </row>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="W42" s="192">
         <f>W41</f>
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="X42" s="153"/>
       <c r="Y42" s="192">
@@ -10317,11 +10317,11 @@
       </c>
       <c r="Z42" s="153"/>
       <c r="AA42" s="192">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="AB42" s="297">
         <f>_xll.qlSimpleQuoteSetValue(F42,AA42/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AC42" s="70"/>
     </row>
@@ -10458,12 +10458,12 @@
         <v>17</v>
       </c>
       <c r="D5" s="210" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B5</f>
+        <f t="shared" ref="D5:D43" si="0">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B5</f>
         <v>AudBBSWSwapForBasisCalc3M</v>
       </c>
       <c r="E5" s="199" t="str">
         <f>_xll.qlSwapIndex($D5,FixingType,B5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3M#0007</v>
+        <v>AudBBSWSwapForBasisCalc3M#0000</v>
       </c>
       <c r="F5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10480,12 +10480,12 @@
         <v>17</v>
       </c>
       <c r="D6" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B6</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc6M</v>
       </c>
       <c r="E6" s="200" t="str">
         <f>_xll.qlSwapIndex($D6,FixingType,B6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6M#0008</v>
+        <v>AudBBSWSwapForBasisCalc6M#0000</v>
       </c>
       <c r="F6" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -10502,12 +10502,12 @@
         <v>17</v>
       </c>
       <c r="D7" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B7</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc9M</v>
       </c>
       <c r="E7" s="200" t="str">
         <f>_xll.qlSwapIndex($D7,FixingType,B7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9M#0008</v>
+        <v>AudBBSWSwapForBasisCalc9M#0000</v>
       </c>
       <c r="F7" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -10524,12 +10524,12 @@
         <v>17</v>
       </c>
       <c r="D8" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B8</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc1Y</v>
       </c>
       <c r="E8" s="200" t="str">
         <f>_xll.qlSwapIndex($D8,FixingType,B8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="F8" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -10546,12 +10546,12 @@
         <v>17</v>
       </c>
       <c r="D9" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B9</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc15M</v>
       </c>
       <c r="E9" s="200" t="str">
         <f>_xll.qlSwapIndex($D9,FixingType,B9,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15M#0008</v>
+        <v>AudBBSWSwapForBasisCalc15M#0000</v>
       </c>
       <c r="F9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -10568,12 +10568,12 @@
         <v>17</v>
       </c>
       <c r="D10" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B10</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc18M</v>
       </c>
       <c r="E10" s="200" t="str">
         <f>_xll.qlSwapIndex($D10,FixingType,B10,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc18M#0008</v>
+        <v>AudBBSWSwapForBasisCalc18M#0000</v>
       </c>
       <c r="F10" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -10590,12 +10590,12 @@
         <v>17</v>
       </c>
       <c r="D11" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B11</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc2Y</v>
       </c>
       <c r="E11" s="200" t="str">
         <f>_xll.qlSwapIndex($D11,FixingType,B11,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="F11" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -10612,12 +10612,12 @@
         <v>17</v>
       </c>
       <c r="D12" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B12</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc3Y</v>
       </c>
       <c r="E12" s="200" t="str">
         <f>_xll.qlSwapIndex($D12,FixingType,B12,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="F12" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -10634,12 +10634,12 @@
         <v>17</v>
       </c>
       <c r="D13" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B13</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc4Y</v>
       </c>
       <c r="E13" s="200" t="str">
         <f>_xll.qlSwapIndex($D13,FixingType,B13,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="F13" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -10656,12 +10656,12 @@
         <v>17</v>
       </c>
       <c r="D14" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B14</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc5Y</v>
       </c>
       <c r="E14" s="200" t="str">
         <f>_xll.qlSwapIndex($D14,FixingType,B14,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc5Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc5Y#0000</v>
       </c>
       <c r="F14" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -10678,12 +10678,12 @@
         <v>17</v>
       </c>
       <c r="D15" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B15</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc6Y</v>
       </c>
       <c r="E15" s="200" t="str">
         <f>_xll.qlSwapIndex($D15,FixingType,B15,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc6Y#0000</v>
       </c>
       <c r="F15" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -10700,12 +10700,12 @@
         <v>17</v>
       </c>
       <c r="D16" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B16</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc7Y</v>
       </c>
       <c r="E16" s="200" t="str">
         <f>_xll.qlSwapIndex($D16,FixingType,B16,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc7Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc7Y#0000</v>
       </c>
       <c r="F16" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -10722,12 +10722,12 @@
         <v>17</v>
       </c>
       <c r="D17" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B17</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc8Y</v>
       </c>
       <c r="E17" s="200" t="str">
         <f>_xll.qlSwapIndex($D17,FixingType,B17,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc8Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc8Y#0000</v>
       </c>
       <c r="F17" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -10744,12 +10744,12 @@
         <v>17</v>
       </c>
       <c r="D18" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B18</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc9Y</v>
       </c>
       <c r="E18" s="200" t="str">
         <f>_xll.qlSwapIndex($D18,FixingType,B18,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc9Y#0000</v>
       </c>
       <c r="F18" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -10766,12 +10766,12 @@
         <v>17</v>
       </c>
       <c r="D19" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B19</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc10Y</v>
       </c>
       <c r="E19" s="200" t="str">
         <f>_xll.qlSwapIndex($D19,FixingType,B19,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc10Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc10Y#0000</v>
       </c>
       <c r="F19" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -10788,12 +10788,12 @@
         <v>17</v>
       </c>
       <c r="D20" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B20</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc11Y</v>
       </c>
       <c r="E20" s="200" t="str">
         <f>_xll.qlSwapIndex($D20,FixingType,B20,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc11Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc11Y#0000</v>
       </c>
       <c r="F20" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -10810,12 +10810,12 @@
         <v>17</v>
       </c>
       <c r="D21" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B21</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc12Y</v>
       </c>
       <c r="E21" s="200" t="str">
         <f>_xll.qlSwapIndex($D21,FixingType,B21,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc12Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc12Y#0000</v>
       </c>
       <c r="F21" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -10832,12 +10832,12 @@
         <v>17</v>
       </c>
       <c r="D22" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B22</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc13Y</v>
       </c>
       <c r="E22" s="200" t="str">
         <f>_xll.qlSwapIndex($D22,FixingType,B22,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc13Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc13Y#0000</v>
       </c>
       <c r="F22" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -10854,12 +10854,12 @@
         <v>17</v>
       </c>
       <c r="D23" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B23</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc14Y</v>
       </c>
       <c r="E23" s="200" t="str">
         <f>_xll.qlSwapIndex($D23,FixingType,B23,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc14Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc14Y#0000</v>
       </c>
       <c r="F23" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -10876,12 +10876,12 @@
         <v>17</v>
       </c>
       <c r="D24" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B24</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc15Y</v>
       </c>
       <c r="E24" s="200" t="str">
         <f>_xll.qlSwapIndex($D24,FixingType,B24,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc15Y#0000</v>
       </c>
       <c r="F24" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -10898,12 +10898,12 @@
         <v>17</v>
       </c>
       <c r="D25" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B25</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc16Y</v>
       </c>
       <c r="E25" s="200" t="str">
         <f>_xll.qlSwapIndex($D25,FixingType,B25,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc16Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc16Y#0000</v>
       </c>
       <c r="F25" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -10920,12 +10920,12 @@
         <v>17</v>
       </c>
       <c r="D26" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B26</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc17Y</v>
       </c>
       <c r="E26" s="200" t="str">
         <f>_xll.qlSwapIndex($D26,FixingType,B26,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc17Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc17Y#0000</v>
       </c>
       <c r="F26" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -10942,12 +10942,12 @@
         <v>17</v>
       </c>
       <c r="D27" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B27</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc18Y</v>
       </c>
       <c r="E27" s="200" t="str">
         <f>_xll.qlSwapIndex($D27,FixingType,B27,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc18Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc18Y#0000</v>
       </c>
       <c r="F27" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -10964,12 +10964,12 @@
         <v>17</v>
       </c>
       <c r="D28" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B28</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc19Y</v>
       </c>
       <c r="E28" s="200" t="str">
         <f>_xll.qlSwapIndex($D28,FixingType,B28,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc19Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc19Y#0000</v>
       </c>
       <c r="F28" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -10986,12 +10986,12 @@
         <v>17</v>
       </c>
       <c r="D29" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B29</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc20Y</v>
       </c>
       <c r="E29" s="200" t="str">
         <f>_xll.qlSwapIndex($D29,FixingType,B29,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc20Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc20Y#0000</v>
       </c>
       <c r="F29" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -11008,12 +11008,12 @@
         <v>17</v>
       </c>
       <c r="D30" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B30</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc21Y</v>
       </c>
       <c r="E30" s="200" t="str">
         <f>_xll.qlSwapIndex($D30,FixingType,B30,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc21Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc21Y#0000</v>
       </c>
       <c r="F30" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -11030,12 +11030,12 @@
         <v>17</v>
       </c>
       <c r="D31" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B31</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc22Y</v>
       </c>
       <c r="E31" s="200" t="str">
         <f>_xll.qlSwapIndex($D31,FixingType,B31,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc22Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc22Y#0000</v>
       </c>
       <c r="F31" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -11052,12 +11052,12 @@
         <v>17</v>
       </c>
       <c r="D32" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B32</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc23Y</v>
       </c>
       <c r="E32" s="200" t="str">
         <f>_xll.qlSwapIndex($D32,FixingType,B32,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc23Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc23Y#0000</v>
       </c>
       <c r="F32" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -11074,12 +11074,12 @@
         <v>17</v>
       </c>
       <c r="D33" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B33</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc24Y</v>
       </c>
       <c r="E33" s="200" t="str">
         <f>_xll.qlSwapIndex($D33,FixingType,B33,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc24Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc24Y#0000</v>
       </c>
       <c r="F33" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -11096,12 +11096,12 @@
         <v>17</v>
       </c>
       <c r="D34" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B34</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc25Y</v>
       </c>
       <c r="E34" s="200" t="str">
         <f>_xll.qlSwapIndex($D34,FixingType,B34,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc25Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc25Y#0000</v>
       </c>
       <c r="F34" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -11118,12 +11118,12 @@
         <v>17</v>
       </c>
       <c r="D35" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B35</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc26Y</v>
       </c>
       <c r="E35" s="200" t="str">
         <f>_xll.qlSwapIndex($D35,FixingType,B35,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc26Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc26Y#0000</v>
       </c>
       <c r="F35" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -11140,12 +11140,12 @@
         <v>17</v>
       </c>
       <c r="D36" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B36</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc27Y</v>
       </c>
       <c r="E36" s="200" t="str">
         <f>_xll.qlSwapIndex($D36,FixingType,B36,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc27Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc27Y#0000</v>
       </c>
       <c r="F36" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -11162,12 +11162,12 @@
         <v>17</v>
       </c>
       <c r="D37" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B37</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc28Y</v>
       </c>
       <c r="E37" s="200" t="str">
         <f>_xll.qlSwapIndex($D37,FixingType,B37,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc28Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc28Y#0000</v>
       </c>
       <c r="F37" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -11184,12 +11184,12 @@
         <v>17</v>
       </c>
       <c r="D38" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B38</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc29Y</v>
       </c>
       <c r="E38" s="200" t="str">
         <f>_xll.qlSwapIndex($D38,FixingType,B38,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc29Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc29Y#0000</v>
       </c>
       <c r="F38" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -11206,12 +11206,12 @@
         <v>17</v>
       </c>
       <c r="D39" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B39</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc30Y</v>
       </c>
       <c r="E39" s="200" t="str">
         <f>_xll.qlSwapIndex($D39,FixingType,B39,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc30Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc30Y#0000</v>
       </c>
       <c r="F39" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -11228,12 +11228,12 @@
         <v>17</v>
       </c>
       <c r="D40" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B40</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc35Y</v>
       </c>
       <c r="E40" s="200" t="str">
         <f>_xll.qlSwapIndex($D40,FixingType,B40,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc35Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc35Y#0000</v>
       </c>
       <c r="F40" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -11250,12 +11250,12 @@
         <v>17</v>
       </c>
       <c r="D41" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B41</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc40Y</v>
       </c>
       <c r="E41" s="200" t="str">
         <f>_xll.qlSwapIndex($D41,FixingType,B41,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc40Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc40Y#0000</v>
       </c>
       <c r="F41" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -11272,12 +11272,12 @@
         <v>17</v>
       </c>
       <c r="D42" s="212" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B42</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc50Y</v>
       </c>
       <c r="E42" s="200" t="str">
         <f>_xll.qlSwapIndex($D42,FixingType,B42,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc50Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc50Y#0000</v>
       </c>
       <c r="F42" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -11294,12 +11294,12 @@
         <v>17</v>
       </c>
       <c r="D43" s="214" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$B43</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc60Y</v>
       </c>
       <c r="E43" s="201" t="str">
         <f>_xll.qlSwapIndex($D43,FixingType,B43,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$E$2,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc60Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc60Y#0000</v>
       </c>
       <c r="F43" s="204" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -11441,7 +11441,7 @@
       <c r="T2" s="7"/>
       <c r="U2" s="298">
         <f>_xll.ohTrigger(U5:U9)</f>
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="V2" s="141"/>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="247" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="R5" s="248" t="s">
         <v>139</v>
@@ -11909,7 +11909,7 @@
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="272">
-        <v>42060</v>
+        <v>42064</v>
       </c>
       <c r="S6" s="273">
         <v>2.25</v>
@@ -11925,13 +11925,13 @@
         <f>IF(AND(ISNUMBER($U6),$U6&lt;&gt;0%),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="W6" s="274" t="b">
+      <c r="W6" s="274" t="e">
         <f>IF($V6,_xll.qlIndexAddFixings($K6,$R6,$U6/100,TRUE,ISERROR(#REF!)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="277">
+        <v>#NUM!</v>
+      </c>
+      <c r="X6" s="277" t="e">
         <f>_xll.qlIndexFixing(K6,R6,,LastFixingsTrigger)</f>
-        <v>2.2499999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y6" s="278"/>
     </row>
@@ -11990,17 +11990,17 @@
         <v>AU1MBA=</v>
       </c>
       <c r="R7" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S7" s="381">
-        <v>2.34</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="T7" s="381">
-        <v>2.2400000000000002</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="U7" s="381">
         <f>IF(ISERROR(AVERAGE(S7,T7)),#NUM!,AVERAGE(S7,T7))</f>
-        <v>2.29</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="V7" s="381" t="b">
         <f>IF(AND(ISNUMBER($U7),$U7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="X7" s="385">
         <f>_xll.qlIndexFixing(K7,R7,,LastFixingsTrigger)</f>
-        <v>2.29E-2</v>
+        <v>2.2949999999999998E-2</v>
       </c>
       <c r="Y7" s="278"/>
     </row>
@@ -12068,17 +12068,17 @@
         <v>AU2MBA=</v>
       </c>
       <c r="R8" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S8" s="381">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
       <c r="T8" s="381">
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="U8" s="381">
         <f t="shared" ref="U8:U12" si="3">IF(ISERROR(AVERAGE(S8,T8)),#NUM!,AVERAGE(S8,T8))</f>
-        <v>2.3200000000000003</v>
+        <v>2.29</v>
       </c>
       <c r="V8" s="381" t="b">
         <f t="shared" ref="V8:V12" si="4">IF(AND(ISNUMBER($U8),$U8&lt;&gt;0%),TRUE,FALSE)</f>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="X8" s="386">
         <f>_xll.qlIndexFixing(K8,R8,,LastFixingsTrigger)</f>
-        <v>2.3200000000000002E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="Y8" s="278"/>
     </row>
@@ -12149,17 +12149,17 @@
         <v>AU3MBA=</v>
       </c>
       <c r="R9" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S9" s="381">
-        <v>2.3849999999999998</v>
+        <v>2.335</v>
       </c>
       <c r="T9" s="381">
-        <v>2.2850000000000001</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="U9" s="381">
         <f t="shared" si="3"/>
-        <v>2.335</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="V9" s="381" t="b">
         <f t="shared" si="4"/>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="X9" s="386">
         <f>_xll.qlIndexFixing(K9,R9,,LastFixingsTrigger)</f>
-        <v>2.3349999999999999E-2</v>
+        <v>2.2850000000000002E-2</v>
       </c>
       <c r="Y9" s="278"/>
     </row>
@@ -12227,17 +12227,17 @@
         <v>AU4MBA=</v>
       </c>
       <c r="R10" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S10" s="381">
-        <v>2.395</v>
+        <v>2.355</v>
       </c>
       <c r="T10" s="381">
-        <v>2.2949999999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="U10" s="381">
         <f t="shared" si="3"/>
-        <v>2.3449999999999998</v>
+        <v>2.3049999999999997</v>
       </c>
       <c r="V10" s="381" t="b">
         <f t="shared" si="4"/>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="X10" s="386">
         <f>_xll.qlIndexFixing(K10,R10,,LastFixingsTrigger)</f>
-        <v>2.3449999999999999E-2</v>
+        <v>2.3049999999999998E-2</v>
       </c>
       <c r="Y10" s="278"/>
     </row>
@@ -12305,17 +12305,17 @@
         <v>AU5MBA=</v>
       </c>
       <c r="R11" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S11" s="381">
-        <v>2.395</v>
+        <v>2.355</v>
       </c>
       <c r="T11" s="381">
-        <v>2.2949999999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="U11" s="381">
         <f t="shared" si="3"/>
-        <v>2.3449999999999998</v>
+        <v>2.3049999999999997</v>
       </c>
       <c r="V11" s="381" t="b">
         <f t="shared" si="4"/>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="X11" s="386">
         <f>_xll.qlIndexFixing(K11,R11,,LastFixingsTrigger)</f>
-        <v>2.3449999999999999E-2</v>
+        <v>2.3049999999999998E-2</v>
       </c>
       <c r="Y11" s="278"/>
     </row>
@@ -12386,17 +12386,17 @@
         <v>AU6MBA=</v>
       </c>
       <c r="R12" s="383">
-        <v>42061</v>
+        <v>42065</v>
       </c>
       <c r="S12" s="381">
-        <v>2.395</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="T12" s="381">
-        <v>2.2949999999999999</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="U12" s="381">
         <f t="shared" si="3"/>
-        <v>2.3449999999999998</v>
+        <v>2.3150000000000004</v>
       </c>
       <c r="V12" s="381" t="b">
         <f t="shared" si="4"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="X12" s="387">
         <f>_xll.qlIndexFixing(K12,R12,,LastFixingsTrigger)</f>
-        <v>2.3449999999999999E-2</v>
+        <v>2.3150000000000004E-2</v>
       </c>
       <c r="Y12" s="279"/>
     </row>
@@ -12506,7 +12506,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="30" t="str">
         <f>_xll.RHistory(Q8,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,Q18)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="R17" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K8,Q20,R20/100,TRUE,Trigger)</f>
@@ -12517,7 +12517,7 @@
       <c r="U17" s="32"/>
       <c r="V17" s="30" t="str">
         <f>_xll.RHistory(Q11,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,V18)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="W17" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K11,V20,W20/100,TRUE,Trigger)</f>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="L19" s="243" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42061 END:42061 INTERVAL:1D</v>
+        <v>START:42065 END:42065 INTERVAL:1D</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -12647,7 +12647,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="30" t="str">
         <f>_xll.RHistory(Q10,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,Q23)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="R22" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K10,Q25,R25/100,TRUE,Trigger)</f>
@@ -12658,7 +12658,7 @@
       <c r="U22" s="32"/>
       <c r="V22" s="30" t="str">
         <f>_xll.RHistory(Q12,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,V23)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="W22" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K12,V25,W25/100,TRUE,Trigger)</f>
@@ -12848,7 +12848,7 @@
       <c r="K2" s="110"/>
       <c r="L2" s="174" t="str">
         <f>VLOOKUP($J$1,AreaTable,AreaIndex,0)</f>
-        <v>ICAP LN</v>
+        <v>Tullet</v>
       </c>
       <c r="M2" s="118"/>
       <c r="N2" s="118"/>
@@ -12859,7 +12859,7 @@
       <c r="S2" s="110"/>
       <c r="T2" s="298">
         <f>_xll.ohTrigger(T5:T22)</f>
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="U2" s="111"/>
     </row>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="L4" s="89" t="str">
         <f>_xll.RData(L5:L22,M4:N4,"RTFEED:IDN",ReutersRtMode,,M5)</f>
-        <v>Updated at 09:43:43</v>
+        <v>Updated at 10:37:52</v>
       </c>
       <c r="M4" s="120" t="s">
         <v>103</v>
@@ -13019,17 +13019,17 @@
       </c>
       <c r="L6" s="288" t="str">
         <f>Currency&amp;K6&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUDTND=ICAP</v>
-      </c>
-      <c r="M6" s="289">
-        <v>2.13</v>
-      </c>
-      <c r="N6" s="289">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="O6" s="289">
+        <v>AUDTND=TTKL</v>
+      </c>
+      <c r="M6" s="289" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="289" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="289" t="e">
         <f>IF(ISERROR(AVERAGE(M6,N6)),#NUM!,AVERAGE(M6,N6))</f>
-        <v>2.2050000000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="P6" s="91" t="s">
         <v>166</v>
@@ -13038,12 +13038,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R6" s="154"/>
-      <c r="S6" s="292">
-        <v>2.2050000000000001</v>
-      </c>
-      <c r="T6" s="296">
+      <c r="S6" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T6" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,S6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U6" s="111"/>
     </row>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="L7" s="291" t="str">
         <f>Currency&amp;K7&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUDSND=ICAP</v>
+        <v>AUDSND=TTKL</v>
       </c>
       <c r="M7" s="292" t="s">
         <v>108</v>
@@ -13133,17 +13133,17 @@
       </c>
       <c r="L8" s="291" t="str">
         <f>Currency&amp;K8&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUDSWD=ICAP</v>
-      </c>
-      <c r="M8" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N8" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O8" s="292">
+        <v>AUDSWD=TTKL</v>
+      </c>
+      <c r="M8" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P8" s="91" t="s">
         <v>166</v>
@@ -13152,12 +13152,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R8" s="154"/>
-      <c r="S8" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T8" s="296">
+      <c r="S8" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T8" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,S8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U8" s="111"/>
     </row>
@@ -13187,29 +13187,29 @@
       </c>
       <c r="L9" s="291" t="str">
         <f>Currency&amp;K9&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD2WD=ICAP</v>
-      </c>
-      <c r="M9" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N9" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O9" s="292">
+        <v>AUD2WD=TTKL</v>
+      </c>
+      <c r="M9" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P9" s="91"/>
       <c r="Q9" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R9" s="154"/>
-      <c r="S9" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T9" s="296">
+      <c r="S9" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T9" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,S9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U9" s="111"/>
     </row>
@@ -13239,29 +13239,29 @@
       </c>
       <c r="L10" s="291" t="str">
         <f>Currency&amp;K10&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD3WD=ICAP</v>
-      </c>
-      <c r="M10" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N10" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O10" s="292">
+        <v>AUD3WD=TTKL</v>
+      </c>
+      <c r="M10" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P10" s="91"/>
       <c r="Q10" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R10" s="154"/>
-      <c r="S10" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T10" s="296">
+      <c r="S10" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T10" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,S10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U10" s="111"/>
     </row>
@@ -13294,17 +13294,17 @@
       </c>
       <c r="L11" s="291" t="str">
         <f>Currency&amp;K11&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD1MD=ICAP</v>
-      </c>
-      <c r="M11" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N11" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O11" s="292">
+        <v>AUD1MD=TTKL</v>
+      </c>
+      <c r="M11" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P11" s="91" t="s">
         <v>166</v>
@@ -13313,12 +13313,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R11" s="154"/>
-      <c r="S11" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T11" s="296">
+      <c r="S11" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T11" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,S11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U11" s="111"/>
     </row>
@@ -13351,17 +13351,17 @@
       </c>
       <c r="L12" s="291" t="str">
         <f>Currency&amp;K12&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD2MD=ICAP</v>
-      </c>
-      <c r="M12" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N12" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O12" s="292">
+        <v>AUD2MD=TTKL</v>
+      </c>
+      <c r="M12" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P12" s="91" t="s">
         <v>166</v>
@@ -13370,12 +13370,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R12" s="154"/>
-      <c r="S12" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T12" s="296">
+      <c r="S12" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T12" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,S12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U12" s="111"/>
     </row>
@@ -13408,17 +13408,17 @@
       </c>
       <c r="L13" s="291" t="str">
         <f>Currency&amp;K13&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD3MD=ICAP</v>
-      </c>
-      <c r="M13" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N13" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O13" s="292">
+        <v>AUD3MD=TTKL</v>
+      </c>
+      <c r="M13" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P13" s="91" t="s">
         <v>166</v>
@@ -13427,12 +13427,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R13" s="154"/>
-      <c r="S13" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T13" s="296">
+      <c r="S13" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T13" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,S13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U13" s="111"/>
     </row>
@@ -13462,29 +13462,29 @@
       </c>
       <c r="L14" s="291" t="str">
         <f>Currency&amp;K14&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD4MD=ICAP</v>
-      </c>
-      <c r="M14" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N14" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O14" s="292">
+        <v>AUD4MD=TTKL</v>
+      </c>
+      <c r="M14" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P14" s="91"/>
       <c r="Q14" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R14" s="154"/>
-      <c r="S14" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T14" s="296">
+      <c r="S14" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T14" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,S14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U14" s="111"/>
     </row>
@@ -13514,29 +13514,29 @@
       </c>
       <c r="L15" s="291" t="str">
         <f>Currency&amp;K15&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD5MD=ICAP</v>
-      </c>
-      <c r="M15" s="292">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N15" s="292">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O15" s="292">
+        <v>AUD5MD=TTKL</v>
+      </c>
+      <c r="M15" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.355</v>
+        <v>#NUM!</v>
       </c>
       <c r="P15" s="91"/>
       <c r="Q15" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R15" s="154"/>
-      <c r="S15" s="292">
-        <v>2.355</v>
-      </c>
-      <c r="T15" s="296">
+      <c r="S15" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T15" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,S15/100,Trigger)</f>
-        <v>5.0000000000000391E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="U15" s="111"/>
     </row>
@@ -13569,17 +13569,17 @@
       </c>
       <c r="L16" s="291" t="str">
         <f>Currency&amp;K16&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD6MD=ICAP</v>
-      </c>
-      <c r="M16" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N16" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O16" s="292">
+        <v>AUD6MD=TTKL</v>
+      </c>
+      <c r="M16" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P16" s="91" t="s">
         <v>166</v>
@@ -13588,12 +13588,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R16" s="154"/>
-      <c r="S16" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T16" s="296">
+      <c r="S16" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T16" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,S16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U16" s="111"/>
     </row>
@@ -13623,29 +13623,29 @@
       </c>
       <c r="L17" s="291" t="str">
         <f>Currency&amp;K17&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD7MD=ICAP</v>
-      </c>
-      <c r="M17" s="292">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="N17" s="292">
-        <v>2.33</v>
-      </c>
-      <c r="O17" s="292">
+        <v>AUD7MD=TTKL</v>
+      </c>
+      <c r="M17" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.2549999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="P17" s="91"/>
       <c r="Q17" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R17" s="154"/>
-      <c r="S17" s="292">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="T17" s="296">
+      <c r="S17" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,S17/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U17" s="111"/>
     </row>
@@ -13675,29 +13675,29 @@
       </c>
       <c r="L18" s="291" t="str">
         <f>Currency&amp;K18&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD8MD=ICAP</v>
-      </c>
-      <c r="M18" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N18" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O18" s="292">
+        <v>AUD8MD=TTKL</v>
+      </c>
+      <c r="M18" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P18" s="91"/>
       <c r="Q18" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R18" s="154"/>
-      <c r="S18" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T18" s="296">
+      <c r="S18" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,S18/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U18" s="111"/>
     </row>
@@ -13727,29 +13727,29 @@
       </c>
       <c r="L19" s="291" t="str">
         <f>Currency&amp;K19&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD9MD=ICAP</v>
-      </c>
-      <c r="M19" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N19" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O19" s="292">
+        <v>AUD9MD=TTKL</v>
+      </c>
+      <c r="M19" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P19" s="91"/>
       <c r="Q19" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R19" s="154"/>
-      <c r="S19" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T19" s="296">
+      <c r="S19" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,S19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U19" s="111"/>
     </row>
@@ -13779,29 +13779,29 @@
       </c>
       <c r="L20" s="291" t="str">
         <f>Currency&amp;K20&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD10MD=ICAP</v>
-      </c>
-      <c r="M20" s="292">
-        <v>2.23</v>
-      </c>
-      <c r="N20" s="292">
-        <v>2.38</v>
-      </c>
-      <c r="O20" s="292">
+        <v>AUD10MD=TTKL</v>
+      </c>
+      <c r="M20" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.3049999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="P20" s="91"/>
       <c r="Q20" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R20" s="154"/>
-      <c r="S20" s="292">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="T20" s="296">
+      <c r="S20" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,S20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U20" s="111"/>
     </row>
@@ -13831,29 +13831,29 @@
       </c>
       <c r="L21" s="291" t="str">
         <f>Currency&amp;K21&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD11MD=ICAP</v>
-      </c>
-      <c r="M21" s="292">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N21" s="292">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O21" s="292">
+        <v>AUD11MD=TTKL</v>
+      </c>
+      <c r="M21" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="292" t="e">
         <f t="shared" si="2"/>
-        <v>2.355</v>
+        <v>#NUM!</v>
       </c>
       <c r="P21" s="91"/>
       <c r="Q21" s="292" t="e">
         <v>#NUM!</v>
       </c>
       <c r="R21" s="154"/>
-      <c r="S21" s="292">
-        <v>2.355</v>
-      </c>
-      <c r="T21" s="296">
+      <c r="S21" s="292" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" s="296" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,S21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U21" s="111"/>
     </row>
@@ -13886,17 +13886,17 @@
       </c>
       <c r="L22" s="294" t="str">
         <f>Currency&amp;K22&amp;"D="&amp;VLOOKUP($L$2,[0]!ContributorTable,2,0)</f>
-        <v>AUD1YD=ICAP</v>
-      </c>
-      <c r="M22" s="295">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N22" s="295">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O22" s="295">
+        <v>AUD1YD=TTKL</v>
+      </c>
+      <c r="M22" s="295" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="295" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="295" t="e">
         <f t="shared" si="2"/>
-        <v>2.355</v>
+        <v>#NUM!</v>
       </c>
       <c r="P22" s="91" t="s">
         <v>166</v>
@@ -13905,12 +13905,12 @@
         <v>#NUM!</v>
       </c>
       <c r="R22" s="154"/>
-      <c r="S22" s="295">
-        <v>2.355</v>
-      </c>
-      <c r="T22" s="297">
+      <c r="S22" s="295" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" s="297" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,S22/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U22" s="111"/>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O31,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -14189,20 +14189,20 @@
         <v>AUD1X4F=</v>
       </c>
       <c r="P5" s="292">
-        <v>2.1800000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" s="292">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="R5" s="292">
         <v>0</v>
       </c>
       <c r="S5" s="292">
-        <v>2.2599999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="T5" s="304">
         <f>IF(ISERROR(AVERAGE(P5,Q5)),#NUM!,AVERAGE(P5,Q5))</f>
-        <v>2.1950000000000003</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="U5" s="289">
         <f>Q5-P5</f>
@@ -14215,11 +14215,11 @@
       <c r="X5" s="151"/>
       <c r="Y5" s="289">
         <f t="array" ref="Y5:Y31">QuoteLive</f>
-        <v>2.1950000000000003</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="Z5" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F5,Y5/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>-2.0000000000000573E-4</v>
       </c>
       <c r="AA5" s="130"/>
       <c r="AB5" s="158"/>
@@ -14267,24 +14267,24 @@
         <v>AUD2X5F=</v>
       </c>
       <c r="P6" s="292">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" s="292">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="R6" s="292">
         <v>0</v>
       </c>
       <c r="S6" s="292">
-        <v>2.2000000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="T6" s="304">
         <f t="shared" ref="T6:T31" si="4">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>2.125</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="U6" s="292">
         <f t="shared" ref="U6:U31" si="5">Q6-P6</f>
-        <v>3.0000000000000249E-2</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="V6" s="151"/>
       <c r="W6" s="292">
@@ -14292,11 +14292,11 @@
       </c>
       <c r="X6" s="151"/>
       <c r="Y6" s="292">
-        <v>2.125</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="Z6" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>-9.9999999999999395E-5</v>
       </c>
       <c r="AA6" s="130"/>
       <c r="AB6" s="158"/>
@@ -14344,20 +14344,20 @@
         <v>AUD3X6F=</v>
       </c>
       <c r="P7" s="292">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" s="292">
-        <v>2.09</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R7" s="292">
         <v>0</v>
       </c>
       <c r="S7" s="292">
-        <v>2.14</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="T7" s="304">
         <f t="shared" si="4"/>
-        <v>2.0750000000000002</v>
+        <v>2.0549999999999997</v>
       </c>
       <c r="U7" s="292">
         <f t="shared" si="5"/>
@@ -14369,11 +14369,11 @@
       </c>
       <c r="X7" s="151"/>
       <c r="Y7" s="292">
-        <v>2.0750000000000002</v>
+        <v>2.0549999999999997</v>
       </c>
       <c r="Z7" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="AA7" s="130"/>
       <c r="AB7" s="158"/>
@@ -14421,20 +14421,20 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="P8" s="292">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="292">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R8" s="292">
         <v>0</v>
       </c>
       <c r="S8" s="292">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="T8" s="304">
         <f t="shared" si="4"/>
-        <v>2.0350000000000001</v>
+        <v>2.0149999999999997</v>
       </c>
       <c r="U8" s="292">
         <f t="shared" si="5"/>
@@ -14446,11 +14446,11 @@
       </c>
       <c r="X8" s="151"/>
       <c r="Y8" s="292">
-        <v>2.0350000000000001</v>
+        <v>2.0149999999999997</v>
       </c>
       <c r="Z8" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="AA8" s="130"/>
       <c r="AB8" s="158"/>
@@ -14498,24 +14498,24 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="P9" s="292">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" s="292">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="R9" s="292">
         <v>0</v>
       </c>
       <c r="S9" s="292">
-        <v>2.0699999999999998</v>
+        <v>1.96</v>
       </c>
       <c r="T9" s="304">
         <f t="shared" si="4"/>
-        <v>1.9949999999999999</v>
+        <v>1.9849999999999999</v>
       </c>
       <c r="U9" s="292">
         <f t="shared" si="5"/>
-        <v>2.9999999999999805E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V9" s="151"/>
       <c r="W9" s="292">
@@ -14523,11 +14523,11 @@
       </c>
       <c r="X9" s="151"/>
       <c r="Y9" s="292">
-        <v>1.9949999999999999</v>
+        <v>1.9849999999999999</v>
       </c>
       <c r="Z9" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>-9.9999999999999395E-5</v>
       </c>
       <c r="AA9" s="130"/>
       <c r="AB9" s="158"/>
@@ -14575,20 +14575,20 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="P10" s="292">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" s="292">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R10" s="292">
         <v>0</v>
       </c>
       <c r="S10" s="292">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="T10" s="306">
         <f t="shared" si="4"/>
-        <v>1.9849999999999999</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="U10" s="295">
         <f t="shared" si="5"/>
@@ -14600,11 +14600,11 @@
       </c>
       <c r="X10" s="151"/>
       <c r="Y10" s="295">
-        <v>1.9849999999999999</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="Z10" s="301">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="AA10" s="130"/>
       <c r="AB10" s="158"/>
@@ -14653,20 +14653,20 @@
         <v>AUD1X7F=</v>
       </c>
       <c r="P11" s="289">
+        <v>2.14</v>
+      </c>
+      <c r="Q11" s="289">
         <v>2.1800000000000002</v>
       </c>
-      <c r="Q11" s="289">
-        <v>2.2200000000000002</v>
-      </c>
       <c r="R11" s="289">
         <v>0</v>
       </c>
       <c r="S11" s="289">
-        <v>2.1800000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="T11" s="308">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="U11" s="289">
         <f t="shared" si="5"/>
@@ -14678,11 +14678,11 @@
       </c>
       <c r="X11" s="151"/>
       <c r="Y11" s="289">
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="Z11" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>1.0000000000000286E-4</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="AA11" s="130"/>
       <c r="AB11" s="158"/>
@@ -14731,20 +14731,20 @@
         <v>AUD2X8F=</v>
       </c>
       <c r="P12" s="292">
+        <v>2.09</v>
+      </c>
+      <c r="Q12" s="292">
         <v>2.13</v>
       </c>
-      <c r="Q12" s="292">
-        <v>2.17</v>
-      </c>
       <c r="R12" s="292">
         <v>0</v>
       </c>
       <c r="S12" s="292">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="T12" s="304">
         <f t="shared" si="4"/>
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="U12" s="292">
         <f t="shared" si="5"/>
@@ -14756,11 +14756,11 @@
       </c>
       <c r="X12" s="151"/>
       <c r="Y12" s="292">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="Z12" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>9.9999999999995925E-5</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="AA12" s="130"/>
       <c r="AB12" s="158"/>
@@ -14809,20 +14809,20 @@
         <v>AUD3X9F=</v>
       </c>
       <c r="P13" s="292">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" s="292">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="R13" s="292">
         <v>0</v>
       </c>
       <c r="S13" s="292">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="T13" s="304">
         <f t="shared" si="4"/>
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="U13" s="292">
         <f t="shared" si="5"/>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="X13" s="151"/>
       <c r="Y13" s="292">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="Z13" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>9.9999999999995925E-5</v>
+        <v>-4.9999999999999697E-4</v>
       </c>
       <c r="AA13" s="130"/>
       <c r="AB13" s="158"/>
@@ -14887,20 +14887,20 @@
         <v>AUD4X10F=</v>
       </c>
       <c r="P14" s="292">
+        <v>2.02</v>
+      </c>
+      <c r="Q14" s="292">
         <v>2.06</v>
       </c>
-      <c r="Q14" s="292">
-        <v>2.1</v>
-      </c>
       <c r="R14" s="292">
         <v>0</v>
       </c>
       <c r="S14" s="292">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T14" s="304">
         <f t="shared" si="4"/>
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U14" s="292">
         <f t="shared" si="5"/>
@@ -14912,11 +14912,11 @@
       </c>
       <c r="X14" s="151"/>
       <c r="Y14" s="292">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Z14" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>9.9999999999999395E-5</v>
+        <v>-3.9999999999999758E-4</v>
       </c>
       <c r="AA14" s="130"/>
       <c r="AB14" s="158"/>
@@ -14965,20 +14965,20 @@
         <v>AUD5X11F=</v>
       </c>
       <c r="P15" s="292">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q15" s="292">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q15" s="292">
-        <v>2.09</v>
-      </c>
       <c r="R15" s="292">
         <v>0</v>
       </c>
       <c r="S15" s="292">
-        <v>2.0499999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="T15" s="304">
         <f t="shared" si="4"/>
-        <v>2.0699999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="U15" s="292">
         <f t="shared" si="5"/>
@@ -14990,11 +14990,11 @@
       </c>
       <c r="X15" s="151"/>
       <c r="Y15" s="292">
-        <v>2.0699999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Z15" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>9.9999999999999395E-5</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="AA15" s="130"/>
       <c r="AB15" s="158"/>
@@ -15043,24 +15043,24 @@
         <v>AUD6X12F=</v>
       </c>
       <c r="P16" s="292">
+        <v>1.99</v>
+      </c>
+      <c r="Q16" s="292">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q16" s="292">
-        <v>2.0699999999999998</v>
-      </c>
       <c r="R16" s="292">
         <v>0</v>
       </c>
       <c r="S16" s="292">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T16" s="304">
         <f t="shared" si="4"/>
-        <v>2.0499999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U16" s="292">
         <f t="shared" si="5"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.9999999999999813E-2</v>
       </c>
       <c r="V16" s="151"/>
       <c r="W16" s="292">
@@ -15068,11 +15068,11 @@
       </c>
       <c r="X16" s="151"/>
       <c r="Y16" s="292">
-        <v>2.0499999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Z16" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>9.9999999999995925E-5</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="AA16" s="130"/>
       <c r="AB16" s="158"/>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="O4" s="148" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>103</v>
@@ -16497,10 +16497,10 @@
         <v>AUDSWOIS=ICAA</v>
       </c>
       <c r="P5" s="289">
-        <v>2.202</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" s="289">
-        <v>2.2229999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="R5" s="289">
         <v>0</v>
@@ -16510,11 +16510,11 @@
       </c>
       <c r="T5" s="289">
         <f>IF(ISERROR(AVERAGE(P5,Q5)),#NUM!,AVERAGE(P5,Q5))</f>
-        <v>2.2124999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="U5" s="292">
         <f>Q5-P5</f>
-        <v>2.0999999999999908E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V5" s="153"/>
       <c r="W5" s="289">
@@ -16523,11 +16523,11 @@
       <c r="X5" s="153"/>
       <c r="Y5" s="289">
         <f t="array" ref="Y5:Y58">QuoteLive</f>
-        <v>2.2124999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="Z5" s="315">
         <f>_xll.qlSimpleQuoteSetValue(F5,Y5/100,Trigger)</f>
-        <v>-3.7500000000000033E-4</v>
+        <v>-8.2499999999999934E-4</v>
       </c>
       <c r="AA5" s="70"/>
     </row>
@@ -16726,10 +16726,10 @@
         <v>AUD1MOIS=ICAA</v>
       </c>
       <c r="P8" s="292">
-        <v>2.1349999999999998</v>
+        <v>2.105</v>
       </c>
       <c r="Q8" s="292">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R8" s="292">
         <v>0</v>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="T8" s="292">
         <f t="shared" si="5"/>
-        <v>2.1425000000000001</v>
+        <v>2.1124999999999998</v>
       </c>
       <c r="U8" s="292">
         <f t="shared" si="6"/>
@@ -16751,11 +16751,11 @@
       </c>
       <c r="X8" s="153"/>
       <c r="Y8" s="292">
-        <v>2.1425000000000001</v>
+        <v>2.1124999999999998</v>
       </c>
       <c r="Z8" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>-3.249999999999989E-4</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="AA8" s="70"/>
     </row>
@@ -16802,10 +16802,10 @@
         <v>AUD2MOIS=ICAA</v>
       </c>
       <c r="P9" s="292">
-        <v>2.1</v>
+        <v>2.0649999999999999</v>
       </c>
       <c r="Q9" s="292">
-        <v>2.1080000000000001</v>
+        <v>2.085</v>
       </c>
       <c r="R9" s="292">
         <v>0</v>
@@ -16815,11 +16815,11 @@
       </c>
       <c r="T9" s="292">
         <f t="shared" si="5"/>
-        <v>2.1040000000000001</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="U9" s="292">
         <f t="shared" si="6"/>
-        <v>8.0000000000000071E-3</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V9" s="153"/>
       <c r="W9" s="292">
@@ -16827,11 +16827,11 @@
       </c>
       <c r="X9" s="153"/>
       <c r="Y9" s="292">
-        <v>2.1040000000000001</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="Z9" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
-        <v>-2.7500000000000094E-4</v>
+        <v>-2.8999999999999859E-4</v>
       </c>
       <c r="AA9" s="70"/>
     </row>
@@ -16878,10 +16878,10 @@
         <v>AUD3MOIS=ICAA</v>
       </c>
       <c r="P10" s="292">
-        <v>2.052</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="Q10" s="292">
-        <v>2.0680000000000001</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="R10" s="292">
         <v>0</v>
@@ -16891,11 +16891,11 @@
       </c>
       <c r="T10" s="292">
         <f t="shared" si="5"/>
-        <v>2.06</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="U10" s="292">
         <f t="shared" si="6"/>
-        <v>1.6000000000000014E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V10" s="153"/>
       <c r="W10" s="292">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="292">
-        <v>2.06</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="Z10" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>-2.9999999999999818E-4</v>
+        <v>-2.5000000000000022E-4</v>
       </c>
       <c r="AA10" s="70"/>
     </row>
@@ -16954,10 +16954,10 @@
         <v>AUD4MOIS=ICAA</v>
       </c>
       <c r="P11" s="292">
-        <v>2.0099999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" s="292">
-        <v>2.0249999999999999</v>
+        <v>2</v>
       </c>
       <c r="R11" s="292">
         <v>0</v>
@@ -16967,11 +16967,11 @@
       </c>
       <c r="T11" s="292">
         <f t="shared" si="5"/>
-        <v>2.0175000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="U11" s="292">
         <f t="shared" si="6"/>
-        <v>1.5000000000000124E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V11" s="153"/>
       <c r="W11" s="292">
@@ -16979,11 +16979,11 @@
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="292">
-        <v>2.0175000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="Z11" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>-3.4999999999999962E-4</v>
+        <v>-2.7500000000000094E-4</v>
       </c>
       <c r="AA11" s="70"/>
     </row>
@@ -17030,10 +17030,10 @@
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="P12" s="292">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" s="292">
-        <v>1.9849999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="R12" s="292">
         <v>0</v>
@@ -17043,11 +17043,11 @@
       </c>
       <c r="T12" s="292">
         <f t="shared" si="5"/>
-        <v>1.9775</v>
+        <v>1.95</v>
       </c>
       <c r="U12" s="292">
         <f t="shared" si="6"/>
-        <v>1.4999999999999902E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V12" s="153"/>
       <c r="W12" s="292">
@@ -17055,11 +17055,11 @@
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="292">
-        <v>1.9775</v>
+        <v>1.95</v>
       </c>
       <c r="Z12" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>-3.7500000000000033E-4</v>
+        <v>-2.7500000000000094E-4</v>
       </c>
       <c r="AA12" s="70"/>
     </row>
@@ -17106,10 +17106,10 @@
         <v>AUD6MOIS=ICAA</v>
       </c>
       <c r="P13" s="292">
-        <v>1.9470000000000001</v>
+        <v>1.915</v>
       </c>
       <c r="Q13" s="292">
-        <v>1.96</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="R13" s="292">
         <v>0</v>
@@ -17119,11 +17119,11 @@
       </c>
       <c r="T13" s="292">
         <f t="shared" si="5"/>
-        <v>1.9535</v>
+        <v>1.9225000000000001</v>
       </c>
       <c r="U13" s="292">
         <f t="shared" si="6"/>
-        <v>1.2999999999999901E-2</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="V13" s="153"/>
       <c r="W13" s="292">
@@ -17131,11 +17131,11 @@
       </c>
       <c r="X13" s="153"/>
       <c r="Y13" s="292">
-        <v>1.9535</v>
+        <v>1.9225000000000001</v>
       </c>
       <c r="Z13" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>-3.7999999999999839E-4</v>
+        <v>-3.0999999999999778E-4</v>
       </c>
       <c r="AA13" s="70"/>
     </row>
@@ -17334,10 +17334,10 @@
         <v>AUD9MOIS=ICAA</v>
       </c>
       <c r="P16" s="292">
-        <v>1.8800000000000001</v>
+        <v>1.845</v>
       </c>
       <c r="Q16" s="292">
-        <v>1.8980000000000001</v>
+        <v>1.865</v>
       </c>
       <c r="R16" s="292">
         <v>0</v>
@@ -17347,11 +17347,11 @@
       </c>
       <c r="T16" s="292">
         <f t="shared" si="5"/>
-        <v>1.8890000000000002</v>
+        <v>1.855</v>
       </c>
       <c r="U16" s="292">
         <f t="shared" si="6"/>
-        <v>1.8000000000000016E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V16" s="153"/>
       <c r="W16" s="292">
@@ -17359,11 +17359,11 @@
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="292">
-        <v>1.8890000000000002</v>
+        <v>1.855</v>
       </c>
       <c r="Z16" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>-4.5999999999999514E-4</v>
+        <v>-3.4000000000000349E-4</v>
       </c>
       <c r="AA16" s="70"/>
     </row>
@@ -17562,10 +17562,10 @@
         <v>AUD12MOIS=ICAA</v>
       </c>
       <c r="P19" s="292">
-        <v>1.8519999999999999</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="Q19" s="292">
-        <v>1.865</v>
+        <v>1.835</v>
       </c>
       <c r="R19" s="292">
         <v>0</v>
@@ -17575,11 +17575,11 @@
       </c>
       <c r="T19" s="292">
         <f t="shared" si="5"/>
-        <v>1.8584999999999998</v>
+        <v>1.825</v>
       </c>
       <c r="U19" s="292">
         <f t="shared" si="6"/>
-        <v>1.3000000000000123E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V19" s="153"/>
       <c r="W19" s="292" t="e">
@@ -17587,11 +17587,11 @@
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="292">
-        <v>1.8584999999999998</v>
+        <v>1.825</v>
       </c>
       <c r="Z19" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>-4.650000000000036E-4</v>
+        <v>-3.3499999999999849E-4</v>
       </c>
       <c r="AA19" s="70"/>
     </row>
@@ -18018,10 +18018,10 @@
         <v>AUD18MOIS=ICAA</v>
       </c>
       <c r="P25" s="292">
-        <v>1.8199999999999998</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="Q25" s="292">
-        <v>1.8699999999999999</v>
+        <v>1.845</v>
       </c>
       <c r="R25" s="292">
         <v>0</v>
@@ -18031,7 +18031,7 @@
       </c>
       <c r="T25" s="292">
         <f t="shared" si="5"/>
-        <v>1.8449999999999998</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="U25" s="292">
         <f t="shared" si="6"/>
@@ -18043,11 +18043,11 @@
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="292">
-        <v>1.8449999999999998</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="Z25" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>-4.5000000000000248E-4</v>
+        <v>-2.5000000000000022E-4</v>
       </c>
       <c r="AA25" s="70"/>
     </row>
@@ -18474,10 +18474,10 @@
         <v>AUD2YOIS=ICAA</v>
       </c>
       <c r="P31" s="292">
-        <v>1.835</v>
+        <v>1.81</v>
       </c>
       <c r="Q31" s="292">
-        <v>1.885</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="R31" s="292">
         <v>0</v>
@@ -18487,11 +18487,11 @@
       </c>
       <c r="T31" s="292">
         <f t="shared" si="5"/>
-        <v>1.8599999999999999</v>
+        <v>1.835</v>
       </c>
       <c r="U31" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="292">
@@ -18499,11 +18499,11 @@
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="292">
-        <v>1.8599999999999999</v>
+        <v>1.835</v>
       </c>
       <c r="Z31" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>-4.5000000000000248E-4</v>
+        <v>-2.5000000000000022E-4</v>
       </c>
       <c r="AA31" s="70"/>
     </row>
@@ -18778,10 +18778,10 @@
         <v>AUD3YOIS=ICAA</v>
       </c>
       <c r="P35" s="292">
-        <v>1.905</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Q35" s="292">
-        <v>1.9550000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="R35" s="292">
         <v>0</v>
@@ -18791,11 +18791,11 @@
       </c>
       <c r="T35" s="292">
         <f t="shared" si="5"/>
-        <v>1.9300000000000002</v>
+        <v>1.915</v>
       </c>
       <c r="U35" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V35" s="153"/>
       <c r="W35" s="292">
@@ -18803,11 +18803,11 @@
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="292">
-        <v>1.9300000000000002</v>
+        <v>1.915</v>
       </c>
       <c r="Z35" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35/100,Trigger)</f>
-        <v>-5.4999999999999841E-4</v>
+        <v>-1.5000000000000083E-4</v>
       </c>
       <c r="AA35" s="70"/>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="O4" s="148" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:16:11</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>103</v>
@@ -21925,20 +21925,20 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="292">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q19" s="292">
-        <v>1.883</v>
+        <v>1.85</v>
       </c>
       <c r="R19" s="292">
         <v>0</v>
       </c>
       <c r="S19" s="292">
-        <v>1.8580000000000001</v>
+        <v>1.825</v>
       </c>
       <c r="T19" s="292">
         <f t="shared" si="5"/>
-        <v>1.8580000000000001</v>
+        <v>1.8250000000000002</v>
       </c>
       <c r="U19" s="292">
         <f t="shared" si="6"/>
@@ -21950,11 +21950,11 @@
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="292">
-        <v>1.8580000000000001</v>
+        <v>1.8250000000000002</v>
       </c>
       <c r="Z19" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>-4.0000000000000105E-4</v>
+        <v>-3.2999999999999696E-4</v>
       </c>
       <c r="AA19" s="70"/>
     </row>
@@ -22393,24 +22393,24 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="292">
+        <v>1.77</v>
+      </c>
+      <c r="Q25" s="292">
+        <v>1.8199999999999998</v>
+      </c>
+      <c r="R25" s="292">
+        <v>0</v>
+      </c>
+      <c r="S25" s="292">
         <v>1.7949999999999999</v>
-      </c>
-      <c r="Q25" s="292">
-        <v>1.845</v>
-      </c>
-      <c r="R25" s="292">
-        <v>0</v>
-      </c>
-      <c r="S25" s="292">
-        <v>1.8199999999999998</v>
       </c>
       <c r="T25" s="292">
         <f t="shared" si="5"/>
-        <v>1.8199999999999998</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="U25" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V25" s="153"/>
       <c r="W25" s="292">
@@ -22418,11 +22418,11 @@
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="292">
-        <v>1.8199999999999998</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="Z25" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>-4.5000000000000595E-4</v>
+        <v>-2.4999999999999675E-4</v>
       </c>
       <c r="AA25" s="70"/>
     </row>
@@ -22861,24 +22861,24 @@
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="P31" s="292">
-        <v>1.8050000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="Q31" s="292">
-        <v>1.855</v>
+        <v>1.84</v>
       </c>
       <c r="R31" s="292">
         <v>0</v>
       </c>
       <c r="S31" s="292">
-        <v>1.83</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="T31" s="292">
         <f t="shared" si="5"/>
-        <v>1.83</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="U31" s="292">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="292">
@@ -22886,11 +22886,11 @@
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="292">
-        <v>1.83</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="Z31" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>-5.4999999999999841E-4</v>
+        <v>-1.5000000000000083E-4</v>
       </c>
       <c r="AA31" s="70"/>
     </row>
@@ -23173,20 +23173,20 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="292">
-        <v>1.865</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="Q35" s="292">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="R35" s="292">
         <v>0</v>
       </c>
       <c r="S35" s="292">
-        <v>1.8900000000000001</v>
+        <v>1.885</v>
       </c>
       <c r="T35" s="292">
         <f t="shared" si="5"/>
-        <v>1.8900000000000001</v>
+        <v>1.8849999999999998</v>
       </c>
       <c r="U35" s="292">
         <f t="shared" si="6"/>
@@ -23198,11 +23198,11 @@
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="292">
-        <v>1.8900000000000001</v>
+        <v>1.8849999999999998</v>
       </c>
       <c r="Z35" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35/100,Trigger)</f>
-        <v>-5.4999999999999841E-4</v>
+        <v>-5.0000000000001432E-5</v>
       </c>
       <c r="AA35" s="70"/>
     </row>
@@ -23485,24 +23485,24 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="292">
-        <v>1.9330000000000001</v>
+        <v>1.9380000000000002</v>
       </c>
       <c r="Q39" s="292">
-        <v>1.9830000000000001</v>
+        <v>1.988</v>
       </c>
       <c r="R39" s="292">
         <v>0</v>
       </c>
       <c r="S39" s="292">
-        <v>1.958</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="T39" s="292">
         <f t="shared" si="5"/>
-        <v>1.9580000000000002</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="U39" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V39" s="153"/>
       <c r="W39" s="292">
@@ -23510,11 +23510,11 @@
       </c>
       <c r="X39" s="153"/>
       <c r="Y39" s="292">
-        <v>1.9580000000000002</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="Z39" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F39,Y39/100,Trigger)</f>
-        <v>-5.4999999999999841E-4</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA39" s="70"/>
     </row>
@@ -23797,20 +23797,20 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="292">
-        <v>2.0249999999999999</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="Q43" s="292">
-        <v>2.0750000000000002</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="R43" s="292">
         <v>0</v>
       </c>
       <c r="S43" s="292">
-        <v>2.0499999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T43" s="292">
         <f t="shared" si="5"/>
-        <v>2.0499999999999998</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="U43" s="292">
         <f t="shared" si="6"/>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="X43" s="153"/>
       <c r="Y43" s="292">
-        <v>2.0499999999999998</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="Z43" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F43,Y43/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>2.0000000000000573E-4</v>
       </c>
       <c r="AA43" s="70"/>
     </row>
@@ -23875,20 +23875,20 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="292">
-        <v>2.12</v>
+        <v>2.153</v>
       </c>
       <c r="Q44" s="292">
-        <v>2.17</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="R44" s="292">
         <v>0</v>
       </c>
       <c r="S44" s="292">
-        <v>2.145</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="T44" s="292">
         <f t="shared" si="5"/>
-        <v>2.145</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="U44" s="292">
         <f t="shared" si="6"/>
@@ -23900,11 +23900,11 @@
       </c>
       <c r="X44" s="153"/>
       <c r="Y44" s="292">
-        <v>2.145</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="Z44" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F44,Y44/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>3.3000000000000043E-4</v>
       </c>
       <c r="AA44" s="70"/>
     </row>
@@ -23953,24 +23953,24 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="292">
-        <v>2.2149999999999999</v>
+        <v>2.258</v>
       </c>
       <c r="Q45" s="292">
-        <v>2.2650000000000001</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="R45" s="292">
         <v>0</v>
       </c>
       <c r="S45" s="292">
-        <v>2.2400000000000002</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="T45" s="292">
         <f t="shared" si="5"/>
-        <v>2.2400000000000002</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="U45" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V45" s="153"/>
       <c r="W45" s="292">
@@ -23978,11 +23978,11 @@
       </c>
       <c r="X45" s="153"/>
       <c r="Y45" s="292">
-        <v>2.2400000000000002</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="Z45" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F45,Y45/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>4.2999999999999636E-4</v>
       </c>
       <c r="AA45" s="70"/>
     </row>
@@ -24031,20 +24031,20 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="292">
-        <v>2.2850000000000001</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="Q46" s="292">
-        <v>2.335</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="R46" s="292">
         <v>0</v>
       </c>
       <c r="S46" s="292">
-        <v>2.31</v>
+        <v>2.363</v>
       </c>
       <c r="T46" s="292">
         <f t="shared" si="5"/>
-        <v>2.31</v>
+        <v>2.363</v>
       </c>
       <c r="U46" s="292">
         <f t="shared" si="6"/>
@@ -24056,11 +24056,11 @@
       </c>
       <c r="X46" s="153"/>
       <c r="Y46" s="292">
-        <v>2.31</v>
+        <v>2.363</v>
       </c>
       <c r="Z46" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F46,Y46/100,Trigger)</f>
-        <v>-6.3000000000000209E-4</v>
+        <v>5.2999999999999922E-4</v>
       </c>
       <c r="AA46" s="70"/>
     </row>
@@ -24109,20 +24109,20 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="292">
-        <v>2.3580000000000001</v>
+        <v>2.415</v>
       </c>
       <c r="Q47" s="292">
-        <v>2.4079999999999999</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="R47" s="292">
         <v>0</v>
       </c>
       <c r="S47" s="292">
-        <v>2.383</v>
+        <v>2.44</v>
       </c>
       <c r="T47" s="292">
         <f t="shared" si="5"/>
-        <v>2.383</v>
+        <v>2.44</v>
       </c>
       <c r="U47" s="292">
         <f t="shared" si="6"/>
@@ -24134,11 +24134,11 @@
       </c>
       <c r="X47" s="153"/>
       <c r="Y47" s="292">
-        <v>2.383</v>
+        <v>2.44</v>
       </c>
       <c r="Z47" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F47,Y47/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>5.6999999999999759E-4</v>
       </c>
       <c r="AA47" s="70"/>
     </row>
@@ -24187,24 +24187,24 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="292">
-        <v>2.4279999999999999</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="Q48" s="292">
-        <v>2.4780000000000002</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="R48" s="292">
         <v>0</v>
       </c>
       <c r="S48" s="292">
-        <v>2.4529999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="T48" s="292">
         <f t="shared" si="5"/>
-        <v>2.4530000000000003</v>
+        <v>2.52</v>
       </c>
       <c r="U48" s="292">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V48" s="153"/>
       <c r="W48" s="292">
@@ -24212,11 +24212,11 @@
       </c>
       <c r="X48" s="153"/>
       <c r="Y48" s="292">
-        <v>2.4530000000000003</v>
+        <v>2.52</v>
       </c>
       <c r="Z48" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F48,Y48/100,Trigger)</f>
-        <v>-6.1999999999999902E-4</v>
+        <v>6.6999999999999699E-4</v>
       </c>
       <c r="AA48" s="70"/>
     </row>
@@ -24265,20 +24265,20 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="292">
-        <v>2.5380000000000003</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="Q49" s="292">
-        <v>2.5880000000000001</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="R49" s="292">
         <v>0</v>
       </c>
       <c r="S49" s="292">
-        <v>2.5629999999999997</v>
+        <v>2.633</v>
       </c>
       <c r="T49" s="292">
         <f t="shared" si="5"/>
-        <v>2.5630000000000002</v>
+        <v>2.633</v>
       </c>
       <c r="U49" s="292">
         <f t="shared" si="6"/>
@@ -24290,11 +24290,11 @@
       </c>
       <c r="X49" s="153"/>
       <c r="Y49" s="292">
-        <v>2.5630000000000002</v>
+        <v>2.633</v>
       </c>
       <c r="Z49" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F49,Y49/100,Trigger)</f>
-        <v>-6.9999999999999923E-4</v>
+        <v>6.9999999999999923E-4</v>
       </c>
       <c r="AA49" s="70"/>
     </row>
@@ -24343,24 +24343,24 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="292">
-        <v>2.665</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="Q50" s="292">
-        <v>2.7149999999999999</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="R50" s="292">
         <v>0</v>
       </c>
       <c r="S50" s="292">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="T50" s="292">
         <f t="shared" si="5"/>
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="U50" s="292">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="V50" s="153"/>
       <c r="W50" s="292">
@@ -24368,11 +24368,11 @@
       </c>
       <c r="X50" s="153"/>
       <c r="Y50" s="292">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="Z50" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F50,Y50/100,Trigger)</f>
-        <v>-6.499999999999978E-4</v>
+        <v>6.9999999999999923E-4</v>
       </c>
       <c r="AA50" s="70"/>
     </row>
@@ -24421,24 +24421,24 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="292">
-        <v>2.7850000000000001</v>
+        <v>2.855</v>
       </c>
       <c r="Q51" s="292">
-        <v>2.835</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="R51" s="292">
         <v>0</v>
       </c>
       <c r="S51" s="292">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="T51" s="292">
         <f t="shared" si="5"/>
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="U51" s="292">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="V51" s="153"/>
       <c r="W51" s="292">
@@ -24446,11 +24446,11 @@
       </c>
       <c r="X51" s="153"/>
       <c r="Y51" s="292">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="Z51" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F51,Y51/100,Trigger)</f>
-        <v>-6.5000000000000127E-4</v>
+        <v>6.9999999999999923E-4</v>
       </c>
       <c r="AA51" s="70"/>
     </row>
@@ -24499,20 +24499,20 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="292">
-        <v>2.8580000000000001</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="Q52" s="292">
-        <v>2.9079999999999999</v>
+        <v>2.9779999999999998</v>
       </c>
       <c r="R52" s="292">
         <v>0</v>
       </c>
       <c r="S52" s="292">
-        <v>2.883</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="T52" s="292">
         <f t="shared" si="5"/>
-        <v>2.883</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="U52" s="292">
         <f t="shared" si="6"/>
@@ -24524,11 +24524,11 @@
       </c>
       <c r="X52" s="153"/>
       <c r="Y52" s="292">
-        <v>2.883</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="Z52" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F52,Y52/100,Trigger)</f>
-        <v>-6.499999999999978E-4</v>
+        <v>6.9999999999999576E-4</v>
       </c>
       <c r="AA52" s="70"/>
     </row>
@@ -24655,20 +24655,20 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="292">
-        <v>2.8730000000000002</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="Q54" s="292">
-        <v>2.923</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="R54" s="292">
         <v>0</v>
       </c>
       <c r="S54" s="292">
-        <v>2.8980000000000001</v>
+        <v>2.968</v>
       </c>
       <c r="T54" s="292">
         <f t="shared" si="5"/>
-        <v>2.8980000000000001</v>
+        <v>2.968</v>
       </c>
       <c r="U54" s="292">
         <f t="shared" si="6"/>
@@ -24680,11 +24680,11 @@
       </c>
       <c r="X54" s="153"/>
       <c r="Y54" s="292">
-        <v>2.8980000000000001</v>
+        <v>2.968</v>
       </c>
       <c r="Z54" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F54,Y54/100,Trigger)</f>
-        <v>-6.499999999999978E-4</v>
+        <v>6.9999999999999576E-4</v>
       </c>
       <c r="AA54" s="70"/>
     </row>
@@ -25168,7 +25168,7 @@
       <c r="AE2" s="49"/>
       <c r="AF2" s="298">
         <f>_xll.ohTrigger(AF5:AF46)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="218"/>
     </row>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="R4" s="148" t="str">
         <f>_xll.RData(R5:R46,S4:Y4,"RTFEED:IDN",ReutersRtMode,,S5)</f>
-        <v>Updated at 09:49:53</v>
+        <v>Updated at 10:37:24</v>
       </c>
       <c r="S4" s="149" t="s">
         <v>121</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="I5" s="347" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H5,IborIndex,D5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(AF5),ISERROR(FuturesHWConvAdj!U5:U6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0069</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0002</v>
       </c>
       <c r="J5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -25362,26 +25362,26 @@
         <v>42075</v>
       </c>
       <c r="T5" s="289">
-        <v>97.72</v>
+        <v>97.75</v>
       </c>
       <c r="U5" s="289">
-        <v>97.73</v>
+        <v>97.76</v>
       </c>
       <c r="V5" s="289">
-        <v>97.73</v>
+        <v>97.75</v>
       </c>
       <c r="W5" s="289">
-        <v>97.74</v>
+        <v>97.76</v>
       </c>
       <c r="X5" s="355">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="355">
-        <v>136132</v>
+        <v>132202</v>
       </c>
       <c r="Z5" s="289">
         <f>_xll.qlMidSafe(T5,U5,Trigger)</f>
-        <v>97.724999999999994</v>
+        <v>97.754999999999995</v>
       </c>
       <c r="AA5" s="292">
         <f>U5-T5</f>
@@ -25394,11 +25394,11 @@
       <c r="AD5" s="223"/>
       <c r="AE5" s="289">
         <f t="array" ref="AE5:AE46">QuoteLive</f>
-        <v>97.724999999999994</v>
+        <v>97.754999999999995</v>
       </c>
       <c r="AF5" s="317">
         <f>_xll.qlSimpleQuoteSetValue(F5,AE5,Trigger)</f>
-        <v>0</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AG5" s="44"/>
     </row>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="I6" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H6,IborIndex,D6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(AF6),ISERROR(FuturesHWConvAdj!U6:U7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0069</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0002</v>
       </c>
       <c r="J6" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -25526,7 +25526,7 @@
       </c>
       <c r="I7" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H7,IborIndex,D7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(AF7),ISERROR(FuturesHWConvAdj!U7:U8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0001</v>
       </c>
       <c r="J7" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="I8" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H8,IborIndex,D8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(AF8),ISERROR(FuturesHWConvAdj!U8:U9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0001</v>
       </c>
       <c r="J8" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -25648,30 +25648,30 @@
         <v>42166</v>
       </c>
       <c r="T8" s="292">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="U8" s="292">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="V8" s="292">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="W8" s="292">
         <v>97.94</v>
       </c>
       <c r="X8" s="356">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="356">
-        <v>209045</v>
+        <v>219496</v>
       </c>
       <c r="Z8" s="292">
         <f>_xll.qlMidSafe(T8,U8,Trigger)</f>
-        <v>97.935000000000002</v>
+        <v>97.944999999999993</v>
       </c>
       <c r="AA8" s="292">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AB8" s="223"/>
       <c r="AC8" s="329">
@@ -25679,11 +25679,11 @@
       </c>
       <c r="AD8" s="223"/>
       <c r="AE8" s="292">
-        <v>97.935000000000002</v>
+        <v>97.944999999999993</v>
       </c>
       <c r="AF8" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F8,AE8,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AG8" s="44"/>
     </row>
@@ -25716,7 +25716,7 @@
       </c>
       <c r="I9" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H9,IborIndex,D9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(AF9),ISERROR(FuturesHWConvAdj!U9:U10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0001</v>
       </c>
       <c r="J9" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -25812,7 +25812,7 @@
       </c>
       <c r="I10" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H10,IborIndex,D10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(AF10),ISERROR(FuturesHWConvAdj!U10:U11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote#0001</v>
       </c>
       <c r="J10" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -25907,7 +25907,7 @@
       </c>
       <c r="I11" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H11,IborIndex,D11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(AF11),ISERROR(FuturesHWConvAdj!U11:U12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="J11" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -25934,26 +25934,26 @@
         <v>42257</v>
       </c>
       <c r="T11" s="292">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="U11" s="292">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="V11" s="292">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="W11" s="292">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="X11" s="356">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="356">
-        <v>171605</v>
+        <v>180075</v>
       </c>
       <c r="Z11" s="292">
         <f>_xll.qlMidSafe(T11,U11,Trigger)</f>
-        <v>98.004999999999995</v>
+        <v>98.034999999999997</v>
       </c>
       <c r="AA11" s="292">
         <f t="shared" si="2"/>
@@ -25965,11 +25965,11 @@
       </c>
       <c r="AD11" s="223"/>
       <c r="AE11" s="292">
-        <v>98.004999999999995</v>
+        <v>98.034999999999997</v>
       </c>
       <c r="AF11" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F11,AE11,Trigger)</f>
-        <v>-1.0000000000005116E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AG11" s="44"/>
     </row>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="I12" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H12,IborIndex,D12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(AF12),ISERROR(FuturesHWConvAdj!U12:U13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MV5ConvAdj_Quote#0001</v>
       </c>
       <c r="J12" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -26097,7 +26097,7 @@
       </c>
       <c r="I13" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H13,IborIndex,D13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(AF13),ISERROR(FuturesHWConvAdj!U13:U14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MX5ConvAdj_Quote#0001</v>
       </c>
       <c r="J13" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="I14" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H14,IborIndex,D14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(AF14),ISERROR(FuturesHWConvAdj!U14:U15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="J14" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -26219,26 +26219,26 @@
         <v>42348</v>
       </c>
       <c r="T14" s="292">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="U14" s="292">
-        <v>98.02</v>
+        <v>98.05</v>
       </c>
       <c r="V14" s="292">
-        <v>98.02</v>
+        <v>98.04</v>
       </c>
       <c r="W14" s="292">
-        <v>98.02</v>
+        <v>98.05</v>
       </c>
       <c r="X14" s="356">
         <v>1</v>
       </c>
       <c r="Y14" s="356">
-        <v>135739</v>
+        <v>142106</v>
       </c>
       <c r="Z14" s="292">
         <f>_xll.qlMidSafe(T14,U14,Trigger)</f>
-        <v>98.015000000000001</v>
+        <v>98.045000000000002</v>
       </c>
       <c r="AA14" s="292">
         <f t="shared" si="2"/>
@@ -26250,11 +26250,11 @@
       </c>
       <c r="AD14" s="223"/>
       <c r="AE14" s="292">
-        <v>98.015000000000001</v>
+        <v>98.045000000000002</v>
       </c>
       <c r="AF14" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F14,AE14,Trigger)</f>
-        <v>0</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AG14" s="44"/>
     </row>
@@ -26287,7 +26287,7 @@
       </c>
       <c r="I15" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H15,IborIndex,D15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(AF15),ISERROR(FuturesHWConvAdj!U15:U16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MF6ConvAdj_Quote#0001</v>
       </c>
       <c r="J15" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -26382,7 +26382,7 @@
       </c>
       <c r="I16" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H16,IborIndex,D16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(AF16),ISERROR(FuturesHWConvAdj!U16:U17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MG6ConvAdj_Quote#0001</v>
       </c>
       <c r="J16" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -26477,7 +26477,7 @@
       </c>
       <c r="I17" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H17,IborIndex,D17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(AF17),ISERROR(FuturesHWConvAdj!U17:U18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="J17" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -26504,30 +26504,30 @@
         <v>42439</v>
       </c>
       <c r="T17" s="292">
-        <v>97.98</v>
+        <v>98.02</v>
       </c>
       <c r="U17" s="292">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="V17" s="292">
-        <v>97.99</v>
+        <v>98.02</v>
       </c>
       <c r="W17" s="292">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="X17" s="356">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="356">
-        <v>106375</v>
+        <v>105881</v>
       </c>
       <c r="Z17" s="292">
         <f>_xll.qlMidSafe(T17,U17,Trigger)</f>
-        <v>97.990000000000009</v>
+        <v>98.025000000000006</v>
       </c>
       <c r="AA17" s="292">
         <f t="shared" si="2"/>
-        <v>1.9999999999996021E-2</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AB17" s="223"/>
       <c r="AC17" s="329">
@@ -26535,11 +26535,11 @@
       </c>
       <c r="AD17" s="223"/>
       <c r="AE17" s="292">
-        <v>97.990000000000009</v>
+        <v>98.025000000000006</v>
       </c>
       <c r="AF17" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F17,AE17,Trigger)</f>
-        <v>-4.9999999999954525E-3</v>
+        <v>3.4999999999996589E-2</v>
       </c>
       <c r="AG17" s="44"/>
     </row>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="I18" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H18,IborIndex,D18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(AF18),ISERROR(FuturesHWConvAdj!U18:U19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="J18" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -26599,26 +26599,26 @@
         <v>42530</v>
       </c>
       <c r="T18" s="292">
-        <v>97.95</v>
+        <v>97.98</v>
       </c>
       <c r="U18" s="292">
-        <v>97.96</v>
+        <v>97.99</v>
       </c>
       <c r="V18" s="292">
-        <v>97.96</v>
+        <v>97.98</v>
       </c>
       <c r="W18" s="292">
-        <v>97.96</v>
+        <v>97.99</v>
       </c>
       <c r="X18" s="356">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="356">
-        <v>66169</v>
+        <v>68414</v>
       </c>
       <c r="Z18" s="292">
         <f>_xll.qlMidSafe(T18,U18,Trigger)</f>
-        <v>97.954999999999998</v>
+        <v>97.984999999999999</v>
       </c>
       <c r="AA18" s="292">
         <f t="shared" si="2"/>
@@ -26630,11 +26630,11 @@
       </c>
       <c r="AD18" s="223"/>
       <c r="AE18" s="292">
-        <v>97.954999999999998</v>
+        <v>97.984999999999999</v>
       </c>
       <c r="AF18" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F18,AE18,Trigger)</f>
-        <v>0</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AG18" s="44"/>
     </row>
@@ -26667,7 +26667,7 @@
       </c>
       <c r="I19" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H19,IborIndex,D19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(AF19),ISERROR(FuturesHWConvAdj!U19:U20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="J19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -26694,26 +26694,26 @@
         <v>42621</v>
       </c>
       <c r="T19" s="292">
-        <v>97.92</v>
+        <v>97.94</v>
       </c>
       <c r="U19" s="292">
-        <v>97.93</v>
+        <v>97.95</v>
       </c>
       <c r="V19" s="292">
-        <v>97.92</v>
+        <v>97.94</v>
       </c>
       <c r="W19" s="292">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="X19" s="356">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="356">
-        <v>42781</v>
+        <v>44409</v>
       </c>
       <c r="Z19" s="292">
         <f>_xll.qlMidSafe(T19,U19,Trigger)</f>
-        <v>97.925000000000011</v>
+        <v>97.944999999999993</v>
       </c>
       <c r="AA19" s="292">
         <f t="shared" si="2"/>
@@ -26725,11 +26725,11 @@
       </c>
       <c r="AD19" s="223"/>
       <c r="AE19" s="292">
-        <v>97.925000000000011</v>
+        <v>97.944999999999993</v>
       </c>
       <c r="AF19" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F19,AE19,Trigger)</f>
-        <v>0</v>
+        <v>1.999999999998181E-2</v>
       </c>
       <c r="AG19" s="44"/>
     </row>
@@ -26762,7 +26762,7 @@
       </c>
       <c r="I20" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H20,IborIndex,D20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(AF20),ISERROR(FuturesHWConvAdj!U20:U21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J20" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -26789,26 +26789,26 @@
         <v>42712</v>
       </c>
       <c r="T20" s="292">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="U20" s="292">
+        <v>97.9</v>
+      </c>
+      <c r="V20" s="292">
+        <v>0</v>
+      </c>
+      <c r="W20" s="292">
         <v>97.89</v>
       </c>
-      <c r="V20" s="292">
-        <v>0</v>
-      </c>
-      <c r="W20" s="292">
-        <v>97.87</v>
-      </c>
       <c r="X20" s="356">
         <v>0</v>
       </c>
       <c r="Y20" s="356">
-        <v>42773</v>
+        <v>45610</v>
       </c>
       <c r="Z20" s="292">
         <f>_xll.qlMidSafe(T20,U20,Trigger)</f>
-        <v>97.884999999999991</v>
+        <v>97.89500000000001</v>
       </c>
       <c r="AA20" s="292">
         <f t="shared" si="2"/>
@@ -26820,11 +26820,11 @@
       </c>
       <c r="AD20" s="223"/>
       <c r="AE20" s="292">
-        <v>97.884999999999991</v>
+        <v>97.89500000000001</v>
       </c>
       <c r="AF20" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F20,AE20,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000019327E-2</v>
       </c>
       <c r="AG20" s="44"/>
     </row>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="I21" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H21,IborIndex,D21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(AF21),ISERROR(FuturesHWConvAdj!U21:U22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="J21" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -26899,7 +26899,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="356">
-        <v>4416</v>
+        <v>4564</v>
       </c>
       <c r="Z21" s="292">
         <f>_xll.qlMidSafe(T21,U21,Trigger)</f>
@@ -26952,7 +26952,7 @@
       </c>
       <c r="I22" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H22,IborIndex,D22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(AF22),ISERROR(FuturesHWConvAdj!U22:U23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="J22" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -26979,26 +26979,26 @@
         <v>42894</v>
       </c>
       <c r="T22" s="292">
+        <v>97.77</v>
+      </c>
+      <c r="U22" s="292">
+        <v>97.8</v>
+      </c>
+      <c r="V22" s="292">
+        <v>0</v>
+      </c>
+      <c r="W22" s="292">
         <v>97.78</v>
       </c>
-      <c r="U22" s="292">
-        <v>97.81</v>
-      </c>
-      <c r="V22" s="292">
-        <v>0</v>
-      </c>
-      <c r="W22" s="292">
-        <v>97.77</v>
-      </c>
       <c r="X22" s="356">
         <v>0</v>
       </c>
       <c r="Y22" s="356">
-        <v>5141</v>
+        <v>5207</v>
       </c>
       <c r="Z22" s="292">
         <f>_xll.qlMidSafe(T22,U22,Trigger)</f>
-        <v>97.795000000000002</v>
+        <v>97.784999999999997</v>
       </c>
       <c r="AA22" s="292">
         <f t="shared" si="2"/>
@@ -27010,11 +27010,11 @@
       </c>
       <c r="AD22" s="223"/>
       <c r="AE22" s="292">
-        <v>97.795000000000002</v>
+        <v>97.784999999999997</v>
       </c>
       <c r="AF22" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F22,AE22,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000005116E-2</v>
       </c>
       <c r="AG22" s="44"/>
     </row>
@@ -27047,7 +27047,7 @@
       </c>
       <c r="I23" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H23,IborIndex,D23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(AF23),ISERROR(FuturesHWConvAdj!U23:U24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="J23" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -27074,30 +27074,30 @@
         <v>42985</v>
       </c>
       <c r="T23" s="292">
-        <v>97.72</v>
+        <v>97.7</v>
       </c>
       <c r="U23" s="292">
-        <v>97.76</v>
+        <v>97.75</v>
       </c>
       <c r="V23" s="292">
         <v>0</v>
       </c>
       <c r="W23" s="292">
-        <v>97.74</v>
+        <v>97.71</v>
       </c>
       <c r="X23" s="356">
         <v>0</v>
       </c>
       <c r="Y23" s="356">
-        <v>4229</v>
+        <v>4147</v>
       </c>
       <c r="Z23" s="292">
         <f>_xll.qlMidSafe(T23,U23,Trigger)</f>
-        <v>97.740000000000009</v>
+        <v>97.724999999999994</v>
       </c>
       <c r="AA23" s="292">
         <f t="shared" si="2"/>
-        <v>4.0000000000006253E-2</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="AB23" s="223"/>
       <c r="AC23" s="329">
@@ -27105,11 +27105,11 @@
       </c>
       <c r="AD23" s="223"/>
       <c r="AE23" s="292">
-        <v>97.740000000000009</v>
+        <v>97.724999999999994</v>
       </c>
       <c r="AF23" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F23,AE23,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000014779E-2</v>
       </c>
       <c r="AG23" s="44"/>
     </row>
@@ -27142,7 +27142,7 @@
       </c>
       <c r="I24" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H24,IborIndex,D24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(AF24),ISERROR(FuturesHWConvAdj!U24:U25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="J24" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -27169,16 +27169,16 @@
         <v>43076</v>
       </c>
       <c r="T24" s="292">
-        <v>97.66</v>
+        <v>97.63</v>
       </c>
       <c r="U24" s="292">
-        <v>97.71</v>
+        <v>97.69</v>
       </c>
       <c r="V24" s="292">
         <v>0</v>
       </c>
       <c r="W24" s="292">
-        <v>97.54</v>
+        <v>97.65</v>
       </c>
       <c r="X24" s="356">
         <v>0</v>
@@ -27188,11 +27188,11 @@
       </c>
       <c r="Z24" s="292">
         <f>_xll.qlMidSafe(T24,U24,Trigger)</f>
-        <v>97.685000000000002</v>
+        <v>97.66</v>
       </c>
       <c r="AA24" s="292">
         <f t="shared" si="2"/>
-        <v>4.9999999999997158E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="AB24" s="223"/>
       <c r="AC24" s="329">
@@ -27200,11 +27200,11 @@
       </c>
       <c r="AD24" s="223"/>
       <c r="AE24" s="292">
-        <v>97.685000000000002</v>
+        <v>97.66</v>
       </c>
       <c r="AF24" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F24,AE24,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000005684E-2</v>
       </c>
       <c r="AG24" s="44"/>
     </row>
@@ -27237,7 +27237,7 @@
       </c>
       <c r="I25" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H25,IborIndex,D25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(AF25),ISERROR(FuturesHWConvAdj!U25:U26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="J25" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -27264,10 +27264,10 @@
         <v>43167</v>
       </c>
       <c r="T25" s="292">
-        <v>97.6</v>
+        <v>97.56</v>
       </c>
       <c r="U25" s="292">
-        <v>97.67</v>
+        <v>97.64</v>
       </c>
       <c r="V25" s="292">
         <v>0</v>
@@ -27283,11 +27283,11 @@
       </c>
       <c r="Z25" s="292">
         <f>_xll.qlMidSafe(T25,U25,Trigger)</f>
-        <v>97.634999999999991</v>
+        <v>97.6</v>
       </c>
       <c r="AA25" s="292">
         <f t="shared" si="2"/>
-        <v>7.000000000000739E-2</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="AB25" s="223"/>
       <c r="AC25" s="329">
@@ -27295,11 +27295,11 @@
       </c>
       <c r="AD25" s="223"/>
       <c r="AE25" s="292">
-        <v>97.634999999999991</v>
+        <v>97.6</v>
       </c>
       <c r="AF25" s="321">
         <f>_xll.qlSimpleQuoteSetValue(F25,AE25,Trigger)</f>
-        <v>0</v>
+        <v>-3.4999999999996589E-2</v>
       </c>
       <c r="AG25" s="44"/>
     </row>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="I26" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H26,IborIndex,D26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(AF26),ISERROR(FuturesHWConvAdj!U26:U27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="J26" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -27427,7 +27427,7 @@
       </c>
       <c r="I27" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H27,IborIndex,D27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(AF27),ISERROR(FuturesHWConvAdj!U27:U28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="J27" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -27522,7 +27522,7 @@
       </c>
       <c r="I28" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H28,IborIndex,D28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(AF28),ISERROR(FuturesHWConvAdj!U28:U29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="J28" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="I29" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H29,IborIndex,D29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(AF29),ISERROR(FuturesHWConvAdj!U29:U30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="J29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -27712,7 +27712,7 @@
       </c>
       <c r="I30" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H30,IborIndex,D30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(AF30),ISERROR(FuturesHWConvAdj!U30:U31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="J30" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="I31" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H31,IborIndex,D31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(AF31),ISERROR(FuturesHWConvAdj!U31:U32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="J31" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -27902,7 +27902,7 @@
       </c>
       <c r="I32" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H32,IborIndex,D32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(AF32),ISERROR(FuturesHWConvAdj!U32:U33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="J32" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -27997,7 +27997,7 @@
       </c>
       <c r="I33" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H33,IborIndex,D33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(AF33),ISERROR(FuturesHWConvAdj!U33:U34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="J33" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -28092,7 +28092,7 @@
       </c>
       <c r="I34" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H34,IborIndex,D34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(AF34),ISERROR(FuturesHWConvAdj!U34:U35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="J34" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -28187,7 +28187,7 @@
       </c>
       <c r="I35" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H35,IborIndex,D35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(AF35),ISERROR(FuturesHWConvAdj!U35:U36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="J35" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="I36" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H36,IborIndex,D36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(AF36),ISERROR(FuturesHWConvAdj!U36:U37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="J36" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="I37" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H37,IborIndex,D37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(AF37),ISERROR(FuturesHWConvAdj!U37:U38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="J37" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -28472,7 +28472,7 @@
       </c>
       <c r="I38" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H38,IborIndex,D38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(AF38),ISERROR(FuturesHWConvAdj!U38:U39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="J38" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -28567,7 +28567,7 @@
       </c>
       <c r="I39" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H39,IborIndex,D39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(AF39),ISERROR(FuturesHWConvAdj!U39:U40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="J39" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="I40" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H40,IborIndex,D40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(AF40),ISERROR(FuturesHWConvAdj!U40:U41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="J40" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -28757,7 +28757,7 @@
       </c>
       <c r="I41" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H41,IborIndex,D41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(AF41),ISERROR(FuturesHWConvAdj!U41:U42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="J41" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -28852,7 +28852,7 @@
       </c>
       <c r="I42" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H42,IborIndex,D42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(AF42),ISERROR(FuturesHWConvAdj!U42:U43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="J42" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="I43" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H43,IborIndex,D43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(AF43),ISERROR(FuturesHWConvAdj!U43:U44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="J43" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="I44" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H44,IborIndex,D44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(AF44),ISERROR(FuturesHWConvAdj!U44:U45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="J44" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="I45" s="349" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H45,IborIndex,D45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(AF45),ISERROR(FuturesHWConvAdj!U45:U46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH3ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MH3ConvAdj_Quote#0001</v>
       </c>
       <c r="J45" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -29232,7 +29232,7 @@
       </c>
       <c r="I46" s="351" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H46,IborIndex,D46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(AF46),ISERROR(FuturesHWConvAdj!U46:U47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM3ConvAdj_Quote#0024</v>
+        <v>AUDFUT3MM3ConvAdj_Quote#0001</v>
       </c>
       <c r="J46" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -29428,7 +29428,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="174" t="str">
         <f>VLOOKUP($J$1,AreaTable,AreaIndex,0)</f>
-        <v>ICAP LN</v>
+        <v>ICAP Australia</v>
       </c>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -29442,7 +29442,7 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="298">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="141"/>
     </row>
@@ -29498,7 +29498,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:47:49</v>
+        <v>Updated at 10:37:53</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="O5" s="307" t="str">
         <f t="array" ref="O5:O42">Instruments&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
-        <v>AUDQM3AB6M=ICAP</v>
+        <v>AUDQM3AB6M=ICAA</v>
       </c>
       <c r="P5" s="289" t="s">
         <v>108</v>
@@ -29655,13 +29655,13 @@
         <v>AUDQM3AB1Y</v>
       </c>
       <c r="O6" s="303" t="str">
-        <v>AUDQM3AB1Y=ICAP</v>
+        <v>AUDQM3AB1Y=ICAA</v>
       </c>
       <c r="P6" s="292">
-        <v>2.0699999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" s="292">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="R6" s="292">
         <v>0</v>
@@ -29671,11 +29671,11 @@
       </c>
       <c r="T6" s="292">
         <f t="shared" ref="T6:T42" si="6">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>2.0999999999999996</v>
+        <v>2.0649999999999999</v>
       </c>
       <c r="U6" s="292">
         <f t="shared" ref="U6:U42" si="7">Q6-P6</f>
-        <v>6.0000000000000053E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V6" s="153"/>
       <c r="W6" s="292">
@@ -29683,11 +29683,11 @@
       </c>
       <c r="X6" s="153"/>
       <c r="Y6" s="292">
-        <v>2.0999999999999996</v>
+        <v>2.0649999999999999</v>
       </c>
       <c r="Z6" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>-2.5000000000004186E-5</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="AA6" s="70"/>
       <c r="AD6" s="169"/>
@@ -29734,7 +29734,7 @@
         <v>AUDQM3AB15M</v>
       </c>
       <c r="O7" s="303" t="str">
-        <v>AUDQM3AB15M=ICAP</v>
+        <v>AUDQM3AB15M=ICAA</v>
       </c>
       <c r="P7" s="292" t="s">
         <v>108</v>
@@ -29813,7 +29813,7 @@
         <v>AUDQM3AB18M</v>
       </c>
       <c r="O8" s="303" t="str">
-        <v>AUDQM3AB18M=ICAP</v>
+        <v>AUDQM3AB18M=ICAA</v>
       </c>
       <c r="P8" s="292" t="s">
         <v>108</v>
@@ -29892,7 +29892,7 @@
         <v>AUDQM3AB21M</v>
       </c>
       <c r="O9" s="303" t="str">
-        <v>AUDQM3AB21M=ICAP</v>
+        <v>AUDQM3AB21M=ICAA</v>
       </c>
       <c r="P9" s="292" t="s">
         <v>108</v>
@@ -29971,13 +29971,13 @@
         <v>AUDQM3AB2Y</v>
       </c>
       <c r="O10" s="303" t="str">
-        <v>AUDQM3AB2Y=ICAP</v>
+        <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="P10" s="292">
-        <v>2.0350000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" s="292">
-        <v>2.0950000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="R10" s="292">
         <v>0</v>
@@ -29987,7 +29987,7 @@
       </c>
       <c r="T10" s="292">
         <f t="shared" si="6"/>
-        <v>2.0650000000000004</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="U10" s="292">
         <f t="shared" si="7"/>
@@ -29999,7 +29999,7 @@
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="292">
-        <v>2.0650000000000004</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Z10" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
@@ -30050,13 +30050,13 @@
         <v>AUDQM3AB3Y</v>
       </c>
       <c r="O11" s="303" t="str">
-        <v>AUDQM3AB3Y=ICAP</v>
+        <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="P11" s="292">
-        <v>2.08</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="Q11" s="292">
-        <v>2.14</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="R11" s="292">
         <v>0</v>
@@ -30066,11 +30066,11 @@
       </c>
       <c r="T11" s="292">
         <f t="shared" si="6"/>
-        <v>2.1100000000000003</v>
+        <v>2.105</v>
       </c>
       <c r="U11" s="292">
         <f t="shared" si="7"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="V11" s="153"/>
       <c r="W11" s="292">
@@ -30078,7 +30078,7 @@
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="292">
-        <v>2.1100000000000003</v>
+        <v>2.105</v>
       </c>
       <c r="Z11" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
@@ -30129,7 +30129,7 @@
         <v>AUDQM3AB4Y</v>
       </c>
       <c r="O12" s="303" t="str">
-        <v>AUDQM3AB4Y=ICAP</v>
+        <v>AUDQM3AB4Y=ICAA</v>
       </c>
       <c r="P12" s="292" t="s">
         <v>108</v>
@@ -30208,7 +30208,7 @@
         <v>AUDQM3AB5Y</v>
       </c>
       <c r="O13" s="303" t="str">
-        <v>AUDQM3AB5Y=ICAP</v>
+        <v>AUDQM3AB5Y=ICAA</v>
       </c>
       <c r="P13" s="292" t="s">
         <v>108</v>
@@ -30287,7 +30287,7 @@
         <v>AUDQM3AB6Y</v>
       </c>
       <c r="O14" s="303" t="str">
-        <v>AUDQM3AB6Y=ICAP</v>
+        <v>AUDQM3AB6Y=ICAA</v>
       </c>
       <c r="P14" s="292" t="s">
         <v>108</v>
@@ -30366,7 +30366,7 @@
         <v>AUDQM3AB7Y</v>
       </c>
       <c r="O15" s="303" t="str">
-        <v>AUDQM3AB7Y=ICAP</v>
+        <v>AUDQM3AB7Y=ICAA</v>
       </c>
       <c r="P15" s="292" t="s">
         <v>108</v>
@@ -30445,7 +30445,7 @@
         <v>AUDQM3AB8Y</v>
       </c>
       <c r="O16" s="303" t="str">
-        <v>AUDQM3AB8Y=ICAP</v>
+        <v>AUDQM3AB8Y=ICAA</v>
       </c>
       <c r="P16" s="292" t="s">
         <v>108</v>
@@ -30524,7 +30524,7 @@
         <v>AUDQM3AB9Y</v>
       </c>
       <c r="O17" s="303" t="str">
-        <v>AUDQM3AB9Y=ICAP</v>
+        <v>AUDQM3AB9Y=ICAA</v>
       </c>
       <c r="P17" s="292" t="s">
         <v>108</v>
@@ -30603,7 +30603,7 @@
         <v>AUDQM3AB10Y</v>
       </c>
       <c r="O18" s="303" t="str">
-        <v>AUDQM3AB10Y=ICAP</v>
+        <v>AUDQM3AB10Y=ICAA</v>
       </c>
       <c r="P18" s="292" t="s">
         <v>108</v>
@@ -30682,7 +30682,7 @@
         <v>AUDQM3AB11Y</v>
       </c>
       <c r="O19" s="303" t="str">
-        <v>AUDQM3AB11Y=ICAP</v>
+        <v>AUDQM3AB11Y=ICAA</v>
       </c>
       <c r="P19" s="292" t="s">
         <v>108</v>
@@ -30761,7 +30761,7 @@
         <v>AUDQM3AB12Y</v>
       </c>
       <c r="O20" s="303" t="str">
-        <v>AUDQM3AB12Y=ICAP</v>
+        <v>AUDQM3AB12Y=ICAA</v>
       </c>
       <c r="P20" s="292" t="s">
         <v>108</v>
@@ -30840,7 +30840,7 @@
         <v>AUDQM3AB13Y</v>
       </c>
       <c r="O21" s="303" t="str">
-        <v>AUDQM3AB13Y=ICAP</v>
+        <v>AUDQM3AB13Y=ICAA</v>
       </c>
       <c r="P21" s="292" t="s">
         <v>108</v>
@@ -30919,7 +30919,7 @@
         <v>AUDQM3AB14Y</v>
       </c>
       <c r="O22" s="303" t="str">
-        <v>AUDQM3AB14Y=ICAP</v>
+        <v>AUDQM3AB14Y=ICAA</v>
       </c>
       <c r="P22" s="292" t="s">
         <v>108</v>
@@ -30998,7 +30998,7 @@
         <v>AUDQM3AB15Y</v>
       </c>
       <c r="O23" s="303" t="str">
-        <v>AUDQM3AB15Y=ICAP</v>
+        <v>AUDQM3AB15Y=ICAA</v>
       </c>
       <c r="P23" s="292" t="s">
         <v>108</v>
@@ -31077,7 +31077,7 @@
         <v>AUDQM3AB16Y</v>
       </c>
       <c r="O24" s="303" t="str">
-        <v>AUDQM3AB16Y=ICAP</v>
+        <v>AUDQM3AB16Y=ICAA</v>
       </c>
       <c r="P24" s="292" t="s">
         <v>108</v>
@@ -31156,7 +31156,7 @@
         <v>AUDQM3AB17Y</v>
       </c>
       <c r="O25" s="303" t="str">
-        <v>AUDQM3AB17Y=ICAP</v>
+        <v>AUDQM3AB17Y=ICAA</v>
       </c>
       <c r="P25" s="292" t="s">
         <v>108</v>
@@ -31235,7 +31235,7 @@
         <v>AUDQM3AB18Y</v>
       </c>
       <c r="O26" s="303" t="str">
-        <v>AUDQM3AB18Y=ICAP</v>
+        <v>AUDQM3AB18Y=ICAA</v>
       </c>
       <c r="P26" s="292" t="s">
         <v>108</v>
@@ -31314,7 +31314,7 @@
         <v>AUDQM3AB19Y</v>
       </c>
       <c r="O27" s="303" t="str">
-        <v>AUDQM3AB19Y=ICAP</v>
+        <v>AUDQM3AB19Y=ICAA</v>
       </c>
       <c r="P27" s="292" t="s">
         <v>108</v>
@@ -31393,7 +31393,7 @@
         <v>AUDQM3AB20Y</v>
       </c>
       <c r="O28" s="303" t="str">
-        <v>AUDQM3AB20Y=ICAP</v>
+        <v>AUDQM3AB20Y=ICAA</v>
       </c>
       <c r="P28" s="292" t="s">
         <v>108</v>
@@ -31472,7 +31472,7 @@
         <v>AUDQM3AB21Y</v>
       </c>
       <c r="O29" s="303" t="str">
-        <v>AUDQM3AB21Y=ICAP</v>
+        <v>AUDQM3AB21Y=ICAA</v>
       </c>
       <c r="P29" s="292" t="s">
         <v>108</v>
@@ -31551,7 +31551,7 @@
         <v>AUDQM3AB22Y</v>
       </c>
       <c r="O30" s="303" t="str">
-        <v>AUDQM3AB22Y=ICAP</v>
+        <v>AUDQM3AB22Y=ICAA</v>
       </c>
       <c r="P30" s="292" t="s">
         <v>108</v>
@@ -31630,7 +31630,7 @@
         <v>AUDQM3AB23Y</v>
       </c>
       <c r="O31" s="303" t="str">
-        <v>AUDQM3AB23Y=ICAP</v>
+        <v>AUDQM3AB23Y=ICAA</v>
       </c>
       <c r="P31" s="292" t="s">
         <v>108</v>
@@ -31709,7 +31709,7 @@
         <v>AUDQM3AB24Y</v>
       </c>
       <c r="O32" s="303" t="str">
-        <v>AUDQM3AB24Y=ICAP</v>
+        <v>AUDQM3AB24Y=ICAA</v>
       </c>
       <c r="P32" s="292" t="s">
         <v>108</v>
@@ -31788,7 +31788,7 @@
         <v>AUDQM3AB25Y</v>
       </c>
       <c r="O33" s="303" t="str">
-        <v>AUDQM3AB25Y=ICAP</v>
+        <v>AUDQM3AB25Y=ICAA</v>
       </c>
       <c r="P33" s="292" t="s">
         <v>108</v>
@@ -31867,7 +31867,7 @@
         <v>AUDQM3AB26Y</v>
       </c>
       <c r="O34" s="303" t="str">
-        <v>AUDQM3AB26Y=ICAP</v>
+        <v>AUDQM3AB26Y=ICAA</v>
       </c>
       <c r="P34" s="292" t="s">
         <v>108</v>
@@ -31946,7 +31946,7 @@
         <v>AUDQM3AB27Y</v>
       </c>
       <c r="O35" s="303" t="str">
-        <v>AUDQM3AB27Y=ICAP</v>
+        <v>AUDQM3AB27Y=ICAA</v>
       </c>
       <c r="P35" s="292" t="s">
         <v>108</v>
@@ -32025,7 +32025,7 @@
         <v>AUDQM3AB28Y</v>
       </c>
       <c r="O36" s="303" t="str">
-        <v>AUDQM3AB28Y=ICAP</v>
+        <v>AUDQM3AB28Y=ICAA</v>
       </c>
       <c r="P36" s="292" t="s">
         <v>108</v>
@@ -32104,7 +32104,7 @@
         <v>AUDQM3AB29Y</v>
       </c>
       <c r="O37" s="303" t="str">
-        <v>AUDQM3AB29Y=ICAP</v>
+        <v>AUDQM3AB29Y=ICAA</v>
       </c>
       <c r="P37" s="292" t="s">
         <v>108</v>
@@ -32183,7 +32183,7 @@
         <v>AUDQM3AB30Y</v>
       </c>
       <c r="O38" s="303" t="str">
-        <v>AUDQM3AB30Y=ICAP</v>
+        <v>AUDQM3AB30Y=ICAA</v>
       </c>
       <c r="P38" s="292" t="s">
         <v>108</v>
@@ -32262,7 +32262,7 @@
         <v>AUDQM3AB35Y</v>
       </c>
       <c r="O39" s="303" t="str">
-        <v>AUDQM3AB35Y=ICAP</v>
+        <v>AUDQM3AB35Y=ICAA</v>
       </c>
       <c r="P39" s="292" t="s">
         <v>108</v>
@@ -32341,7 +32341,7 @@
         <v>AUDQM3AB40Y</v>
       </c>
       <c r="O40" s="303" t="str">
-        <v>AUDQM3AB40Y=ICAP</v>
+        <v>AUDQM3AB40Y=ICAA</v>
       </c>
       <c r="P40" s="292" t="s">
         <v>108</v>
@@ -32420,7 +32420,7 @@
         <v>AUDQM3AB50Y</v>
       </c>
       <c r="O41" s="303" t="str">
-        <v>AUDQM3AB50Y=ICAP</v>
+        <v>AUDQM3AB50Y=ICAA</v>
       </c>
       <c r="P41" s="292" t="s">
         <v>108</v>
@@ -32499,7 +32499,7 @@
         <v>AUDQM3AB60Y</v>
       </c>
       <c r="O42" s="305" t="str">
-        <v>AUDQM3AB60Y=ICAP</v>
+        <v>AUDQM3AB60Y=ICAA</v>
       </c>
       <c r="P42" s="295" t="s">
         <v>108</v>
@@ -32664,7 +32664,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="174" t="str">
         <f>VLOOKUP($J$1,AreaTable,AreaIndex,0)</f>
-        <v>ICAP LN</v>
+        <v>ICAP Australia</v>
       </c>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -32678,7 +32678,7 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="298">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="141"/>
     </row>
@@ -32734,7 +32734,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:47:28</v>
+        <v>Updated at 10:37:53</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -32811,7 +32811,7 @@
       </c>
       <c r="O5" s="307" t="str">
         <f t="array" ref="O5:O42">Instruments&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
-        <v>AUDSM6AB6M=ICAP</v>
+        <v>AUDSM6AB6M=ICAA</v>
       </c>
       <c r="P5" s="289" t="s">
         <v>108</v>
@@ -32891,7 +32891,7 @@
         <v>AUDSM6AB1Y</v>
       </c>
       <c r="O6" s="303" t="str">
-        <v>AUDSM6AB1Y=ICAP</v>
+        <v>AUDSM6AB1Y=ICAA</v>
       </c>
       <c r="P6" s="292" t="s">
         <v>108</v>
@@ -32970,7 +32970,7 @@
         <v>AUDSM6AB15M</v>
       </c>
       <c r="O7" s="303" t="str">
-        <v>AUDSM6AB15M=ICAP</v>
+        <v>AUDSM6AB15M=ICAA</v>
       </c>
       <c r="P7" s="292" t="s">
         <v>108</v>
@@ -33049,7 +33049,7 @@
         <v>AUDSM6AB18M</v>
       </c>
       <c r="O8" s="303" t="str">
-        <v>AUDSM6AB18M=ICAP</v>
+        <v>AUDSM6AB18M=ICAA</v>
       </c>
       <c r="P8" s="292" t="s">
         <v>108</v>
@@ -33128,7 +33128,7 @@
         <v>AUDSM6AB21M</v>
       </c>
       <c r="O9" s="303" t="str">
-        <v>AUDSM6AB21M=ICAP</v>
+        <v>AUDSM6AB21M=ICAA</v>
       </c>
       <c r="P9" s="292" t="s">
         <v>108</v>
@@ -33207,7 +33207,7 @@
         <v>AUDSM6AB2Y</v>
       </c>
       <c r="O10" s="303" t="str">
-        <v>AUDSM6AB2Y=ICAP</v>
+        <v>AUDSM6AB2Y=ICAA</v>
       </c>
       <c r="P10" s="292" t="s">
         <v>108</v>
@@ -33286,7 +33286,7 @@
         <v>AUDSM6AB3Y</v>
       </c>
       <c r="O11" s="303" t="str">
-        <v>AUDSM6AB3Y=ICAP</v>
+        <v>AUDSM6AB3Y=ICAA</v>
       </c>
       <c r="P11" s="292" t="s">
         <v>108</v>
@@ -33365,13 +33365,13 @@
         <v>AUDSM6AB4Y</v>
       </c>
       <c r="O12" s="303" t="str">
-        <v>AUDSM6AB4Y=ICAP</v>
+        <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="P12" s="292">
-        <v>2.2475000000000001</v>
+        <v>2.2574999999999998</v>
       </c>
       <c r="Q12" s="292">
-        <v>2.3075000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
       <c r="R12" s="292">
         <v>0</v>
@@ -33381,7 +33381,7 @@
       </c>
       <c r="T12" s="292">
         <f t="shared" si="4"/>
-        <v>2.2774999999999999</v>
+        <v>2.2874999999999996</v>
       </c>
       <c r="U12" s="292">
         <f t="shared" si="5"/>
@@ -33393,11 +33393,11 @@
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="292">
-        <v>2.2774999999999999</v>
+        <v>2.2874999999999996</v>
       </c>
       <c r="Z12" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>-2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="70"/>
       <c r="AD12" s="169"/>
@@ -33444,13 +33444,13 @@
         <v>AUDSM6AB5Y</v>
       </c>
       <c r="O13" s="303" t="str">
-        <v>AUDSM6AB5Y=ICAP</v>
+        <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="P13" s="292">
-        <v>2.335</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" s="292">
-        <v>2.395</v>
+        <v>2.42</v>
       </c>
       <c r="R13" s="292">
         <v>0</v>
@@ -33460,7 +33460,7 @@
       </c>
       <c r="T13" s="292">
         <f t="shared" si="4"/>
-        <v>2.3650000000000002</v>
+        <v>2.3899999999999997</v>
       </c>
       <c r="U13" s="292">
         <f t="shared" si="5"/>
@@ -33472,11 +33472,11 @@
       </c>
       <c r="X13" s="153"/>
       <c r="Y13" s="292">
-        <v>2.3650000000000002</v>
+        <v>2.3899999999999997</v>
       </c>
       <c r="Z13" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>-2.4999999999997247E-5</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="70"/>
       <c r="AD13" s="169"/>
@@ -33523,13 +33523,13 @@
         <v>AUDSM6AB6Y</v>
       </c>
       <c r="O14" s="303" t="str">
-        <v>AUDSM6AB6Y=ICAP</v>
+        <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="P14" s="292">
-        <v>2.4325000000000001</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="Q14" s="292">
-        <v>2.4925000000000002</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="R14" s="292">
         <v>0</v>
@@ -33539,7 +33539,7 @@
       </c>
       <c r="T14" s="292">
         <f t="shared" si="4"/>
-        <v>2.4625000000000004</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="U14" s="292">
         <f t="shared" si="5"/>
@@ -33551,11 +33551,11 @@
       </c>
       <c r="X14" s="153"/>
       <c r="Y14" s="292">
-        <v>2.4625000000000004</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="Z14" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000004186E-5</v>
       </c>
       <c r="AA14" s="70"/>
       <c r="AD14" s="169"/>
@@ -33602,13 +33602,13 @@
         <v>AUDSM6AB7Y</v>
       </c>
       <c r="O15" s="303" t="str">
-        <v>AUDSM6AB7Y=ICAP</v>
+        <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="P15" s="292">
-        <v>2.5175000000000001</v>
+        <v>2.5625</v>
       </c>
       <c r="Q15" s="292">
-        <v>2.5775000000000001</v>
+        <v>2.6225000000000001</v>
       </c>
       <c r="R15" s="292">
         <v>0</v>
@@ -33618,7 +33618,7 @@
       </c>
       <c r="T15" s="292">
         <f t="shared" si="4"/>
-        <v>2.5475000000000003</v>
+        <v>2.5925000000000002</v>
       </c>
       <c r="U15" s="292">
         <f t="shared" si="5"/>
@@ -33630,11 +33630,11 @@
       </c>
       <c r="X15" s="153"/>
       <c r="Y15" s="292">
-        <v>2.5475000000000003</v>
+        <v>2.5925000000000002</v>
       </c>
       <c r="Z15" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000004186E-5</v>
       </c>
       <c r="AA15" s="70"/>
       <c r="AD15" s="169"/>
@@ -33681,13 +33681,13 @@
         <v>AUDSM6AB8Y</v>
       </c>
       <c r="O16" s="303" t="str">
-        <v>AUDSM6AB8Y=ICAP</v>
+        <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="P16" s="292">
-        <v>2.59</v>
+        <v>2.6475</v>
       </c>
       <c r="Q16" s="292">
-        <v>2.65</v>
+        <v>2.7075</v>
       </c>
       <c r="R16" s="292">
         <v>0</v>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="T16" s="292">
         <f t="shared" si="4"/>
-        <v>2.62</v>
+        <v>2.6775000000000002</v>
       </c>
       <c r="U16" s="292">
         <f t="shared" si="5"/>
@@ -33709,11 +33709,11 @@
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="292">
-        <v>2.62</v>
+        <v>2.6775000000000002</v>
       </c>
       <c r="Z16" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA16" s="70"/>
       <c r="AD16" s="169"/>
@@ -33760,13 +33760,13 @@
         <v>AUDSM6AB9Y</v>
       </c>
       <c r="O17" s="303" t="str">
-        <v>AUDSM6AB9Y=ICAP</v>
+        <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="P17" s="292">
-        <v>2.6574999999999998</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="Q17" s="292">
-        <v>2.7175000000000002</v>
+        <v>2.7824999999999998</v>
       </c>
       <c r="R17" s="292">
         <v>0</v>
@@ -33776,11 +33776,11 @@
       </c>
       <c r="T17" s="292">
         <f t="shared" si="4"/>
-        <v>2.6875</v>
+        <v>2.7524999999999999</v>
       </c>
       <c r="U17" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000497E-2</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="V17" s="153"/>
       <c r="W17" s="292">
@@ -33788,11 +33788,11 @@
       </c>
       <c r="X17" s="153"/>
       <c r="Y17" s="292">
-        <v>2.6875</v>
+        <v>2.7524999999999999</v>
       </c>
       <c r="Z17" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA17" s="70"/>
       <c r="AD17" s="169"/>
@@ -33839,13 +33839,13 @@
         <v>AUDSM6AB10Y</v>
       </c>
       <c r="O18" s="303" t="str">
-        <v>AUDSM6AB10Y=ICAP</v>
+        <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="P18" s="292">
-        <v>2.7199999999999998</v>
+        <v>2.79</v>
       </c>
       <c r="Q18" s="292">
-        <v>2.7800000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="R18" s="292">
         <v>0</v>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="T18" s="292">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="U18" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000497E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="V18" s="153"/>
       <c r="W18" s="292">
@@ -33867,11 +33867,11 @@
       </c>
       <c r="X18" s="153"/>
       <c r="Y18" s="292">
-        <v>2.75</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="Z18" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000004902E-5</v>
       </c>
       <c r="AA18" s="70"/>
       <c r="AD18" s="169"/>
@@ -33918,7 +33918,7 @@
         <v>AUDSM6AB11Y</v>
       </c>
       <c r="O19" s="303" t="str">
-        <v>AUDSM6AB11Y=ICAP</v>
+        <v>AUDSM6AB11Y=ICAA</v>
       </c>
       <c r="P19" s="292" t="s">
         <v>108</v>
@@ -33997,13 +33997,13 @@
         <v>AUDSM6AB12Y</v>
       </c>
       <c r="O20" s="303" t="str">
-        <v>AUDSM6AB12Y=ICAP</v>
+        <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="P20" s="292">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" s="292">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="R20" s="292">
         <v>0</v>
@@ -34013,7 +34013,7 @@
       </c>
       <c r="T20" s="292">
         <f t="shared" si="4"/>
-        <v>2.8600000000000003</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="U20" s="292">
         <f t="shared" si="5"/>
@@ -34025,11 +34025,11 @@
       </c>
       <c r="X20" s="153"/>
       <c r="Y20" s="292">
-        <v>2.8600000000000003</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="Z20" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999997963E-5</v>
       </c>
       <c r="AA20" s="70"/>
       <c r="AD20" s="169"/>
@@ -34076,7 +34076,7 @@
         <v>AUDSM6AB13Y</v>
       </c>
       <c r="O21" s="303" t="str">
-        <v>AUDSM6AB13Y=ICAP</v>
+        <v>AUDSM6AB13Y=ICAA</v>
       </c>
       <c r="P21" s="292" t="s">
         <v>108</v>
@@ -34155,7 +34155,7 @@
         <v>AUDSM6AB14Y</v>
       </c>
       <c r="O22" s="303" t="str">
-        <v>AUDSM6AB14Y=ICAP</v>
+        <v>AUDSM6AB14Y=ICAA</v>
       </c>
       <c r="P22" s="292" t="s">
         <v>108</v>
@@ -34234,13 +34234,13 @@
         <v>AUDSM6AB15Y</v>
       </c>
       <c r="O23" s="303" t="str">
-        <v>AUDSM6AB15Y=ICAP</v>
+        <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="P23" s="292">
-        <v>2.9525000000000001</v>
+        <v>3.0125000000000002</v>
       </c>
       <c r="Q23" s="292">
-        <v>3.0125000000000002</v>
+        <v>3.0924999999999998</v>
       </c>
       <c r="R23" s="292">
         <v>0</v>
@@ -34250,11 +34250,11 @@
       </c>
       <c r="T23" s="292">
         <f t="shared" si="4"/>
-        <v>2.9824999999999999</v>
+        <v>3.0525000000000002</v>
       </c>
       <c r="U23" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>7.9999999999999627E-2</v>
       </c>
       <c r="V23" s="153"/>
       <c r="W23" s="292">
@@ -34262,11 +34262,11 @@
       </c>
       <c r="X23" s="153"/>
       <c r="Y23" s="292">
-        <v>2.9824999999999999</v>
+        <v>3.0525000000000002</v>
       </c>
       <c r="Z23" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA23" s="70"/>
       <c r="AD23" s="169"/>
@@ -34313,7 +34313,7 @@
         <v>AUDSM6AB16Y</v>
       </c>
       <c r="O24" s="303" t="str">
-        <v>AUDSM6AB16Y=ICAP</v>
+        <v>AUDSM6AB16Y=ICAA</v>
       </c>
       <c r="P24" s="292" t="s">
         <v>108</v>
@@ -34392,7 +34392,7 @@
         <v>AUDSM6AB17Y</v>
       </c>
       <c r="O25" s="303" t="str">
-        <v>AUDSM6AB17Y=ICAP</v>
+        <v>AUDSM6AB17Y=ICAA</v>
       </c>
       <c r="P25" s="292" t="s">
         <v>108</v>
@@ -34471,7 +34471,7 @@
         <v>AUDSM6AB18Y</v>
       </c>
       <c r="O26" s="303" t="str">
-        <v>AUDSM6AB18Y=ICAP</v>
+        <v>AUDSM6AB18Y=ICAA</v>
       </c>
       <c r="P26" s="292" t="s">
         <v>108</v>
@@ -34550,7 +34550,7 @@
         <v>AUDSM6AB19Y</v>
       </c>
       <c r="O27" s="303" t="str">
-        <v>AUDSM6AB19Y=ICAP</v>
+        <v>AUDSM6AB19Y=ICAA</v>
       </c>
       <c r="P27" s="292" t="s">
         <v>108</v>
@@ -34629,13 +34629,13 @@
         <v>AUDSM6AB20Y</v>
       </c>
       <c r="O28" s="303" t="str">
-        <v>AUDSM6AB20Y=ICAP</v>
+        <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="P28" s="292">
-        <v>3.0649999999999999</v>
+        <v>3.125</v>
       </c>
       <c r="Q28" s="292">
-        <v>3.125</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="R28" s="292">
         <v>0</v>
@@ -34645,11 +34645,11 @@
       </c>
       <c r="T28" s="292">
         <f t="shared" si="4"/>
-        <v>3.0949999999999998</v>
+        <v>3.165</v>
       </c>
       <c r="U28" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V28" s="153"/>
       <c r="W28" s="292">
@@ -34657,11 +34657,11 @@
       </c>
       <c r="X28" s="153"/>
       <c r="Y28" s="292">
-        <v>3.0949999999999998</v>
+        <v>3.165</v>
       </c>
       <c r="Z28" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999994493E-5</v>
       </c>
       <c r="AA28" s="70"/>
       <c r="AD28" s="169"/>
@@ -34708,7 +34708,7 @@
         <v>AUDSM6AB21Y</v>
       </c>
       <c r="O29" s="303" t="str">
-        <v>AUDSM6AB21Y=ICAP</v>
+        <v>AUDSM6AB21Y=ICAA</v>
       </c>
       <c r="P29" s="292" t="s">
         <v>108</v>
@@ -34787,7 +34787,7 @@
         <v>AUDSM6AB22Y</v>
       </c>
       <c r="O30" s="303" t="str">
-        <v>AUDSM6AB22Y=ICAP</v>
+        <v>AUDSM6AB22Y=ICAA</v>
       </c>
       <c r="P30" s="292" t="s">
         <v>108</v>
@@ -34866,7 +34866,7 @@
         <v>AUDSM6AB23Y</v>
       </c>
       <c r="O31" s="303" t="str">
-        <v>AUDSM6AB23Y=ICAP</v>
+        <v>AUDSM6AB23Y=ICAA</v>
       </c>
       <c r="P31" s="292" t="s">
         <v>108</v>
@@ -34945,7 +34945,7 @@
         <v>AUDSM6AB24Y</v>
       </c>
       <c r="O32" s="303" t="str">
-        <v>AUDSM6AB24Y=ICAP</v>
+        <v>AUDSM6AB24Y=ICAA</v>
       </c>
       <c r="P32" s="292" t="s">
         <v>108</v>
@@ -35024,13 +35024,13 @@
         <v>AUDSM6AB25Y</v>
       </c>
       <c r="O33" s="303" t="str">
-        <v>AUDSM6AB25Y=ICAP</v>
+        <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="P33" s="292">
-        <v>3.1324999999999998</v>
+        <v>3.1924999999999999</v>
       </c>
       <c r="Q33" s="292">
-        <v>3.1924999999999999</v>
+        <v>3.2725</v>
       </c>
       <c r="R33" s="292">
         <v>0</v>
@@ -35040,11 +35040,11 @@
       </c>
       <c r="T33" s="292">
         <f t="shared" si="4"/>
-        <v>3.1624999999999996</v>
+        <v>3.2324999999999999</v>
       </c>
       <c r="U33" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V33" s="153"/>
       <c r="W33" s="292">
@@ -35052,11 +35052,11 @@
       </c>
       <c r="X33" s="153"/>
       <c r="Y33" s="292">
-        <v>3.1624999999999996</v>
+        <v>3.2324999999999999</v>
       </c>
       <c r="Z33" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA33" s="70"/>
       <c r="AD33" s="169"/>
@@ -35103,7 +35103,7 @@
         <v>AUDSM6AB26Y</v>
       </c>
       <c r="O34" s="303" t="str">
-        <v>AUDSM6AB26Y=ICAP</v>
+        <v>AUDSM6AB26Y=ICAA</v>
       </c>
       <c r="P34" s="292" t="s">
         <v>108</v>
@@ -35182,7 +35182,7 @@
         <v>AUDSM6AB27Y</v>
       </c>
       <c r="O35" s="303" t="str">
-        <v>AUDSM6AB27Y=ICAP</v>
+        <v>AUDSM6AB27Y=ICAA</v>
       </c>
       <c r="P35" s="292" t="s">
         <v>108</v>
@@ -35261,7 +35261,7 @@
         <v>AUDSM6AB28Y</v>
       </c>
       <c r="O36" s="303" t="str">
-        <v>AUDSM6AB28Y=ICAP</v>
+        <v>AUDSM6AB28Y=ICAA</v>
       </c>
       <c r="P36" s="292" t="s">
         <v>108</v>
@@ -35340,7 +35340,7 @@
         <v>AUDSM6AB29Y</v>
       </c>
       <c r="O37" s="303" t="str">
-        <v>AUDSM6AB29Y=ICAP</v>
+        <v>AUDSM6AB29Y=ICAA</v>
       </c>
       <c r="P37" s="292" t="s">
         <v>108</v>
@@ -35419,13 +35419,13 @@
         <v>AUDSM6AB30Y</v>
       </c>
       <c r="O38" s="303" t="str">
-        <v>AUDSM6AB30Y=ICAP</v>
+        <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="P38" s="292">
-        <v>3.1425000000000001</v>
+        <v>3.2025000000000001</v>
       </c>
       <c r="Q38" s="292">
-        <v>3.2025000000000001</v>
+        <v>3.2825000000000002</v>
       </c>
       <c r="R38" s="292">
         <v>0</v>
@@ -35435,11 +35435,11 @@
       </c>
       <c r="T38" s="292">
         <f t="shared" si="4"/>
-        <v>3.1725000000000003</v>
+        <v>3.2425000000000002</v>
       </c>
       <c r="U38" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V38" s="153"/>
       <c r="W38" s="292">
@@ -35447,11 +35447,11 @@
       </c>
       <c r="X38" s="153"/>
       <c r="Y38" s="292">
-        <v>3.1725000000000003</v>
+        <v>3.2425000000000002</v>
       </c>
       <c r="Z38" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA38" s="70"/>
       <c r="AD38" s="169"/>
@@ -35498,7 +35498,7 @@
         <v>AUDSM6AB35Y</v>
       </c>
       <c r="O39" s="303" t="str">
-        <v>AUDSM6AB35Y=ICAP</v>
+        <v>AUDSM6AB35Y=ICAA</v>
       </c>
       <c r="P39" s="292" t="s">
         <v>108</v>
@@ -35577,13 +35577,13 @@
         <v>AUDSM6AB40Y</v>
       </c>
       <c r="O40" s="303" t="str">
-        <v>AUDSM6AB40Y=ICAP</v>
+        <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="P40" s="292">
-        <v>3.1025</v>
+        <v>3.1625000000000001</v>
       </c>
       <c r="Q40" s="292">
-        <v>3.1625000000000001</v>
+        <v>3.2425000000000002</v>
       </c>
       <c r="R40" s="292">
         <v>0</v>
@@ -35593,11 +35593,11 @@
       </c>
       <c r="T40" s="292">
         <f t="shared" si="4"/>
-        <v>3.1325000000000003</v>
+        <v>3.2025000000000001</v>
       </c>
       <c r="U40" s="292">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V40" s="153"/>
       <c r="W40" s="292">
@@ -35605,11 +35605,11 @@
       </c>
       <c r="X40" s="153"/>
       <c r="Y40" s="292">
-        <v>3.1325000000000003</v>
+        <v>3.2025000000000001</v>
       </c>
       <c r="Z40" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="AA40" s="70"/>
       <c r="AD40" s="169"/>
@@ -35656,7 +35656,7 @@
         <v>AUDSM6AB50Y</v>
       </c>
       <c r="O41" s="303" t="str">
-        <v>AUDSM6AB50Y=ICAP</v>
+        <v>AUDSM6AB50Y=ICAA</v>
       </c>
       <c r="P41" s="292" t="s">
         <v>108</v>
@@ -35735,7 +35735,7 @@
         <v>AUDSM6AB60Y</v>
       </c>
       <c r="O42" s="305" t="str">
-        <v>AUDSM6AB60Y=ICAP</v>
+        <v>AUDSM6AB60Y=ICAA</v>
       </c>
       <c r="P42" s="295" t="s">
         <v>108</v>

--- a/QuantLibXL/Data2/XLS/AUD/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD/AUD_Market.xlsx
@@ -2507,102 +2507,92 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{3AFD5BAA-AABD-4888-84E8-2D8130DDB723}_x0000_</stp>
-        <tr r="Q17" s="6"/>
+        <stp>{1104E1A4-895F-46BE-A112-06ED4990CB17}_x0000_</stp>
+        <tr r="V17" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{C2BE42E9-D799-4488-8B97-B44C55F1C456}_x0000_</stp>
+        <stp>{39F90900-0638-40C0-B627-67AA2D7C20CE}_x0000_</stp>
         <tr r="V22" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{47C3E14B-A6D5-45B8-950A-86FA7AAF3A21}_x0000_</stp>
-        <tr r="V17" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:08:21</v>
-        <stp/>
-        <stp>{B0E96E44-3525-4C33-B2E1-DD6F326B5A55}_x0000_</stp>
+        <stp>{E9CBF0E2-44E2-408D-A66B-C451D1BB73B8}_x0000_</stp>
         <tr r="Q22" s="6"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{AD5F7C34-84A5-4586-894B-0D75E001DBA1}</stp>
-        <tr r="O4" s="13"/>
+        <stp>{FE52D723-B4C0-486A-B1D3-B86F356F1066}</stp>
+        <tr r="L4" s="15"/>
       </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 18:09:59</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{A1C28080-8DC3-46E3-ABF0-F07515A186CB}</stp>
+        <stp>{10D802C3-268A-4D5D-AF51-32B59066F6D7}</stp>
+        <tr r="O4" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:50:43</v>
+        <stp/>
+        <stp>{1321BAA3-B420-44CE-8314-5EE480CB58D2}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:50:43</v>
+        <stp/>
+        <stp>{F8DEF7A5-FBEB-4178-91C9-AD5DDCDBAB4F}</stp>
+        <tr r="Q5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:50:43</v>
+        <stp/>
+        <stp>{89830455-588C-45B5-8ACE-9D2F05F109D4}</stp>
+        <tr r="O4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:50:43</v>
+        <stp/>
+        <stp>{7F83087A-C4D7-47AE-8DE4-E8BE488C5187}</stp>
+        <tr r="O4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:51:27</v>
+        <stp/>
+        <stp>{D0FD2EC1-2DEC-4331-8ADB-0BEC935E4C8C}</stp>
         <tr r="R4" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{3BC4D5DB-AF39-4E80-80F4-35600E9810A3}</stp>
-        <tr r="O4" s="66"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 18:08:21</v>
-        <stp/>
-        <stp>{6F6BF103-3A4E-44E9-8BD6-EEFD74FF5559}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 18:08:21</v>
-        <stp/>
-        <stp>{CF8012CF-80AA-4A45-BB39-765A43A93CDA}</stp>
-        <tr r="Q5" s="6"/>
+        <stp>{29124FFE-0A60-4FDB-92C1-BA9C4756EACA}</stp>
+        <tr r="O4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{286EF7E8-8873-473E-B72D-1DD52495E90B}</stp>
+        <stp>{684D37C2-A8DA-4139-9611-D34F347DE247}</stp>
+        <tr r="O4" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:50:43</v>
+        <stp/>
+        <stp>{A2BD1395-3A95-4E17-830C-46D97BA6A950}</stp>
         <tr r="O4" s="67"/>
       </tp>
     </main>
-    <main first="pldatasource.rdatartdserver">
+    <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
         <stp/>
-        <stp>{F6211768-B816-41DF-80C3-842185C8F720}</stp>
-        <tr r="O4" s="16"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 18:08:21</v>
-        <stp/>
-        <stp>{5455944D-D31A-419E-BA2F-3A597C85AD3A}</stp>
-        <tr r="O4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:09:45</v>
-        <stp/>
-        <stp>{BB42D74A-5EC3-496E-99CC-CFF2F2337687}</stp>
-        <tr r="L4" s="15"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 18:08:21</v>
-        <stp/>
-        <stp>{0D0C2A02-FC49-4704-BDEB-56B8703E989C}</stp>
-        <tr r="O4" s="25"/>
+        <stp>{348CC6C4-8AFC-4671-AEFE-5290CDD7AF43}_x0000_</stp>
+        <tr r="Q17" s="6"/>
       </tp>
     </main>
   </volType>
@@ -2978,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="63">
-        <v>42135.755636574075</v>
+        <v>42136.743495370371</v>
       </c>
       <c r="E4" s="55"/>
       <c r="G4" s="87"/>
@@ -3009,7 +2999,7 @@
       </c>
       <c r="D5" s="64">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="E5" s="59"/>
       <c r="G5" s="87"/>
@@ -3063,7 +3053,7 @@
       </c>
       <c r="D7" s="43">
         <f>_xll.ohTrigger(Deposits!T2,FRA!Z2,Futures3M!AF2,FuturesHWConvAdj!U2,Swap3M!Z2,BasisSwap3M6M!AB2,BasisSwap1M3M!AB2,OIS!Z2)</f>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E7" s="44"/>
       <c r="G7" s="79"/>
@@ -3102,7 +3092,7 @@
         <v>128</v>
       </c>
       <c r="I8" s="102">
-        <v>42135.757673611108</v>
+        <v>42136.743622685186</v>
       </c>
       <c r="J8" s="83"/>
       <c r="L8" s="250" t="s">
@@ -3756,7 +3746,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_00379#0001</v>
+        <v>obj_003c2#0001</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -3791,7 +3781,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -7136,7 +7126,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_00378#0001</v>
+        <v>obj_003c1#0001</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -7171,7 +7161,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -7341,10 +7331,10 @@
         <v>AUBR6AB1Y=ICAA</v>
       </c>
       <c r="P6" s="352">
-        <v>10.125</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="352">
-        <v>12.125</v>
+        <v>12</v>
       </c>
       <c r="R6" s="373">
         <v>0</v>
@@ -7354,7 +7344,7 @@
       </c>
       <c r="T6" s="352">
         <f>_xll.qlMidEquivalent(P6,Q6)</f>
-        <v>11.125</v>
+        <v>11</v>
       </c>
       <c r="U6" s="372">
         <v>1</v>
@@ -7364,19 +7354,19 @@
         <v>1</v>
       </c>
       <c r="W6" s="352">
-        <v>11.125</v>
+        <v>11</v>
       </c>
       <c r="X6" s="153"/>
       <c r="Y6" s="352">
-        <v>11.125</v>
+        <v>11</v>
       </c>
       <c r="Z6" s="153"/>
       <c r="AA6" s="352">
-        <v>11.125</v>
+        <v>11</v>
       </c>
       <c r="AB6" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AC6" s="70"/>
       <c r="AD6" s="155"/>
@@ -7447,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="W7" s="352">
-        <v>11.123103528422222</v>
+        <v>10.98189376061395</v>
       </c>
       <c r="X7" s="153"/>
       <c r="Y7" s="352">
-        <v>11.123103528422222</v>
+        <v>10.98189376061395</v>
       </c>
       <c r="Z7" s="153"/>
       <c r="AA7" s="352">
-        <v>11.123103528422222</v>
+        <v>10.98189376061395</v>
       </c>
       <c r="AB7" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.412097678082729E-5</v>
       </c>
       <c r="AC7" s="70"/>
       <c r="AD7" s="155"/>
@@ -7531,19 +7521,19 @@
         <v>0</v>
       </c>
       <c r="W8" s="352">
-        <v>11.074332056844446</v>
+        <v>10.930883361637198</v>
       </c>
       <c r="X8" s="153"/>
       <c r="Y8" s="352">
-        <v>11.074332056844446</v>
+        <v>10.930883361637198</v>
       </c>
       <c r="Z8" s="153"/>
       <c r="AA8" s="352">
-        <v>11.074332056844446</v>
+        <v>10.930883361637198</v>
       </c>
       <c r="AB8" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.4344869520724855E-5</v>
       </c>
       <c r="AC8" s="70"/>
     </row>
@@ -7614,19 +7604,19 @@
         <v>0</v>
       </c>
       <c r="W9" s="352">
-        <v>10.988394556844446</v>
+        <v>10.851931281841848</v>
       </c>
       <c r="X9" s="153"/>
       <c r="Y9" s="352">
-        <v>10.988394556844446</v>
+        <v>10.851931281841848</v>
       </c>
       <c r="Z9" s="153"/>
       <c r="AA9" s="352">
-        <v>10.988394556844446</v>
+        <v>10.851931281841848</v>
       </c>
       <c r="AB9" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.3646327500259738E-5</v>
       </c>
       <c r="AC9" s="70"/>
     </row>
@@ -7673,10 +7663,10 @@
         <v>AUBR6AB2Y=ICAA</v>
       </c>
       <c r="P10" s="352">
-        <v>9.875</v>
+        <v>9.75</v>
       </c>
       <c r="Q10" s="352">
-        <v>11.875</v>
+        <v>11.75</v>
       </c>
       <c r="R10" s="373">
         <v>0</v>
@@ -7686,7 +7676,7 @@
       </c>
       <c r="T10" s="352">
         <f>_xll.qlMidEquivalent(P10,Q10)</f>
-        <v>10.875</v>
+        <v>10.75</v>
       </c>
       <c r="U10" s="135">
         <v>2</v>
@@ -7696,19 +7686,19 @@
         <v>1</v>
       </c>
       <c r="W10" s="352">
-        <v>10.875</v>
+        <v>10.75</v>
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="352">
-        <v>10.875</v>
+        <v>10.75</v>
       </c>
       <c r="Z10" s="153"/>
       <c r="AA10" s="352">
-        <v>10.875</v>
+        <v>10.75</v>
       </c>
       <c r="AB10" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AC10" s="70"/>
     </row>
@@ -7755,10 +7745,10 @@
         <v>AUBR6AB3Y=ICAA</v>
       </c>
       <c r="P11" s="352">
-        <v>9.375</v>
+        <v>9.25</v>
       </c>
       <c r="Q11" s="352">
-        <v>11.375</v>
+        <v>11.25</v>
       </c>
       <c r="R11" s="373">
         <v>0</v>
@@ -7768,7 +7758,7 @@
       </c>
       <c r="T11" s="352">
         <f>_xll.qlMidEquivalent(P11,Q11)</f>
-        <v>10.375</v>
+        <v>10.25</v>
       </c>
       <c r="U11" s="135">
         <v>3</v>
@@ -7778,19 +7768,19 @@
         <v>1</v>
       </c>
       <c r="W11" s="352">
-        <v>10.375</v>
+        <v>10.25</v>
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="352">
-        <v>10.375</v>
+        <v>10.25</v>
       </c>
       <c r="Z11" s="153"/>
       <c r="AA11" s="352">
-        <v>10.375</v>
+        <v>10.25</v>
       </c>
       <c r="AB11" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AC11" s="70"/>
     </row>
@@ -7837,10 +7827,10 @@
         <v>AUBR6AB4Y=ICAA</v>
       </c>
       <c r="P12" s="352">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="352">
-        <v>11.125</v>
+        <v>11</v>
       </c>
       <c r="R12" s="373">
         <v>0</v>
@@ -7850,7 +7840,7 @@
       </c>
       <c r="T12" s="352">
         <f>_xll.qlMidEquivalent(P12,Q12)</f>
-        <v>10.125</v>
+        <v>10</v>
       </c>
       <c r="U12" s="135">
         <v>4</v>
@@ -7860,19 +7850,19 @@
         <v>1</v>
       </c>
       <c r="W12" s="352">
-        <v>10.125</v>
+        <v>10</v>
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="352">
-        <v>10.125</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="153"/>
       <c r="AA12" s="352">
-        <v>10.125</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F12,AA12/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AC12" s="70"/>
     </row>
@@ -8024,19 +8014,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="352">
-        <v>9.4748544581781999</v>
+        <v>9.3975293938084388</v>
       </c>
       <c r="X14" s="153"/>
       <c r="Y14" s="352">
-        <v>9.4748544581781999</v>
+        <v>9.3975293938084388</v>
       </c>
       <c r="Z14" s="153"/>
       <c r="AA14" s="352">
-        <v>9.4748544581781999</v>
+        <v>9.3975293938084388</v>
       </c>
       <c r="AB14" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14/10000,Trigger)</f>
-        <v>0</v>
+        <v>-7.732506436976109E-6</v>
       </c>
       <c r="AC14" s="70"/>
     </row>
@@ -8083,10 +8073,10 @@
         <v>AUBR6AB7Y=ICAA</v>
       </c>
       <c r="P15" s="352">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="352">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="R15" s="373">
         <v>0</v>
@@ -8096,7 +8086,7 @@
       </c>
       <c r="T15" s="352">
         <f>_xll.qlMidEquivalent(P15,Q15)</f>
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U15" s="135">
         <v>7</v>
@@ -8106,19 +8096,19 @@
         <v>1</v>
       </c>
       <c r="W15" s="352">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X15" s="153"/>
       <c r="Y15" s="352">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z15" s="153"/>
       <c r="AA15" s="352">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F15,AA15/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="AC15" s="70"/>
     </row>
@@ -8188,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="W16" s="352">
-        <v>8.932893161591279</v>
+        <v>8.6161805141838279</v>
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="352">
-        <v>8.932893161591279</v>
+        <v>8.6161805141838279</v>
       </c>
       <c r="Z16" s="153"/>
       <c r="AA16" s="352">
-        <v>8.932893161591279</v>
+        <v>8.6161805141838279</v>
       </c>
       <c r="AB16" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.1671264740745103E-5</v>
       </c>
       <c r="AC16" s="70"/>
     </row>
@@ -8270,19 +8260,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="352">
-        <v>8.5394025994106713</v>
+        <v>8.2460758557420419</v>
       </c>
       <c r="X17" s="153"/>
       <c r="Y17" s="352">
-        <v>8.5394025994106713</v>
+        <v>8.2460758557420419</v>
       </c>
       <c r="Z17" s="153"/>
       <c r="AA17" s="352">
-        <v>8.5394025994106713</v>
+        <v>8.2460758557420419</v>
       </c>
       <c r="AB17" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.9332674366862885E-5</v>
       </c>
       <c r="AC17" s="70"/>
     </row>
@@ -8329,10 +8319,10 @@
         <v>AUBR6AB10Y=ICAA</v>
       </c>
       <c r="P18" s="352">
-        <v>7.125</v>
+        <v>6.875</v>
       </c>
       <c r="Q18" s="352">
-        <v>9.125</v>
+        <v>8.875</v>
       </c>
       <c r="R18" s="373">
         <v>0</v>
@@ -8342,7 +8332,7 @@
       </c>
       <c r="T18" s="352">
         <f>_xll.qlMidEquivalent(P18,Q18)</f>
-        <v>8.125</v>
+        <v>7.875</v>
       </c>
       <c r="U18" s="135">
         <v>10</v>
@@ -8352,19 +8342,19 @@
         <v>1</v>
       </c>
       <c r="W18" s="352">
-        <v>8.125</v>
+        <v>7.875</v>
       </c>
       <c r="X18" s="153"/>
       <c r="Y18" s="352">
-        <v>8.125</v>
+        <v>7.875</v>
       </c>
       <c r="Z18" s="153"/>
       <c r="AA18" s="352">
-        <v>8.125</v>
+        <v>7.875</v>
       </c>
       <c r="AB18" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC18" s="70"/>
     </row>
@@ -8434,19 +8424,19 @@
         <v>0</v>
       </c>
       <c r="W19" s="352">
-        <v>7.735113870444116</v>
+        <v>7.494993097543488</v>
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="352">
-        <v>7.735113870444116</v>
+        <v>7.494993097543488</v>
       </c>
       <c r="Z19" s="153"/>
       <c r="AA19" s="352">
-        <v>7.735113870444116</v>
+        <v>7.494993097543488</v>
       </c>
       <c r="AB19" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F19,AA19/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.401207729006271E-5</v>
       </c>
       <c r="AC19" s="70"/>
     </row>
@@ -8493,10 +8483,10 @@
         <v>AUBR6AB12Y=ICAA</v>
       </c>
       <c r="P20" s="352">
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="Q20" s="352">
-        <v>8.875</v>
+        <v>8.625</v>
       </c>
       <c r="R20" s="373">
         <v>0</v>
@@ -8506,7 +8496,7 @@
       </c>
       <c r="T20" s="352">
         <f>_xll.qlMidEquivalent(P20,Q20)</f>
-        <v>7.375</v>
+        <v>7.125</v>
       </c>
       <c r="U20" s="135">
         <v>12</v>
@@ -8516,19 +8506,19 @@
         <v>1</v>
       </c>
       <c r="W20" s="352">
-        <v>7.375</v>
+        <v>7.125</v>
       </c>
       <c r="X20" s="153"/>
       <c r="Y20" s="352">
-        <v>7.375</v>
+        <v>7.125</v>
       </c>
       <c r="Z20" s="153"/>
       <c r="AA20" s="352">
-        <v>7.375</v>
+        <v>7.125</v>
       </c>
       <c r="AB20" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC20" s="70"/>
     </row>
@@ -8598,19 +8588,19 @@
         <v>0</v>
       </c>
       <c r="W21" s="352">
-        <v>7.0426332932329103</v>
+        <v>6.7876615933046107</v>
       </c>
       <c r="X21" s="153"/>
       <c r="Y21" s="352">
-        <v>7.0426332932329103</v>
+        <v>6.7876615933046107</v>
       </c>
       <c r="Z21" s="153"/>
       <c r="AA21" s="352">
-        <v>7.0426332932329103</v>
+        <v>6.7876615933046107</v>
       </c>
       <c r="AB21" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.549716999283001E-5</v>
       </c>
       <c r="AC21" s="70"/>
     </row>
@@ -8680,19 +8670,19 @@
         <v>0</v>
       </c>
       <c r="W22" s="352">
-        <v>6.7470378337690828</v>
+        <v>6.4934981995810004</v>
       </c>
       <c r="X22" s="153"/>
       <c r="Y22" s="352">
-        <v>6.7470378337690828</v>
+        <v>6.4934981995810004</v>
       </c>
       <c r="Z22" s="153"/>
       <c r="AA22" s="352">
-        <v>6.7470378337690828</v>
+        <v>6.4934981995810004</v>
       </c>
       <c r="AB22" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5353963418808258E-5</v>
       </c>
       <c r="AC22" s="70"/>
     </row>
@@ -8739,10 +8729,10 @@
         <v>AUBR6AB15Y=ICAA</v>
       </c>
       <c r="P23" s="352">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q23" s="352">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="R23" s="373">
         <v>0</v>
@@ -8752,7 +8742,7 @@
       </c>
       <c r="T23" s="352">
         <f>_xll.qlMidEquivalent(P23,Q23)</f>
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="U23" s="135">
         <v>15</v>
@@ -8762,19 +8752,19 @@
         <v>1</v>
       </c>
       <c r="W23" s="352">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="X23" s="153"/>
       <c r="Y23" s="352">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="Z23" s="153"/>
       <c r="AA23" s="352">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB23" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC23" s="70"/>
     </row>
@@ -8844,19 +8834,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="352">
-        <v>6.3090605826349231</v>
+        <v>6.0612200296907366</v>
       </c>
       <c r="X24" s="153"/>
       <c r="Y24" s="352">
-        <v>6.3090605826349231</v>
+        <v>6.0612200296907366</v>
       </c>
       <c r="Z24" s="153"/>
       <c r="AA24" s="352">
-        <v>6.3090605826349231</v>
+        <v>6.0612200296907366</v>
       </c>
       <c r="AB24" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4784055294418701E-5</v>
       </c>
       <c r="AC24" s="70"/>
     </row>
@@ -8926,19 +8916,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="352">
-        <v>6.1647780216542287</v>
+        <v>5.9174627396155106</v>
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="352">
-        <v>6.1647780216542287</v>
+        <v>5.9174627396155106</v>
       </c>
       <c r="Z25" s="153"/>
       <c r="AA25" s="352">
-        <v>6.1647780216542287</v>
+        <v>5.9174627396155106</v>
       </c>
       <c r="AB25" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4731528203871867E-5</v>
       </c>
       <c r="AC25" s="70"/>
     </row>
@@ -9008,19 +8998,19 @@
         <v>0</v>
       </c>
       <c r="W26" s="352">
-        <v>6.0534651693560724</v>
+        <v>5.8055954346949159</v>
       </c>
       <c r="X26" s="153"/>
       <c r="Y26" s="352">
-        <v>6.0534651693560724</v>
+        <v>5.8055954346949159</v>
       </c>
       <c r="Z26" s="153"/>
       <c r="AA26" s="352">
-        <v>6.0534651693560724</v>
+        <v>5.8055954346949159</v>
       </c>
       <c r="AB26" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4786973466115717E-5</v>
       </c>
       <c r="AC26" s="70"/>
     </row>
@@ -9090,19 +9080,19 @@
         <v>0</v>
       </c>
       <c r="W27" s="352">
-        <v>5.9614348780386113</v>
+        <v>5.7124854198495472</v>
       </c>
       <c r="X27" s="153"/>
       <c r="Y27" s="352">
-        <v>5.9614348780386113</v>
+        <v>5.7124854198495472</v>
       </c>
       <c r="Z27" s="153"/>
       <c r="AA27" s="352">
-        <v>5.9614348780386113</v>
+        <v>5.7124854198495472</v>
       </c>
       <c r="AB27" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4894945818906399E-5</v>
       </c>
       <c r="AC27" s="70"/>
     </row>
@@ -9149,10 +9139,10 @@
         <v>AUBR6AB20Y=ICAA</v>
       </c>
       <c r="P28" s="352">
-        <v>4.375</v>
+        <v>4.125</v>
       </c>
       <c r="Q28" s="352">
-        <v>7.375</v>
+        <v>7.125</v>
       </c>
       <c r="R28" s="373">
         <v>0</v>
@@ -9162,7 +9152,7 @@
       </c>
       <c r="T28" s="352">
         <f>_xll.qlMidEquivalent(P28,Q28)</f>
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="U28" s="135">
         <v>20</v>
@@ -9172,19 +9162,19 @@
         <v>1</v>
       </c>
       <c r="W28" s="352">
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="X28" s="153"/>
       <c r="Y28" s="352">
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="Z28" s="153"/>
       <c r="AA28" s="352">
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="AB28" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="AC28" s="70"/>
     </row>
@@ -9254,19 +9244,19 @@
         <v>0</v>
       </c>
       <c r="W29" s="352">
-        <v>5.7830917344229942</v>
+        <v>5.532508100083585</v>
       </c>
       <c r="X29" s="153"/>
       <c r="Y29" s="352">
-        <v>5.7830917344229942</v>
+        <v>5.532508100083585</v>
       </c>
       <c r="Z29" s="153"/>
       <c r="AA29" s="352">
-        <v>5.7830917344229942</v>
+        <v>5.532508100083585</v>
       </c>
       <c r="AB29" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5058363433940931E-5</v>
       </c>
       <c r="AC29" s="70"/>
     </row>
@@ -9336,19 +9326,19 @@
         <v>0</v>
       </c>
       <c r="W30" s="352">
-        <v>5.6851146680287421</v>
+        <v>5.4343851251044812</v>
       </c>
       <c r="X30" s="153"/>
       <c r="Y30" s="352">
-        <v>5.6851146680287421</v>
+        <v>5.4343851251044812</v>
       </c>
       <c r="Z30" s="153"/>
       <c r="AA30" s="352">
-        <v>5.6851146680287421</v>
+        <v>5.4343851251044812</v>
       </c>
       <c r="AB30" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.507295429242612E-5</v>
       </c>
       <c r="AC30" s="70"/>
     </row>
@@ -9418,19 +9408,19 @@
         <v>0</v>
       </c>
       <c r="W31" s="352">
-        <v>5.583091734422994</v>
+        <v>5.3325081000835848</v>
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="352">
-        <v>5.583091734422994</v>
+        <v>5.3325081000835848</v>
       </c>
       <c r="Z31" s="153"/>
       <c r="AA31" s="352">
-        <v>5.583091734422994</v>
+        <v>5.3325081000835848</v>
       </c>
       <c r="AB31" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5058363433940931E-5</v>
       </c>
       <c r="AC31" s="70"/>
     </row>
@@ -9500,19 +9490,19 @@
         <v>0</v>
       </c>
       <c r="W32" s="352">
-        <v>5.4790458672114966</v>
+        <v>5.2287540500417924</v>
       </c>
       <c r="X32" s="153"/>
       <c r="Y32" s="352">
-        <v>5.4790458672114966</v>
+        <v>5.2287540500417924</v>
       </c>
       <c r="Z32" s="153"/>
       <c r="AA32" s="352">
-        <v>5.4790458672114966</v>
+        <v>5.2287540500417924</v>
       </c>
       <c r="AB32" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5029181716970336E-5</v>
       </c>
       <c r="AC32" s="70"/>
     </row>
@@ -9559,10 +9549,10 @@
         <v>AUBR6AB25Y=ICAA</v>
       </c>
       <c r="P33" s="352">
-        <v>3.875</v>
+        <v>3.625</v>
       </c>
       <c r="Q33" s="352">
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="R33" s="373">
         <v>0</v>
@@ -9572,7 +9562,7 @@
       </c>
       <c r="T33" s="352">
         <f>_xll.qlMidEquivalent(P33,Q33)</f>
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
       <c r="U33" s="135">
         <v>25</v>
@@ -9582,19 +9572,19 @@
         <v>1</v>
       </c>
       <c r="W33" s="352">
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
       <c r="X33" s="153"/>
       <c r="Y33" s="352">
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
       <c r="Z33" s="153"/>
       <c r="AA33" s="352">
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
       <c r="AB33" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F33,AA33/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC33" s="70"/>
     </row>
@@ -9664,19 +9654,19 @@
         <v>0</v>
       </c>
       <c r="W34" s="352">
-        <v>5.2725724796731015</v>
+        <v>5.0227475699749249</v>
       </c>
       <c r="X34" s="153"/>
       <c r="Y34" s="352">
-        <v>5.2725724796731015</v>
+        <v>5.0227475699749249</v>
       </c>
       <c r="Z34" s="153"/>
       <c r="AA34" s="352">
-        <v>5.2725724796731015</v>
+        <v>5.0227475699749249</v>
       </c>
       <c r="AB34" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4982490969817643E-5</v>
       </c>
       <c r="AC34" s="70"/>
     </row>
@@ -9746,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="W35" s="352">
-        <v>5.1717633062308028</v>
+        <v>4.9219967599665662</v>
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="352">
-        <v>5.1717633062308028</v>
+        <v>4.9219967599665662</v>
       </c>
       <c r="Z35" s="153"/>
       <c r="AA35" s="352">
-        <v>5.1717633062308028</v>
+        <v>4.9219967599665662</v>
       </c>
       <c r="AB35" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F35,AA35/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4976654626423719E-5</v>
       </c>
       <c r="AC35" s="70"/>
     </row>
@@ -9828,19 +9818,19 @@
         <v>0</v>
       </c>
       <c r="W36" s="352">
-        <v>5.0721678929519518</v>
+        <v>4.8223721649707452</v>
       </c>
       <c r="X36" s="153"/>
       <c r="Y36" s="352">
-        <v>5.0721678929519518</v>
+        <v>4.8223721649707452</v>
       </c>
       <c r="Z36" s="153"/>
       <c r="AA36" s="352">
-        <v>5.0721678929519518</v>
+        <v>4.8223721649707452</v>
       </c>
       <c r="AB36" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4979572798120681E-5</v>
       </c>
       <c r="AC36" s="70"/>
     </row>
@@ -9910,19 +9900,19 @@
         <v>0</v>
       </c>
       <c r="W37" s="352">
-        <v>4.9733816531154016</v>
+        <v>4.7234983799832833</v>
       </c>
       <c r="X37" s="153"/>
       <c r="Y37" s="352">
-        <v>4.9733816531154016</v>
+        <v>4.7234983799832833</v>
       </c>
       <c r="Z37" s="153"/>
       <c r="AA37" s="352">
-        <v>4.9733816531154016</v>
+        <v>4.7234983799832833</v>
       </c>
       <c r="AB37" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4988327313211784E-5</v>
       </c>
       <c r="AC37" s="70"/>
     </row>
@@ -9969,10 +9959,10 @@
         <v>AUBR6AB30Y=ICAA</v>
       </c>
       <c r="P38" s="352">
-        <v>3.375</v>
+        <v>3.125</v>
       </c>
       <c r="Q38" s="352">
-        <v>6.375</v>
+        <v>6.125</v>
       </c>
       <c r="R38" s="373">
         <v>0</v>
@@ -9982,7 +9972,7 @@
       </c>
       <c r="T38" s="352">
         <f>_xll.qlMidEquivalent(P38,Q38)</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="U38" s="135">
         <v>30</v>
@@ -9992,19 +9982,19 @@
         <v>1</v>
       </c>
       <c r="W38" s="352">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="X38" s="153"/>
       <c r="Y38" s="352">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Z38" s="153"/>
       <c r="AA38" s="352">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="AB38" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F38,AA38/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC38" s="70"/>
     </row>
@@ -10075,19 +10065,19 @@
       </c>
       <c r="W39" s="191">
         <f>W38</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="X39" s="153"/>
       <c r="Y39" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Z39" s="153"/>
       <c r="AA39" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="AB39" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F39,AA39/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC39" s="70"/>
     </row>
@@ -10158,19 +10148,19 @@
       </c>
       <c r="W40" s="191">
         <f>W39</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="X40" s="153"/>
       <c r="Y40" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Z40" s="153"/>
       <c r="AA40" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="AB40" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F40,AA40/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC40" s="70"/>
     </row>
@@ -10241,19 +10231,19 @@
       </c>
       <c r="W41" s="191">
         <f>W40</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="X41" s="153"/>
       <c r="Y41" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Z41" s="153"/>
       <c r="AA41" s="191">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="AB41" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F41,AA41/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC41" s="70"/>
     </row>
@@ -10324,19 +10314,19 @@
       </c>
       <c r="W42" s="192">
         <f>W41</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="X42" s="153"/>
       <c r="Y42" s="192">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Z42" s="153"/>
       <c r="AA42" s="192">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="AB42" s="296">
         <f>_xll.qlSimpleQuoteSetValue(F42,AA42/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="AC42" s="70"/>
     </row>
@@ -11846,7 +11836,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="247" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="R5" s="248" t="s">
         <v>139</v>
@@ -11925,7 +11915,7 @@
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="271">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S6" s="272">
         <v>2</v>
@@ -12006,7 +11996,7 @@
         <v>AU1MBA=</v>
       </c>
       <c r="R7" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S7" s="380">
         <v>2.1100000000000003</v>
@@ -12084,17 +12074,17 @@
         <v>AU2MBA=</v>
       </c>
       <c r="R8" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S8" s="380">
-        <v>2.17</v>
+        <v>2.1750000000000003</v>
       </c>
       <c r="T8" s="380">
-        <v>2.0700000000000003</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="U8" s="380">
         <f t="shared" ref="U8:U12" si="3">IF(ISERROR(AVERAGE(S8,T8)),#NUM!,AVERAGE(S8,T8))</f>
-        <v>2.12</v>
+        <v>2.125</v>
       </c>
       <c r="V8" s="380" t="b">
         <f t="shared" ref="V8:V12" si="4">IF(AND(ISNUMBER($U8),$U8&lt;&gt;0%),TRUE,FALSE)</f>
@@ -12106,7 +12096,7 @@
       </c>
       <c r="X8" s="385">
         <f>_xll.qlIndexFixing(K8,R8,,LastFixingsTrigger)</f>
-        <v>2.12E-2</v>
+        <v>2.1250000000000002E-2</v>
       </c>
       <c r="Y8" s="277"/>
     </row>
@@ -12165,17 +12155,17 @@
         <v>AU3MBA=</v>
       </c>
       <c r="R9" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S9" s="380">
-        <v>2.19</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="T9" s="380">
-        <v>2.0900000000000003</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="U9" s="380">
         <f t="shared" si="3"/>
-        <v>2.14</v>
+        <v>2.1450000000000005</v>
       </c>
       <c r="V9" s="380" t="b">
         <f t="shared" si="4"/>
@@ -12187,7 +12177,7 @@
       </c>
       <c r="X9" s="385">
         <f>_xll.qlIndexFixing(K9,R9,,LastFixingsTrigger)</f>
-        <v>2.1400000000000002E-2</v>
+        <v>2.1450000000000004E-2</v>
       </c>
       <c r="Y9" s="277"/>
     </row>
@@ -12243,17 +12233,17 @@
         <v>AU4MBA=</v>
       </c>
       <c r="R10" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S10" s="380">
-        <v>2.2350000000000003</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="T10" s="380">
-        <v>2.1350000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="U10" s="380">
         <f t="shared" si="3"/>
-        <v>2.1850000000000005</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="V10" s="380" t="b">
         <f t="shared" si="4"/>
@@ -12265,7 +12255,7 @@
       </c>
       <c r="X10" s="385">
         <f>_xll.qlIndexFixing(K10,R10,,LastFixingsTrigger)</f>
-        <v>2.1850000000000005E-2</v>
+        <v>2.1950000000000004E-2</v>
       </c>
       <c r="Y10" s="277"/>
     </row>
@@ -12321,17 +12311,17 @@
         <v>AU5MBA=</v>
       </c>
       <c r="R11" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S11" s="380">
-        <v>2.2650000000000001</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="T11" s="380">
-        <v>2.165</v>
+        <v>2.1750000000000003</v>
       </c>
       <c r="U11" s="380">
         <f t="shared" si="3"/>
-        <v>2.2149999999999999</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="V11" s="380" t="b">
         <f t="shared" si="4"/>
@@ -12343,7 +12333,7 @@
       </c>
       <c r="X11" s="385">
         <f>_xll.qlIndexFixing(K11,R11,,LastFixingsTrigger)</f>
-        <v>2.215E-2</v>
+        <v>2.2250000000000002E-2</v>
       </c>
       <c r="Y11" s="277"/>
     </row>
@@ -12402,17 +12392,17 @@
         <v>AU6MBA=</v>
       </c>
       <c r="R12" s="382">
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="S12" s="380">
-        <v>2.2800000000000002</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="T12" s="380">
-        <v>2.1800000000000002</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="U12" s="380">
         <f t="shared" si="3"/>
-        <v>2.2300000000000004</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="V12" s="380" t="b">
         <f t="shared" si="4"/>
@@ -12424,7 +12414,7 @@
       </c>
       <c r="X12" s="386">
         <f>_xll.qlIndexFixing(K12,R12,,LastFixingsTrigger)</f>
-        <v>2.2300000000000004E-2</v>
+        <v>2.2450000000000001E-2</v>
       </c>
       <c r="Y12" s="278"/>
     </row>
@@ -12522,7 +12512,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="30" t="str">
         <f>_xll.RHistory(Q8,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,Q18)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="R17" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K8,Q20,R20/100,TRUE,Trigger)</f>
@@ -12533,7 +12523,7 @@
       <c r="U17" s="32"/>
       <c r="V17" s="30" t="str">
         <f>_xll.RHistory(Q11,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,V18)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="W17" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K11,V20,W20/100,TRUE,Trigger)</f>
@@ -12575,7 +12565,7 @@
       </c>
       <c r="L19" s="243" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42135 END:42135 INTERVAL:1D</v>
+        <v>START:42136 END:42136 INTERVAL:1D</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -12663,7 +12653,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="30" t="str">
         <f>_xll.RHistory(Q10,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,Q23)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="R22" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K10,Q25,R25/100,TRUE,Trigger)</f>
@@ -12674,7 +12664,7 @@
       <c r="U22" s="32"/>
       <c r="V22" s="30" t="str">
         <f>_xll.RHistory(Q12,L21:L22,L19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;L20,V23)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="W22" s="31" t="e">
         <f>_xll.qlIndexAddFixings(K12,V25,W25/100,TRUE,Trigger)</f>
@@ -12922,7 +12912,7 @@
       </c>
       <c r="L4" s="89" t="str">
         <f>_xll.RData(L5:L22,M4:N4,"RTFEED:IDN",ReutersRtMode,,M5)</f>
-        <v>Updated at 18:09:45</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="M4" s="120" t="s">
         <v>103</v>
@@ -13038,28 +13028,28 @@
         <v>AUDTND=</v>
       </c>
       <c r="M6" s="288">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N6" s="288">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O6" s="288">
         <f>IF(ISERROR(AVERAGE(M6,N6)),#NUM!,AVERAGE(M6,N6))</f>
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="P6" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q6" s="291">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="R6" s="154"/>
       <c r="S6" s="291">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="T6" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F6,S6/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-4</v>
       </c>
       <c r="U6" s="111"/>
     </row>
@@ -13095,28 +13085,28 @@
         <v>AUDSND=</v>
       </c>
       <c r="M7" s="291">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N7" s="291">
-        <v>2.35</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O7" s="291">
         <f t="shared" ref="O7:O22" si="2">IF(ISERROR(AVERAGE(M7,N7)),#NUM!,AVERAGE(M7,N7))</f>
-        <v>2.1749999999999998</v>
+        <v>2</v>
       </c>
       <c r="P7" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q7" s="291">
-        <v>2.1749999999999998</v>
+        <v>2</v>
       </c>
       <c r="R7" s="154"/>
       <c r="S7" s="291">
-        <v>2.1749999999999998</v>
+        <v>2</v>
       </c>
       <c r="T7" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F7,S7/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.7499999999999981E-3</v>
       </c>
       <c r="U7" s="111"/>
     </row>
@@ -13152,28 +13142,28 @@
         <v>AUDSWD=</v>
       </c>
       <c r="M8" s="291">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N8" s="291">
-        <v>2.25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O8" s="291">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="P8" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q8" s="291">
-        <v>2.2000000000000002</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="R8" s="154"/>
       <c r="S8" s="291">
-        <v>2.2000000000000002</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="T8" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F8,S8/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-4</v>
       </c>
       <c r="U8" s="111"/>
     </row>
@@ -13370,28 +13360,28 @@
         <v>AU2MBA=</v>
       </c>
       <c r="M12" s="291">
-        <v>2.17</v>
+        <v>2.1750000000000003</v>
       </c>
       <c r="N12" s="291">
-        <v>2.0700000000000003</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="O12" s="291">
         <f t="shared" si="2"/>
-        <v>2.12</v>
+        <v>2.125</v>
       </c>
       <c r="P12" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q12" s="291">
-        <v>2.12</v>
+        <v>2.125</v>
       </c>
       <c r="R12" s="154"/>
       <c r="S12" s="291">
-        <v>2.12</v>
+        <v>2.125</v>
       </c>
       <c r="T12" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F12,S12/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="U12" s="111"/>
     </row>
@@ -13427,28 +13417,28 @@
         <v>AU3MBA=</v>
       </c>
       <c r="M13" s="291">
-        <v>2.19</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="N13" s="291">
-        <v>2.0900000000000003</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="O13" s="291">
         <f t="shared" si="2"/>
-        <v>2.14</v>
+        <v>2.1450000000000005</v>
       </c>
       <c r="P13" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q13" s="291">
-        <v>2.14</v>
+        <v>2.1450000000000005</v>
       </c>
       <c r="R13" s="154"/>
       <c r="S13" s="291">
-        <v>2.14</v>
+        <v>2.1450000000000005</v>
       </c>
       <c r="T13" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F13,S13/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000001432E-5</v>
       </c>
       <c r="U13" s="111"/>
     </row>
@@ -13481,26 +13471,26 @@
         <v>AU4MBA=</v>
       </c>
       <c r="M14" s="291">
-        <v>2.2350000000000003</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="N14" s="291">
-        <v>2.1350000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="O14" s="291">
         <f t="shared" si="2"/>
-        <v>2.1850000000000005</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="P14" s="91"/>
       <c r="Q14" s="291">
-        <v>2.1850000000000005</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="R14" s="154"/>
       <c r="S14" s="291">
-        <v>2.1850000000000005</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="T14" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F14,S14/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="U14" s="111"/>
     </row>
@@ -13533,26 +13523,26 @@
         <v>AU5MBA=</v>
       </c>
       <c r="M15" s="291">
-        <v>2.2650000000000001</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N15" s="291">
-        <v>2.165</v>
+        <v>2.1750000000000003</v>
       </c>
       <c r="O15" s="291">
         <f t="shared" si="2"/>
-        <v>2.2149999999999999</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="P15" s="91"/>
       <c r="Q15" s="291">
-        <v>2.2149999999999999</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="R15" s="154"/>
       <c r="S15" s="291">
-        <v>2.2149999999999999</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="T15" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F15,S15/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000286E-4</v>
       </c>
       <c r="U15" s="111"/>
     </row>
@@ -13588,28 +13578,28 @@
         <v>AU6MBA=</v>
       </c>
       <c r="M16" s="291">
-        <v>2.2800000000000002</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="N16" s="291">
-        <v>2.1800000000000002</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="O16" s="291">
         <f t="shared" si="2"/>
-        <v>2.2300000000000004</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="P16" s="91" t="s">
         <v>166</v>
       </c>
       <c r="Q16" s="291">
-        <v>2.2300000000000004</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="R16" s="154"/>
       <c r="S16" s="291">
-        <v>2.2300000000000004</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="T16" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F16,S16/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999736E-4</v>
       </c>
       <c r="U16" s="111"/>
     </row>
@@ -14067,7 +14057,7 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="297">
         <f>_xll.ohTrigger(Z5:Z31)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="128"/>
       <c r="AB2" s="158"/>
@@ -14127,7 +14117,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O31,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -14205,37 +14195,37 @@
         <v>AUD1X4F=</v>
       </c>
       <c r="P5" s="291">
+        <v>2.11</v>
+      </c>
+      <c r="Q5" s="291">
+        <v>2.14</v>
+      </c>
+      <c r="R5" s="291">
+        <v>0</v>
+      </c>
+      <c r="S5" s="291">
         <v>2.12</v>
-      </c>
-      <c r="Q5" s="291">
-        <v>2.15</v>
-      </c>
-      <c r="R5" s="291">
-        <v>0</v>
-      </c>
-      <c r="S5" s="291">
-        <v>2.11</v>
       </c>
       <c r="T5" s="303">
         <f>IF(ISERROR(AVERAGE(P5,Q5)),#NUM!,AVERAGE(P5,Q5))</f>
-        <v>2.1349999999999998</v>
+        <v>2.125</v>
       </c>
       <c r="U5" s="288">
         <f>Q5-P5</f>
-        <v>2.9999999999999805E-2</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="V5" s="151"/>
       <c r="W5" s="288">
-        <v>2.1349999999999998</v>
+        <v>2.125</v>
       </c>
       <c r="X5" s="151"/>
       <c r="Y5" s="288">
         <f t="array" ref="Y5:Y31">QuoteLive</f>
-        <v>2.1349999999999998</v>
+        <v>2.125</v>
       </c>
       <c r="Z5" s="298">
         <f>_xll.qlSimpleQuoteSetValue(F5,Y5/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-5</v>
       </c>
       <c r="AA5" s="130"/>
       <c r="AB5" s="158"/>
@@ -14283,20 +14273,20 @@
         <v>AUD2X5F=</v>
       </c>
       <c r="P6" s="291">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="Q6" s="291">
+        <v>2.06</v>
+      </c>
+      <c r="R6" s="291">
+        <v>0</v>
+      </c>
+      <c r="S6" s="291">
         <v>2.1</v>
-      </c>
-      <c r="Q6" s="291">
-        <v>2.13</v>
-      </c>
-      <c r="R6" s="291">
-        <v>0</v>
-      </c>
-      <c r="S6" s="291">
-        <v>2.09</v>
       </c>
       <c r="T6" s="303">
         <f t="shared" ref="T6:T31" si="4">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>2.1150000000000002</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="U6" s="291">
         <f t="shared" ref="U6:U31" si="5">Q6-P6</f>
@@ -14304,15 +14294,15 @@
       </c>
       <c r="V6" s="151"/>
       <c r="W6" s="291">
-        <v>2.1150000000000002</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="X6" s="151"/>
       <c r="Y6" s="291">
-        <v>2.1150000000000002</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="Z6" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>-7.000000000000027E-4</v>
       </c>
       <c r="AA6" s="130"/>
       <c r="AB6" s="158"/>
@@ -14360,36 +14350,36 @@
         <v>AUD3X6F=</v>
       </c>
       <c r="P7" s="291">
+        <v>1.98</v>
+      </c>
+      <c r="Q7" s="291">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="R7" s="291">
+        <v>0</v>
+      </c>
+      <c r="S7" s="291">
         <v>2.08</v>
-      </c>
-      <c r="Q7" s="291">
-        <v>2.11</v>
-      </c>
-      <c r="R7" s="291">
-        <v>0</v>
-      </c>
-      <c r="S7" s="291">
-        <v>2.0699999999999998</v>
       </c>
       <c r="T7" s="303">
         <f t="shared" si="4"/>
-        <v>2.0949999999999998</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="U7" s="291">
         <f t="shared" si="5"/>
-        <v>2.9999999999999805E-2</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="V7" s="151"/>
       <c r="W7" s="291">
-        <v>2.0949999999999998</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="X7" s="151"/>
       <c r="Y7" s="291">
-        <v>2.0949999999999998</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="Z7" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999395E-4</v>
       </c>
       <c r="AA7" s="130"/>
       <c r="AB7" s="158"/>
@@ -14437,36 +14427,36 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="P8" s="291">
+        <v>1.93</v>
+      </c>
+      <c r="Q8" s="291">
+        <v>1.96</v>
+      </c>
+      <c r="R8" s="291">
+        <v>0</v>
+      </c>
+      <c r="S8" s="291">
         <v>2.0699999999999998</v>
-      </c>
-      <c r="Q8" s="291">
-        <v>2.1</v>
-      </c>
-      <c r="R8" s="291">
-        <v>0</v>
-      </c>
-      <c r="S8" s="291">
-        <v>2.06</v>
       </c>
       <c r="T8" s="303">
         <f t="shared" si="4"/>
-        <v>2.085</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="U8" s="291">
         <f t="shared" si="5"/>
-        <v>3.0000000000000249E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V8" s="151"/>
       <c r="W8" s="291">
-        <v>2.085</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="X8" s="151"/>
       <c r="Y8" s="291">
-        <v>2.085</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="Z8" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.4000000000000019E-3</v>
       </c>
       <c r="AA8" s="130"/>
       <c r="AB8" s="158"/>
@@ -14514,10 +14504,10 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="P9" s="291">
-        <v>2.0699999999999998</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="Q9" s="291">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R9" s="291">
         <v>0</v>
@@ -14527,23 +14517,23 @@
       </c>
       <c r="T9" s="303">
         <f t="shared" si="4"/>
-        <v>2.085</v>
+        <v>1.915</v>
       </c>
       <c r="U9" s="291">
         <f t="shared" si="5"/>
-        <v>3.0000000000000249E-2</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="V9" s="151"/>
       <c r="W9" s="291">
-        <v>2.085</v>
+        <v>1.915</v>
       </c>
       <c r="X9" s="151"/>
       <c r="Y9" s="291">
-        <v>2.085</v>
+        <v>1.915</v>
       </c>
       <c r="Z9" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.7000000000000001E-3</v>
       </c>
       <c r="AA9" s="130"/>
       <c r="AB9" s="158"/>
@@ -14591,10 +14581,10 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="P10" s="291">
-        <v>2.0699999999999998</v>
+        <v>1.8800000000000001</v>
       </c>
       <c r="Q10" s="291">
-        <v>2.1</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="R10" s="291">
         <v>0</v>
@@ -14604,23 +14594,23 @@
       </c>
       <c r="T10" s="305">
         <f t="shared" si="4"/>
-        <v>2.085</v>
+        <v>1.895</v>
       </c>
       <c r="U10" s="294">
         <f t="shared" si="5"/>
-        <v>3.0000000000000249E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V10" s="151"/>
       <c r="W10" s="294">
-        <v>2.085</v>
+        <v>1.895</v>
       </c>
       <c r="X10" s="151"/>
       <c r="Y10" s="294">
-        <v>2.085</v>
+        <v>1.895</v>
       </c>
       <c r="Z10" s="300">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.8999999999999989E-3</v>
       </c>
       <c r="AA10" s="130"/>
       <c r="AB10" s="158"/>
@@ -16436,7 +16426,7 @@
       </c>
       <c r="O4" s="148" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>103</v>
@@ -16745,7 +16735,7 @@
         <v>1.99</v>
       </c>
       <c r="Q8" s="291">
-        <v>2.0030000000000001</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="R8" s="291">
         <v>0</v>
@@ -16755,23 +16745,23 @@
       </c>
       <c r="T8" s="291">
         <f t="shared" si="5"/>
-        <v>1.9965000000000002</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="U8" s="291">
         <f t="shared" si="6"/>
-        <v>1.3000000000000123E-2</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="V8" s="153"/>
       <c r="W8" s="291">
-        <v>1.9965000000000002</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="X8" s="153"/>
       <c r="Y8" s="291">
-        <v>1.9965000000000002</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="Z8" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AA8" s="70"/>
     </row>
@@ -16818,10 +16808,10 @@
         <v>AUD2MOIS=ICAA</v>
       </c>
       <c r="P9" s="291">
-        <v>1.99</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="Q9" s="291">
-        <v>1.9950000000000001</v>
+        <v>2</v>
       </c>
       <c r="R9" s="291">
         <v>0</v>
@@ -16835,7 +16825,7 @@
       </c>
       <c r="U9" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000001155E-3</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="V9" s="153"/>
       <c r="W9" s="291">
@@ -16894,10 +16884,10 @@
         <v>AUD3MOIS=ICAA</v>
       </c>
       <c r="P10" s="291">
-        <v>1.97</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q10" s="291">
-        <v>1.9850000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="R10" s="291">
         <v>0</v>
@@ -16907,23 +16897,23 @@
       </c>
       <c r="T10" s="291">
         <f t="shared" si="5"/>
-        <v>1.9775</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="U10" s="291">
         <f t="shared" si="6"/>
-        <v>1.5000000000000124E-2</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="V10" s="153"/>
       <c r="W10" s="291">
-        <v>1.9775</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="291">
-        <v>1.9775</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="Z10" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999997963E-5</v>
       </c>
       <c r="AA10" s="70"/>
     </row>
@@ -16970,10 +16960,10 @@
         <v>AUD4MOIS=ICAA</v>
       </c>
       <c r="P11" s="291">
-        <v>1.96</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="Q11" s="291">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R11" s="291">
         <v>0</v>
@@ -16983,23 +16973,23 @@
       </c>
       <c r="T11" s="291">
         <f t="shared" si="5"/>
-        <v>1.9649999999999999</v>
+        <v>1.9735</v>
       </c>
       <c r="U11" s="291">
         <f t="shared" si="6"/>
-        <v>1.0000000000000009E-2</v>
+        <v>1.2999999999999901E-2</v>
       </c>
       <c r="V11" s="153"/>
       <c r="W11" s="291">
-        <v>1.9649999999999999</v>
+        <v>1.9735</v>
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="291">
-        <v>1.9649999999999999</v>
+        <v>1.9735</v>
       </c>
       <c r="Z11" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>8.5000000000001741E-5</v>
       </c>
       <c r="AA11" s="70"/>
     </row>
@@ -17046,10 +17036,10 @@
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="P12" s="291">
-        <v>1.94</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="Q12" s="291">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R12" s="291">
         <v>0</v>
@@ -17059,23 +17049,23 @@
       </c>
       <c r="T12" s="291">
         <f t="shared" si="5"/>
-        <v>1.95</v>
+        <v>1.9635</v>
       </c>
       <c r="U12" s="291">
         <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.2999999999999901E-2</v>
       </c>
       <c r="V12" s="153"/>
       <c r="W12" s="291">
-        <v>1.95</v>
+        <v>1.9635</v>
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="291">
-        <v>1.95</v>
+        <v>1.9635</v>
       </c>
       <c r="Z12" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>1.349999999999997E-4</v>
       </c>
       <c r="AA12" s="70"/>
     </row>
@@ -17122,10 +17112,10 @@
         <v>AUD6MOIS=ICAA</v>
       </c>
       <c r="P13" s="291">
-        <v>1.94</v>
+        <v>1.952</v>
       </c>
       <c r="Q13" s="291">
-        <v>1.9530000000000001</v>
+        <v>1.968</v>
       </c>
       <c r="R13" s="291">
         <v>0</v>
@@ -17135,23 +17125,23 @@
       </c>
       <c r="T13" s="291">
         <f t="shared" si="5"/>
-        <v>1.9464999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="U13" s="291">
         <f t="shared" si="6"/>
-        <v>1.3000000000000123E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="V13" s="153"/>
       <c r="W13" s="291">
-        <v>1.9464999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="X13" s="153"/>
       <c r="Y13" s="291">
-        <v>1.9464999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="Z13" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>1.349999999999997E-4</v>
       </c>
       <c r="AA13" s="70"/>
     </row>
@@ -17350,10 +17340,10 @@
         <v>AUD9MOIS=ICAA</v>
       </c>
       <c r="P16" s="291">
-        <v>1.9219999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" s="291">
-        <v>1.93</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="R16" s="291">
         <v>0</v>
@@ -17363,23 +17353,23 @@
       </c>
       <c r="T16" s="291">
         <f t="shared" si="5"/>
-        <v>1.9259999999999999</v>
+        <v>1.9475</v>
       </c>
       <c r="U16" s="291">
         <f t="shared" si="6"/>
-        <v>8.0000000000000071E-3</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="V16" s="153"/>
       <c r="W16" s="291">
-        <v>1.9259999999999999</v>
+        <v>1.9475</v>
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="291">
-        <v>1.9259999999999999</v>
+        <v>1.9475</v>
       </c>
       <c r="Z16" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>2.1499999999999991E-4</v>
       </c>
       <c r="AA16" s="70"/>
     </row>
@@ -17578,10 +17568,10 @@
         <v>AUD12MOIS=ICAA</v>
       </c>
       <c r="P19" s="291">
-        <v>1.915</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" s="291">
-        <v>1.9350000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="R19" s="291">
         <v>0</v>
@@ -17591,7 +17581,7 @@
       </c>
       <c r="T19" s="291">
         <f t="shared" si="5"/>
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U19" s="291">
         <f t="shared" si="6"/>
@@ -17599,15 +17589,15 @@
       </c>
       <c r="V19" s="153"/>
       <c r="W19" s="291">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="291">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="Z19" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA19" s="70"/>
     </row>
@@ -18034,10 +18024,10 @@
         <v>AUD18MOIS=ICAA</v>
       </c>
       <c r="P25" s="291">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q25" s="291">
-        <v>1.98</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="R25" s="291">
         <v>0</v>
@@ -18047,23 +18037,23 @@
       </c>
       <c r="T25" s="291">
         <f t="shared" si="5"/>
-        <v>1.9550000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="U25" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.0000000000000258E-2</v>
       </c>
       <c r="V25" s="153"/>
       <c r="W25" s="291">
-        <v>1.9550000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="291">
-        <v>1.9550000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="Z25" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>0</v>
+        <v>3.4999999999999962E-4</v>
       </c>
       <c r="AA25" s="70"/>
     </row>
@@ -18490,10 +18480,10 @@
         <v>AUD2YOIS=ICAA</v>
       </c>
       <c r="P31" s="291">
-        <v>1.9850000000000001</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" s="291">
-        <v>2.0350000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="R31" s="291">
         <v>0</v>
@@ -18503,23 +18493,23 @@
       </c>
       <c r="T31" s="291">
         <f t="shared" si="5"/>
-        <v>2.0100000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="U31" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="291">
-        <v>2.0100000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="291">
-        <v>2.0100000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="Z31" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-4</v>
       </c>
       <c r="AA31" s="70"/>
     </row>
@@ -18794,10 +18784,10 @@
         <v>AUD3YOIS=ICAA</v>
       </c>
       <c r="P35" s="291">
-        <v>2.15</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="Q35" s="291">
-        <v>2.2000000000000002</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="R35" s="291">
         <v>0</v>
@@ -18807,23 +18797,23 @@
       </c>
       <c r="T35" s="291">
         <f t="shared" si="5"/>
-        <v>2.1749999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="U35" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V35" s="153"/>
       <c r="W35" s="291">
-        <v>2.1749999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="291">
-        <v>2.1749999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Z35" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35/100,Trigger)</f>
-        <v>0</v>
+        <v>6.5000000000000474E-4</v>
       </c>
       <c r="AA35" s="70"/>
     </row>
@@ -20770,7 +20760,7 @@
       </c>
       <c r="O4" s="148" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>103</v>
@@ -21942,36 +21932,36 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="291">
-        <v>1.9000000000000001</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="Q19" s="291">
-        <v>1.95</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="R19" s="291">
         <v>0</v>
       </c>
       <c r="S19" s="291">
-        <v>1.925</v>
+        <v>1.958</v>
       </c>
       <c r="T19" s="291">
         <f t="shared" si="5"/>
-        <v>1.925</v>
+        <v>1.9580000000000002</v>
       </c>
       <c r="U19" s="291">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V19" s="153"/>
       <c r="W19" s="291">
-        <v>1.925</v>
+        <v>1.9580000000000002</v>
       </c>
       <c r="X19" s="153"/>
       <c r="Y19" s="291">
-        <v>1.925</v>
+        <v>1.9580000000000002</v>
       </c>
       <c r="Z19" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>0</v>
+        <v>3.3000000000000043E-4</v>
       </c>
       <c r="AA19" s="70"/>
     </row>
@@ -22410,36 +22400,36 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="291">
-        <v>1.93</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q25" s="291">
-        <v>1.98</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="R25" s="291">
         <v>0</v>
       </c>
       <c r="S25" s="291">
-        <v>1.9550000000000001</v>
+        <v>2</v>
       </c>
       <c r="T25" s="291">
         <f t="shared" si="5"/>
-        <v>1.9550000000000001</v>
+        <v>2</v>
       </c>
       <c r="U25" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V25" s="153"/>
       <c r="W25" s="291">
-        <v>1.9550000000000001</v>
+        <v>2</v>
       </c>
       <c r="X25" s="153"/>
       <c r="Y25" s="291">
-        <v>1.9550000000000001</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>0</v>
+        <v>4.4999999999999901E-4</v>
       </c>
       <c r="AA25" s="70"/>
     </row>
@@ -22878,20 +22868,20 @@
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="P31" s="291">
-        <v>1.9950000000000001</v>
+        <v>2.0550000000000002</v>
       </c>
       <c r="Q31" s="291">
-        <v>2.0449999999999999</v>
+        <v>2.105</v>
       </c>
       <c r="R31" s="291">
         <v>0</v>
       </c>
       <c r="S31" s="291">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T31" s="291">
         <f t="shared" si="5"/>
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U31" s="291">
         <f t="shared" si="6"/>
@@ -22899,15 +22889,15 @@
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="291">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X31" s="153"/>
       <c r="Y31" s="291">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Z31" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>0</v>
+        <v>5.9999999999999984E-4</v>
       </c>
       <c r="AA31" s="70"/>
     </row>
@@ -23190,36 +23180,36 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="291">
-        <v>2.12</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="Q35" s="291">
-        <v>2.17</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="R35" s="291">
         <v>0</v>
       </c>
       <c r="S35" s="291">
-        <v>2.145</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="T35" s="291">
         <f t="shared" si="5"/>
-        <v>2.145</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="U35" s="291">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="V35" s="153"/>
       <c r="W35" s="291">
-        <v>2.145</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="X35" s="153"/>
       <c r="Y35" s="291">
-        <v>2.145</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Z35" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35/100,Trigger)</f>
-        <v>0</v>
+        <v>9.5000000000000293E-4</v>
       </c>
       <c r="AA35" s="70"/>
     </row>
@@ -23502,20 +23492,20 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="291">
-        <v>2.2530000000000001</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="Q39" s="291">
-        <v>2.3029999999999999</v>
+        <v>2.415</v>
       </c>
       <c r="R39" s="291">
         <v>0</v>
       </c>
       <c r="S39" s="291">
-        <v>2.278</v>
+        <v>2.39</v>
       </c>
       <c r="T39" s="291">
         <f t="shared" si="5"/>
-        <v>2.278</v>
+        <v>2.39</v>
       </c>
       <c r="U39" s="291">
         <f t="shared" si="6"/>
@@ -23523,15 +23513,15 @@
       </c>
       <c r="V39" s="153"/>
       <c r="W39" s="291">
-        <v>2.278</v>
+        <v>2.39</v>
       </c>
       <c r="X39" s="153"/>
       <c r="Y39" s="291">
-        <v>2.278</v>
+        <v>2.39</v>
       </c>
       <c r="Z39" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F39,Y39/100,Trigger)</f>
-        <v>0</v>
+        <v>1.1199999999999995E-3</v>
       </c>
       <c r="AA39" s="70"/>
     </row>
@@ -23814,20 +23804,20 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="291">
-        <v>2.39</v>
+        <v>2.5180000000000002</v>
       </c>
       <c r="Q43" s="291">
-        <v>2.44</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="R43" s="291">
         <v>0</v>
       </c>
       <c r="S43" s="291">
-        <v>2.415</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="T43" s="291">
         <f t="shared" si="5"/>
-        <v>2.415</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="U43" s="291">
         <f t="shared" si="6"/>
@@ -23835,15 +23825,15 @@
       </c>
       <c r="V43" s="153"/>
       <c r="W43" s="291">
-        <v>2.415</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="X43" s="153"/>
       <c r="Y43" s="291">
-        <v>2.415</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="Z43" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F43,Y43/100,Trigger)</f>
-        <v>0</v>
+        <v>1.2799999999999999E-3</v>
       </c>
       <c r="AA43" s="70"/>
     </row>
@@ -23892,36 +23882,36 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="291">
-        <v>2.508</v>
+        <v>2.653</v>
       </c>
       <c r="Q44" s="291">
-        <v>2.5580000000000003</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="R44" s="291">
         <v>0</v>
       </c>
       <c r="S44" s="291">
-        <v>2.5329999999999999</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="T44" s="291">
         <f t="shared" si="5"/>
-        <v>2.5330000000000004</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="U44" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V44" s="153"/>
       <c r="W44" s="291">
-        <v>2.5330000000000004</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="X44" s="153"/>
       <c r="Y44" s="291">
-        <v>2.5330000000000004</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="Z44" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F44,Y44/100,Trigger)</f>
-        <v>0</v>
+        <v>1.449999999999993E-3</v>
       </c>
       <c r="AA44" s="70"/>
     </row>
@@ -23970,36 +23960,36 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="291">
-        <v>2.625</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="Q45" s="291">
-        <v>2.6750000000000003</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="R45" s="291">
         <v>0</v>
       </c>
       <c r="S45" s="291">
-        <v>2.65</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="T45" s="291">
         <f t="shared" si="5"/>
-        <v>2.6500000000000004</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="U45" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V45" s="153"/>
       <c r="W45" s="291">
-        <v>2.6500000000000004</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="X45" s="153"/>
       <c r="Y45" s="291">
-        <v>2.6500000000000004</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="Z45" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F45,Y45/100,Trigger)</f>
-        <v>0</v>
+        <v>1.6299999999999995E-3</v>
       </c>
       <c r="AA45" s="70"/>
     </row>
@@ -24048,20 +24038,20 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="291">
-        <v>2.71</v>
+        <v>2.883</v>
       </c>
       <c r="Q46" s="291">
-        <v>2.7600000000000002</v>
+        <v>2.9330000000000003</v>
       </c>
       <c r="R46" s="291">
         <v>0</v>
       </c>
       <c r="S46" s="291">
-        <v>2.7349999999999999</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="T46" s="291">
         <f t="shared" si="5"/>
-        <v>2.7350000000000003</v>
+        <v>2.9080000000000004</v>
       </c>
       <c r="U46" s="291">
         <f t="shared" si="6"/>
@@ -24069,15 +24059,15 @@
       </c>
       <c r="V46" s="153"/>
       <c r="W46" s="291">
-        <v>2.7350000000000003</v>
+        <v>2.9080000000000004</v>
       </c>
       <c r="X46" s="153"/>
       <c r="Y46" s="291">
-        <v>2.7350000000000003</v>
+        <v>2.9080000000000004</v>
       </c>
       <c r="Z46" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F46,Y46/100,Trigger)</f>
-        <v>0</v>
+        <v>1.7300000000000024E-3</v>
       </c>
       <c r="AA46" s="70"/>
     </row>
@@ -24126,36 +24116,36 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="291">
-        <v>2.7949999999999999</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="Q47" s="291">
-        <v>2.8450000000000002</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="R47" s="291">
         <v>0</v>
       </c>
       <c r="S47" s="291">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="T47" s="291">
         <f t="shared" si="5"/>
-        <v>2.8200000000000003</v>
+        <v>3</v>
       </c>
       <c r="U47" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V47" s="153"/>
       <c r="W47" s="291">
-        <v>2.8200000000000003</v>
+        <v>3</v>
       </c>
       <c r="X47" s="153"/>
       <c r="Y47" s="291">
-        <v>2.8200000000000003</v>
+        <v>3</v>
       </c>
       <c r="Z47" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F47,Y47/100,Trigger)</f>
-        <v>0</v>
+        <v>1.799999999999996E-3</v>
       </c>
       <c r="AA47" s="70"/>
     </row>
@@ -24204,36 +24194,36 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="291">
-        <v>2.88</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="Q48" s="291">
-        <v>2.93</v>
+        <v>3.12</v>
       </c>
       <c r="R48" s="291">
         <v>0</v>
       </c>
       <c r="S48" s="291">
-        <v>2.9050000000000002</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="T48" s="291">
         <f t="shared" si="5"/>
-        <v>2.9050000000000002</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="U48" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V48" s="153"/>
       <c r="W48" s="291">
-        <v>2.9050000000000002</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="X48" s="153"/>
       <c r="Y48" s="291">
-        <v>2.9050000000000002</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="Z48" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F48,Y48/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA48" s="70"/>
     </row>
@@ -24282,36 +24272,36 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="291">
-        <v>3.0129999999999999</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="Q49" s="291">
-        <v>3.0630000000000002</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="R49" s="291">
         <v>0</v>
       </c>
       <c r="S49" s="291">
-        <v>3.0380000000000003</v>
+        <v>3.238</v>
       </c>
       <c r="T49" s="291">
         <f t="shared" si="5"/>
-        <v>3.0380000000000003</v>
+        <v>3.238</v>
       </c>
       <c r="U49" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V49" s="153"/>
       <c r="W49" s="291">
-        <v>3.0380000000000003</v>
+        <v>3.238</v>
       </c>
       <c r="X49" s="153"/>
       <c r="Y49" s="291">
-        <v>3.0380000000000003</v>
+        <v>3.238</v>
       </c>
       <c r="Z49" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F49,Y49/100,Trigger)</f>
-        <v>0</v>
+        <v>1.9999999999999948E-3</v>
       </c>
       <c r="AA49" s="70"/>
     </row>
@@ -24360,20 +24350,20 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="291">
-        <v>3.1579999999999999</v>
+        <v>3.355</v>
       </c>
       <c r="Q50" s="291">
-        <v>3.2080000000000002</v>
+        <v>3.4050000000000002</v>
       </c>
       <c r="R50" s="291">
         <v>0</v>
       </c>
       <c r="S50" s="291">
-        <v>3.1830000000000003</v>
+        <v>3.38</v>
       </c>
       <c r="T50" s="291">
         <f t="shared" si="5"/>
-        <v>3.1829999999999998</v>
+        <v>3.38</v>
       </c>
       <c r="U50" s="291">
         <f t="shared" si="6"/>
@@ -24381,15 +24371,15 @@
       </c>
       <c r="V50" s="153"/>
       <c r="W50" s="291">
-        <v>3.1829999999999998</v>
+        <v>3.38</v>
       </c>
       <c r="X50" s="153"/>
       <c r="Y50" s="291">
-        <v>3.1829999999999998</v>
+        <v>3.38</v>
       </c>
       <c r="Z50" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F50,Y50/100,Trigger)</f>
-        <v>0</v>
+        <v>1.9699999999999995E-3</v>
       </c>
       <c r="AA50" s="70"/>
     </row>
@@ -24438,36 +24428,36 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="291">
-        <v>3.258</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="Q51" s="291">
-        <v>3.3080000000000003</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="R51" s="291">
         <v>0</v>
       </c>
       <c r="S51" s="291">
-        <v>3.2829999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="T51" s="291">
         <f t="shared" si="5"/>
-        <v>3.2830000000000004</v>
+        <v>3.48</v>
       </c>
       <c r="U51" s="291">
         <f t="shared" si="6"/>
-        <v>5.0000000000000266E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="V51" s="153"/>
       <c r="W51" s="291">
-        <v>3.2830000000000004</v>
+        <v>3.48</v>
       </c>
       <c r="X51" s="153"/>
       <c r="Y51" s="291">
-        <v>3.2830000000000004</v>
+        <v>3.48</v>
       </c>
       <c r="Z51" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F51,Y51/100,Trigger)</f>
-        <v>0</v>
+        <v>1.9699999999999926E-3</v>
       </c>
       <c r="AA51" s="70"/>
     </row>
@@ -24516,20 +24506,20 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="291">
-        <v>3.2949999999999999</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="Q52" s="291">
-        <v>3.3450000000000002</v>
+        <v>3.5430000000000001</v>
       </c>
       <c r="R52" s="291">
         <v>0</v>
       </c>
       <c r="S52" s="291">
-        <v>3.3200000000000003</v>
+        <v>3.5180000000000002</v>
       </c>
       <c r="T52" s="291">
         <f t="shared" si="5"/>
-        <v>3.3200000000000003</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="U52" s="291">
         <f t="shared" si="6"/>
@@ -24537,15 +24527,15 @@
       </c>
       <c r="V52" s="153"/>
       <c r="W52" s="291">
-        <v>3.3200000000000003</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="X52" s="153"/>
       <c r="Y52" s="291">
-        <v>3.3200000000000003</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="Z52" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F52,Y52/100,Trigger)</f>
-        <v>0</v>
+        <v>1.9799999999999957E-3</v>
       </c>
       <c r="AA52" s="70"/>
     </row>
@@ -24672,20 +24662,20 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="291">
-        <v>3.3130000000000002</v>
+        <v>3.5100000000000002</v>
       </c>
       <c r="Q54" s="291">
-        <v>3.363</v>
+        <v>3.56</v>
       </c>
       <c r="R54" s="291">
         <v>0</v>
       </c>
       <c r="S54" s="291">
-        <v>3.3380000000000001</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="T54" s="291">
         <f t="shared" si="5"/>
-        <v>3.3380000000000001</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="U54" s="291">
         <f t="shared" si="6"/>
@@ -24693,15 +24683,15 @@
       </c>
       <c r="V54" s="153"/>
       <c r="W54" s="291">
-        <v>3.3380000000000001</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="X54" s="153"/>
       <c r="Y54" s="291">
-        <v>3.3380000000000001</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="Z54" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F54,Y54/100,Trigger)</f>
-        <v>0</v>
+        <v>1.9699999999999995E-3</v>
       </c>
       <c r="AA54" s="70"/>
     </row>
@@ -25185,7 +25175,7 @@
       <c r="AE2" s="49"/>
       <c r="AF2" s="297">
         <f>_xll.ohTrigger(AF5:AF46)</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AG2" s="218"/>
     </row>
@@ -25280,7 +25270,7 @@
       </c>
       <c r="R4" s="148" t="str">
         <f>_xll.RData(R5:R46,S4:Y4,"RTFEED:IDN",ReutersRtMode,,S5)</f>
-        <v>Updated at 18:09:59</v>
+        <v>Updated at 17:51:27</v>
       </c>
       <c r="S4" s="149" t="s">
         <v>121</v>
@@ -25349,7 +25339,7 @@
       </c>
       <c r="I5" s="346" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H5,IborIndex,D5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(AF5),ISERROR(FuturesHWConvAdj!U5:U6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0023</v>
       </c>
       <c r="J5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -25379,26 +25369,26 @@
         <v>42166</v>
       </c>
       <c r="T5" s="288">
+        <v>97.83</v>
+      </c>
+      <c r="U5" s="288">
         <v>97.84</v>
       </c>
-      <c r="U5" s="288">
-        <v>97.850000000000009</v>
-      </c>
       <c r="V5" s="288">
-        <v>97.850000000000009</v>
+        <v>97.84</v>
       </c>
       <c r="W5" s="288">
-        <v>97.850000000000009</v>
+        <v>97.83</v>
       </c>
       <c r="X5" s="354">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y5" s="354">
-        <v>181202</v>
+        <v>177623</v>
       </c>
       <c r="Z5" s="288">
         <f>_xll.qlMidSafe(T5,U5,Trigger)</f>
-        <v>97.844999999999999</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AA5" s="291">
         <f>U5-T5</f>
@@ -25406,12 +25396,12 @@
       </c>
       <c r="AB5" s="223"/>
       <c r="AC5" s="327">
-        <v>97.844999999999999</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AD5" s="223"/>
       <c r="AE5" s="288">
         <f t="array" ref="AE5:AE46">QuoteLive</f>
-        <v>97.844999999999999</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AF5" s="316">
         <f>_xll.qlSimpleQuoteSetValue(F5,AE5,Trigger)</f>
@@ -25448,7 +25438,7 @@
       </c>
       <c r="I6" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H6,IborIndex,D6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(AF6),ISERROR(FuturesHWConvAdj!U6:U7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0023</v>
       </c>
       <c r="J6" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -25543,7 +25533,7 @@
       </c>
       <c r="I7" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H7,IborIndex,D7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(AF7),ISERROR(FuturesHWConvAdj!U7:U8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote#0023</v>
       </c>
       <c r="J7" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -25638,7 +25628,7 @@
       </c>
       <c r="I8" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H8,IborIndex,D8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(AF8),ISERROR(FuturesHWConvAdj!U8:U9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0023</v>
       </c>
       <c r="J8" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -25665,26 +25655,26 @@
         <v>42257</v>
       </c>
       <c r="T8" s="291">
+        <v>97.88</v>
+      </c>
+      <c r="U8" s="291">
         <v>97.89</v>
-      </c>
-      <c r="U8" s="291">
-        <v>97.9</v>
       </c>
       <c r="V8" s="291">
         <v>97.89</v>
       </c>
       <c r="W8" s="291">
-        <v>97.9</v>
+        <v>97.87</v>
       </c>
       <c r="X8" s="355">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="355">
-        <v>218783</v>
+        <v>231908</v>
       </c>
       <c r="Z8" s="291">
         <f>_xll.qlMidSafe(T8,U8,Trigger)</f>
-        <v>97.89500000000001</v>
+        <v>97.884999999999991</v>
       </c>
       <c r="AA8" s="291">
         <f t="shared" si="2"/>
@@ -25692,11 +25682,11 @@
       </c>
       <c r="AB8" s="223"/>
       <c r="AC8" s="328">
-        <v>97.89500000000001</v>
+        <v>97.884999999999991</v>
       </c>
       <c r="AD8" s="223"/>
       <c r="AE8" s="291">
-        <v>97.89500000000001</v>
+        <v>97.884999999999991</v>
       </c>
       <c r="AF8" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F8,AE8,Trigger)</f>
@@ -25733,7 +25723,7 @@
       </c>
       <c r="I9" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H9,IborIndex,D9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(AF9),ISERROR(FuturesHWConvAdj!U9:U10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MV5ConvAdj_Quote#0023</v>
       </c>
       <c r="J9" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -25829,7 +25819,7 @@
       </c>
       <c r="I10" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H10,IborIndex,D10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(AF10),ISERROR(FuturesHWConvAdj!U10:U11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MX5ConvAdj_Quote#0023</v>
       </c>
       <c r="J10" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -25924,7 +25914,7 @@
       </c>
       <c r="I11" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H11,IborIndex,D11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(AF11),ISERROR(FuturesHWConvAdj!U11:U12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0023</v>
       </c>
       <c r="J11" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -25951,7 +25941,7 @@
         <v>42348</v>
       </c>
       <c r="T11" s="291">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="U11" s="291">
         <v>97.89</v>
@@ -25960,21 +25950,21 @@
         <v>97.89</v>
       </c>
       <c r="W11" s="291">
-        <v>97.9</v>
+        <v>97.87</v>
       </c>
       <c r="X11" s="355">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="355">
-        <v>193867</v>
+        <v>201605</v>
       </c>
       <c r="Z11" s="291">
         <f>_xll.qlMidSafe(T11,U11,Trigger)</f>
-        <v>97.884999999999991</v>
+        <v>97.88</v>
       </c>
       <c r="AA11" s="291">
         <f t="shared" si="2"/>
-        <v>1.0000000000005116E-2</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="AB11" s="223"/>
       <c r="AC11" s="328">
@@ -25982,11 +25972,11 @@
       </c>
       <c r="AD11" s="223"/>
       <c r="AE11" s="291">
-        <v>97.884999999999991</v>
+        <v>97.88</v>
       </c>
       <c r="AF11" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F11,AE11,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AG11" s="44"/>
     </row>
@@ -26019,7 +26009,7 @@
       </c>
       <c r="I12" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H12,IborIndex,D12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(AF12),ISERROR(FuturesHWConvAdj!U12:U13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MF6ConvAdj_Quote#0023</v>
       </c>
       <c r="J12" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -26114,7 +26104,7 @@
       </c>
       <c r="I13" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H13,IborIndex,D13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(AF13),ISERROR(FuturesHWConvAdj!U13:U14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MG6ConvAdj_Quote#0023</v>
       </c>
       <c r="J13" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -26209,7 +26199,7 @@
       </c>
       <c r="I14" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H14,IborIndex,D14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(AF14),ISERROR(FuturesHWConvAdj!U14:U15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0023</v>
       </c>
       <c r="J14" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -26236,38 +26226,38 @@
         <v>42439</v>
       </c>
       <c r="T14" s="291">
-        <v>97.850000000000009</v>
+        <v>97.83</v>
       </c>
       <c r="U14" s="291">
-        <v>97.86</v>
+        <v>97.84</v>
       </c>
       <c r="V14" s="291">
-        <v>97.850000000000009</v>
+        <v>97.84</v>
       </c>
       <c r="W14" s="291">
-        <v>97.87</v>
+        <v>97.820000000000007</v>
       </c>
       <c r="X14" s="355">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y14" s="355">
-        <v>137320</v>
+        <v>139382</v>
       </c>
       <c r="Z14" s="291">
         <f>_xll.qlMidSafe(T14,U14,Trigger)</f>
-        <v>97.855000000000004</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AA14" s="291">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AB14" s="223"/>
       <c r="AC14" s="328">
-        <v>97.855000000000004</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AD14" s="223"/>
       <c r="AE14" s="291">
-        <v>97.855000000000004</v>
+        <v>97.835000000000008</v>
       </c>
       <c r="AF14" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F14,AE14,Trigger)</f>
@@ -26304,7 +26294,7 @@
       </c>
       <c r="I15" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H15,IborIndex,D15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(AF15),ISERROR(FuturesHWConvAdj!U15:U16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MJ6ConvAdj_Quote#0023</v>
       </c>
       <c r="J15" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -26399,7 +26389,7 @@
       </c>
       <c r="I16" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H16,IborIndex,D16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(AF16),ISERROR(FuturesHWConvAdj!U16:U17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MK6ConvAdj_Quote#0023</v>
       </c>
       <c r="J16" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -26494,7 +26484,7 @@
       </c>
       <c r="I17" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H17,IborIndex,D17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(AF17),ISERROR(FuturesHWConvAdj!U17:U18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0023</v>
       </c>
       <c r="J17" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -26521,38 +26511,38 @@
         <v>42530</v>
       </c>
       <c r="T17" s="291">
-        <v>97.79</v>
+        <v>97.77</v>
       </c>
       <c r="U17" s="291">
-        <v>97.8</v>
+        <v>97.78</v>
       </c>
       <c r="V17" s="291">
-        <v>97.79</v>
+        <v>97.78</v>
       </c>
       <c r="W17" s="291">
-        <v>97.81</v>
+        <v>97.75</v>
       </c>
       <c r="X17" s="355">
         <v>1</v>
       </c>
       <c r="Y17" s="355">
-        <v>103186</v>
+        <v>104048</v>
       </c>
       <c r="Z17" s="291">
         <f>_xll.qlMidSafe(T17,U17,Trigger)</f>
-        <v>97.795000000000002</v>
+        <v>97.775000000000006</v>
       </c>
       <c r="AA17" s="291">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AB17" s="223"/>
       <c r="AC17" s="328">
-        <v>97.795000000000002</v>
+        <v>97.775000000000006</v>
       </c>
       <c r="AD17" s="223"/>
       <c r="AE17" s="291">
-        <v>97.795000000000002</v>
+        <v>97.775000000000006</v>
       </c>
       <c r="AF17" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F17,AE17,Trigger)</f>
@@ -26589,7 +26579,7 @@
       </c>
       <c r="I18" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H18,IborIndex,D18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(AF18),ISERROR(FuturesHWConvAdj!U18:U19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0023</v>
       </c>
       <c r="J18" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -26616,42 +26606,42 @@
         <v>42621</v>
       </c>
       <c r="T18" s="291">
-        <v>97.72</v>
+        <v>97.68</v>
       </c>
       <c r="U18" s="291">
-        <v>97.73</v>
+        <v>97.7</v>
       </c>
       <c r="V18" s="291">
-        <v>97.73</v>
+        <v>97.7</v>
       </c>
       <c r="W18" s="291">
-        <v>97.740000000000009</v>
+        <v>97.67</v>
       </c>
       <c r="X18" s="355">
         <v>1</v>
       </c>
       <c r="Y18" s="355">
-        <v>62489</v>
+        <v>64857</v>
       </c>
       <c r="Z18" s="291">
         <f>_xll.qlMidSafe(T18,U18,Trigger)</f>
-        <v>97.724999999999994</v>
+        <v>97.69</v>
       </c>
       <c r="AA18" s="291">
         <f t="shared" si="2"/>
-        <v>1.0000000000005116E-2</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="AB18" s="223"/>
       <c r="AC18" s="328">
-        <v>97.724999999999994</v>
+        <v>97.694999999999993</v>
       </c>
       <c r="AD18" s="223"/>
       <c r="AE18" s="291">
-        <v>97.724999999999994</v>
+        <v>97.69</v>
       </c>
       <c r="AF18" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F18,AE18,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AG18" s="44"/>
     </row>
@@ -26684,7 +26674,7 @@
       </c>
       <c r="I19" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H19,IborIndex,D19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(AF19),ISERROR(FuturesHWConvAdj!U19:U20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0023</v>
       </c>
       <c r="J19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -26711,42 +26701,42 @@
         <v>42712</v>
       </c>
       <c r="T19" s="291">
-        <v>97.63</v>
+        <v>97.58</v>
       </c>
       <c r="U19" s="291">
-        <v>97.64</v>
+        <v>97.61</v>
       </c>
       <c r="V19" s="291">
-        <v>97.64</v>
+        <v>97.600000000000009</v>
       </c>
       <c r="W19" s="291">
-        <v>97.67</v>
+        <v>97.59</v>
       </c>
       <c r="X19" s="355">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="355">
-        <v>46586</v>
+        <v>47321</v>
       </c>
       <c r="Z19" s="291">
         <f>_xll.qlMidSafe(T19,U19,Trigger)</f>
-        <v>97.634999999999991</v>
+        <v>97.594999999999999</v>
       </c>
       <c r="AA19" s="291">
         <f t="shared" si="2"/>
-        <v>1.0000000000005116E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AB19" s="223"/>
       <c r="AC19" s="328">
-        <v>97.634999999999991</v>
+        <v>97.6</v>
       </c>
       <c r="AD19" s="223"/>
       <c r="AE19" s="291">
-        <v>97.634999999999991</v>
+        <v>97.594999999999999</v>
       </c>
       <c r="AF19" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F19,AE19,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AG19" s="44"/>
     </row>
@@ -26779,7 +26769,7 @@
       </c>
       <c r="I20" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H20,IborIndex,D20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(AF20),ISERROR(FuturesHWConvAdj!U20:U21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0023</v>
       </c>
       <c r="J20" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -26806,38 +26796,38 @@
         <v>42803</v>
       </c>
       <c r="T20" s="291">
-        <v>97.54</v>
+        <v>97.490000000000009</v>
       </c>
       <c r="U20" s="291">
-        <v>97.55</v>
+        <v>97.51</v>
       </c>
       <c r="V20" s="291">
-        <v>97.55</v>
+        <v>97.51</v>
       </c>
       <c r="W20" s="291">
-        <v>97.58</v>
+        <v>97.490000000000009</v>
       </c>
       <c r="X20" s="355">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="355">
-        <v>32573</v>
+        <v>33200</v>
       </c>
       <c r="Z20" s="291">
         <f>_xll.qlMidSafe(T20,U20,Trigger)</f>
-        <v>97.545000000000002</v>
+        <v>97.5</v>
       </c>
       <c r="AA20" s="291">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="AB20" s="223"/>
       <c r="AC20" s="328">
-        <v>97.545000000000002</v>
+        <v>97.5</v>
       </c>
       <c r="AD20" s="223"/>
       <c r="AE20" s="291">
-        <v>97.545000000000002</v>
+        <v>97.5</v>
       </c>
       <c r="AF20" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F20,AE20,Trigger)</f>
@@ -26874,7 +26864,7 @@
       </c>
       <c r="I21" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H21,IborIndex,D21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(AF21),ISERROR(FuturesHWConvAdj!U21:U22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0023</v>
       </c>
       <c r="J21" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -26901,42 +26891,42 @@
         <v>42894</v>
       </c>
       <c r="T21" s="291">
-        <v>97.45</v>
+        <v>97.38</v>
       </c>
       <c r="U21" s="291">
-        <v>97.47</v>
+        <v>97.42</v>
       </c>
       <c r="V21" s="291">
-        <v>97.47</v>
+        <v>97.4</v>
       </c>
       <c r="W21" s="291">
-        <v>97.490000000000009</v>
+        <v>97.4</v>
       </c>
       <c r="X21" s="355">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Y21" s="355">
-        <v>9386</v>
+        <v>9354</v>
       </c>
       <c r="Z21" s="291">
         <f>_xll.qlMidSafe(T21,U21,Trigger)</f>
-        <v>97.460000000000008</v>
+        <v>97.4</v>
       </c>
       <c r="AA21" s="291">
         <f t="shared" si="2"/>
-        <v>1.9999999999996021E-2</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="AB21" s="223"/>
       <c r="AC21" s="328">
-        <v>97.460000000000008</v>
+        <v>97.405000000000001</v>
       </c>
       <c r="AD21" s="223"/>
       <c r="AE21" s="291">
-        <v>97.460000000000008</v>
+        <v>97.4</v>
       </c>
       <c r="AF21" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F21,AE21,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AG21" s="44"/>
     </row>
@@ -26969,7 +26959,7 @@
       </c>
       <c r="I22" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H22,IborIndex,D22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(AF22),ISERROR(FuturesHWConvAdj!U22:U23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0023</v>
       </c>
       <c r="J22" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -26996,38 +26986,38 @@
         <v>42985</v>
       </c>
       <c r="T22" s="291">
-        <v>97.350000000000009</v>
+        <v>97.3</v>
       </c>
       <c r="U22" s="291">
-        <v>97.39</v>
+        <v>97.34</v>
       </c>
       <c r="V22" s="291">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="W22" s="291">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="X22" s="355">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y22" s="355">
-        <v>5305</v>
+        <v>5339</v>
       </c>
       <c r="Z22" s="291">
         <f>_xll.qlMidSafe(T22,U22,Trigger)</f>
-        <v>97.37</v>
+        <v>97.32</v>
       </c>
       <c r="AA22" s="291">
         <f t="shared" si="2"/>
-        <v>3.9999999999992042E-2</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="AB22" s="223"/>
       <c r="AC22" s="328">
-        <v>97.37</v>
+        <v>97.32</v>
       </c>
       <c r="AD22" s="223"/>
       <c r="AE22" s="291">
-        <v>97.37</v>
+        <v>97.32</v>
       </c>
       <c r="AF22" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F22,AE22,Trigger)</f>
@@ -27064,7 +27054,7 @@
       </c>
       <c r="I23" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H23,IborIndex,D23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(AF23),ISERROR(FuturesHWConvAdj!U23:U24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0023</v>
       </c>
       <c r="J23" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -27091,38 +27081,38 @@
         <v>43076</v>
       </c>
       <c r="T23" s="291">
-        <v>97.26</v>
+        <v>97.19</v>
       </c>
       <c r="U23" s="291">
-        <v>97.3</v>
+        <v>97.25</v>
       </c>
       <c r="V23" s="291">
         <v>0</v>
       </c>
       <c r="W23" s="291">
-        <v>97.28</v>
+        <v>97.22</v>
       </c>
       <c r="X23" s="355">
         <v>0</v>
       </c>
       <c r="Y23" s="355">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="Z23" s="291">
         <f>_xll.qlMidSafe(T23,U23,Trigger)</f>
-        <v>97.28</v>
+        <v>97.22</v>
       </c>
       <c r="AA23" s="291">
         <f t="shared" si="2"/>
-        <v>3.9999999999992042E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="AB23" s="223"/>
       <c r="AC23" s="328">
-        <v>97.28</v>
+        <v>97.224999999999994</v>
       </c>
       <c r="AD23" s="223"/>
       <c r="AE23" s="291">
-        <v>97.28</v>
+        <v>97.22</v>
       </c>
       <c r="AF23" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F23,AE23,Trigger)</f>
@@ -27159,7 +27149,7 @@
       </c>
       <c r="I24" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H24,IborIndex,D24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(AF24),ISERROR(FuturesHWConvAdj!U24:U25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0023</v>
       </c>
       <c r="J24" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -27186,42 +27176,42 @@
         <v>43167</v>
       </c>
       <c r="T24" s="291">
-        <v>97.18</v>
+        <v>97.09</v>
       </c>
       <c r="U24" s="291">
-        <v>97.22</v>
+        <v>97.17</v>
       </c>
       <c r="V24" s="291">
         <v>0</v>
       </c>
       <c r="W24" s="291">
-        <v>97.19</v>
+        <v>97.12</v>
       </c>
       <c r="X24" s="355">
         <v>0</v>
       </c>
       <c r="Y24" s="355">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="Z24" s="291">
         <f>_xll.qlMidSafe(T24,U24,Trigger)</f>
-        <v>97.2</v>
+        <v>97.13</v>
       </c>
       <c r="AA24" s="291">
         <f t="shared" si="2"/>
-        <v>3.9999999999992042E-2</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="AB24" s="223"/>
       <c r="AC24" s="328">
-        <v>97.2</v>
+        <v>97.135000000000005</v>
       </c>
       <c r="AD24" s="223"/>
       <c r="AE24" s="291">
-        <v>97.2</v>
+        <v>97.13</v>
       </c>
       <c r="AF24" s="320">
         <f>_xll.qlSimpleQuoteSetValue(F24,AE24,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000096634E-3</v>
       </c>
       <c r="AG24" s="44"/>
     </row>
@@ -27254,7 +27244,7 @@
       </c>
       <c r="I25" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H25,IborIndex,D25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(AF25),ISERROR(FuturesHWConvAdj!U25:U26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0023</v>
       </c>
       <c r="J25" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -27349,7 +27339,7 @@
       </c>
       <c r="I26" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H26,IborIndex,D26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(AF26),ISERROR(FuturesHWConvAdj!U26:U27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0023</v>
       </c>
       <c r="J26" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -27444,7 +27434,7 @@
       </c>
       <c r="I27" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H27,IborIndex,D27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(AF27),ISERROR(FuturesHWConvAdj!U27:U28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0023</v>
       </c>
       <c r="J27" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -27539,7 +27529,7 @@
       </c>
       <c r="I28" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H28,IborIndex,D28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(AF28),ISERROR(FuturesHWConvAdj!U28:U29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0023</v>
       </c>
       <c r="J28" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -27634,7 +27624,7 @@
       </c>
       <c r="I29" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H29,IborIndex,D29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(AF29),ISERROR(FuturesHWConvAdj!U29:U30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0023</v>
       </c>
       <c r="J29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -27729,7 +27719,7 @@
       </c>
       <c r="I30" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H30,IborIndex,D30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(AF30),ISERROR(FuturesHWConvAdj!U30:U31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0023</v>
       </c>
       <c r="J30" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -27824,7 +27814,7 @@
       </c>
       <c r="I31" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H31,IborIndex,D31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(AF31),ISERROR(FuturesHWConvAdj!U31:U32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0023</v>
       </c>
       <c r="J31" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -27919,7 +27909,7 @@
       </c>
       <c r="I32" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H32,IborIndex,D32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(AF32),ISERROR(FuturesHWConvAdj!U32:U33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0023</v>
       </c>
       <c r="J32" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -28014,7 +28004,7 @@
       </c>
       <c r="I33" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H33,IborIndex,D33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(AF33),ISERROR(FuturesHWConvAdj!U33:U34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0023</v>
       </c>
       <c r="J33" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -28109,7 +28099,7 @@
       </c>
       <c r="I34" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H34,IborIndex,D34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(AF34),ISERROR(FuturesHWConvAdj!U34:U35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0023</v>
       </c>
       <c r="J34" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -28204,7 +28194,7 @@
       </c>
       <c r="I35" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H35,IborIndex,D35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(AF35),ISERROR(FuturesHWConvAdj!U35:U36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0023</v>
       </c>
       <c r="J35" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -28299,7 +28289,7 @@
       </c>
       <c r="I36" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H36,IborIndex,D36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(AF36),ISERROR(FuturesHWConvAdj!U36:U37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0023</v>
       </c>
       <c r="J36" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -28394,7 +28384,7 @@
       </c>
       <c r="I37" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H37,IborIndex,D37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(AF37),ISERROR(FuturesHWConvAdj!U37:U38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0023</v>
       </c>
       <c r="J37" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -28489,7 +28479,7 @@
       </c>
       <c r="I38" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H38,IborIndex,D38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(AF38),ISERROR(FuturesHWConvAdj!U38:U39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0023</v>
       </c>
       <c r="J38" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -28584,7 +28574,7 @@
       </c>
       <c r="I39" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H39,IborIndex,D39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(AF39),ISERROR(FuturesHWConvAdj!U39:U40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0023</v>
       </c>
       <c r="J39" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -28679,7 +28669,7 @@
       </c>
       <c r="I40" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H40,IborIndex,D40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(AF40),ISERROR(FuturesHWConvAdj!U40:U41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0023</v>
       </c>
       <c r="J40" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -28774,7 +28764,7 @@
       </c>
       <c r="I41" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H41,IborIndex,D41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(AF41),ISERROR(FuturesHWConvAdj!U41:U42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0023</v>
       </c>
       <c r="J41" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -28869,7 +28859,7 @@
       </c>
       <c r="I42" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H42,IborIndex,D42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(AF42),ISERROR(FuturesHWConvAdj!U42:U43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0023</v>
       </c>
       <c r="J42" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -28964,7 +28954,7 @@
       </c>
       <c r="I43" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H43,IborIndex,D43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(AF43),ISERROR(FuturesHWConvAdj!U43:U44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0023</v>
       </c>
       <c r="J43" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -29059,7 +29049,7 @@
       </c>
       <c r="I44" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H44,IborIndex,D44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(AF44),ISERROR(FuturesHWConvAdj!U44:U45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH3ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MH3ConvAdj_Quote#0023</v>
       </c>
       <c r="J44" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -29154,7 +29144,7 @@
       </c>
       <c r="I45" s="348" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H45,IborIndex,D45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(AF45),ISERROR(FuturesHWConvAdj!U45:U46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM3ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MM3ConvAdj_Quote#0023</v>
       </c>
       <c r="J45" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -29249,7 +29239,7 @@
       </c>
       <c r="I46" s="350" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H46,IborIndex,D46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(AF46),ISERROR(FuturesHWConvAdj!U46:U47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU3ConvAdj_Quote#0047</v>
+        <v>AUDFUT3MU3ConvAdj_Quote#0023</v>
       </c>
       <c r="J46" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -29515,7 +29505,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -29675,10 +29665,10 @@
         <v>AUDQM3AB1Y=ICAA</v>
       </c>
       <c r="P6" s="291">
-        <v>2.0900000000000003</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" s="291">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="R6" s="291">
         <v>0</v>
@@ -29688,7 +29678,7 @@
       </c>
       <c r="T6" s="291">
         <f t="shared" ref="T6:T42" si="6">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>2.1150000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="U6" s="291">
         <f t="shared" ref="U6:U42" si="7">Q6-P6</f>
@@ -29696,15 +29686,15 @@
       </c>
       <c r="V6" s="153"/>
       <c r="W6" s="291">
-        <v>2.1150000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="X6" s="153"/>
       <c r="Y6" s="291">
-        <v>2.1150000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="Z6" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>2.9999999999999818E-4</v>
       </c>
       <c r="AA6" s="70"/>
       <c r="AD6" s="169"/>
@@ -29991,10 +29981,10 @@
         <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="P10" s="291">
-        <v>2.1750000000000003</v>
+        <v>2.23</v>
       </c>
       <c r="Q10" s="291">
-        <v>2.2350000000000003</v>
+        <v>2.29</v>
       </c>
       <c r="R10" s="291">
         <v>0</v>
@@ -30004,7 +29994,7 @@
       </c>
       <c r="T10" s="291">
         <f t="shared" si="6"/>
-        <v>2.2050000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="U10" s="291">
         <f t="shared" si="7"/>
@@ -30012,15 +30002,15 @@
       </c>
       <c r="V10" s="153"/>
       <c r="W10" s="291">
-        <v>2.2050000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="X10" s="153"/>
       <c r="Y10" s="291">
-        <v>2.2050000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Z10" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>5.4999999999999841E-4</v>
       </c>
       <c r="AA10" s="70"/>
       <c r="AD10" s="169"/>
@@ -30070,10 +30060,10 @@
         <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="P11" s="291">
-        <v>2.3000000000000003</v>
+        <v>2.3825000000000003</v>
       </c>
       <c r="Q11" s="291">
-        <v>2.3600000000000003</v>
+        <v>2.4425000000000003</v>
       </c>
       <c r="R11" s="291">
         <v>0</v>
@@ -30083,7 +30073,7 @@
       </c>
       <c r="T11" s="291">
         <f t="shared" si="6"/>
-        <v>2.33</v>
+        <v>2.4125000000000005</v>
       </c>
       <c r="U11" s="291">
         <f t="shared" si="7"/>
@@ -30091,15 +30081,15 @@
       </c>
       <c r="V11" s="153"/>
       <c r="W11" s="291">
-        <v>2.33</v>
+        <v>2.4125000000000005</v>
       </c>
       <c r="X11" s="153"/>
       <c r="Y11" s="291">
-        <v>2.33</v>
+        <v>2.4125000000000005</v>
       </c>
       <c r="Z11" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>8.2500000000000281E-4</v>
       </c>
       <c r="AA11" s="70"/>
       <c r="AD11" s="169"/>
@@ -32752,7 +32742,7 @@
       </c>
       <c r="O4" s="89" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:08:21</v>
+        <v>Updated at 17:50:43</v>
       </c>
       <c r="P4" s="71" t="s">
         <v>103</v>
@@ -33386,10 +33376,10 @@
         <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="P12" s="291">
-        <v>2.5375000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" s="291">
-        <v>2.5975000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="R12" s="291">
         <v>0</v>
@@ -33399,7 +33389,7 @@
       </c>
       <c r="T12" s="291">
         <f t="shared" si="4"/>
-        <v>2.5674999999999999</v>
+        <v>2.67</v>
       </c>
       <c r="U12" s="291">
         <f t="shared" si="5"/>
@@ -33407,15 +33397,15 @@
       </c>
       <c r="V12" s="153"/>
       <c r="W12" s="291">
-        <v>2.5674999999999999</v>
+        <v>2.67</v>
       </c>
       <c r="X12" s="153"/>
       <c r="Y12" s="291">
-        <v>2.5674999999999999</v>
+        <v>2.67</v>
       </c>
       <c r="Z12" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0249999999999981E-3</v>
       </c>
       <c r="AA12" s="70"/>
       <c r="AD12" s="169"/>
@@ -33465,10 +33455,10 @@
         <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="P13" s="291">
-        <v>2.6675</v>
+        <v>2.7875000000000001</v>
       </c>
       <c r="Q13" s="291">
-        <v>2.7275</v>
+        <v>2.8475000000000001</v>
       </c>
       <c r="R13" s="291">
         <v>0</v>
@@ -33478,7 +33468,7 @@
       </c>
       <c r="T13" s="291">
         <f t="shared" si="4"/>
-        <v>2.6974999999999998</v>
+        <v>2.8174999999999999</v>
       </c>
       <c r="U13" s="291">
         <f t="shared" si="5"/>
@@ -33486,15 +33476,15 @@
       </c>
       <c r="V13" s="153"/>
       <c r="W13" s="291">
-        <v>2.6974999999999998</v>
+        <v>2.8174999999999999</v>
       </c>
       <c r="X13" s="153"/>
       <c r="Y13" s="291">
-        <v>2.6974999999999998</v>
+        <v>2.8174999999999999</v>
       </c>
       <c r="Z13" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>1.1999999999999997E-3</v>
       </c>
       <c r="AA13" s="70"/>
       <c r="AD13" s="169"/>
@@ -33544,10 +33534,10 @@
         <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="P14" s="291">
-        <v>2.7850000000000001</v>
+        <v>2.9225000000000003</v>
       </c>
       <c r="Q14" s="291">
-        <v>2.8450000000000002</v>
+        <v>2.9824999999999999</v>
       </c>
       <c r="R14" s="291">
         <v>0</v>
@@ -33557,23 +33547,23 @@
       </c>
       <c r="T14" s="291">
         <f t="shared" si="4"/>
-        <v>2.8150000000000004</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="U14" s="291">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="V14" s="153"/>
       <c r="W14" s="291">
-        <v>2.8150000000000004</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="X14" s="153"/>
       <c r="Y14" s="291">
-        <v>2.8150000000000004</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="Z14" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>1.3749999999999978E-3</v>
       </c>
       <c r="AA14" s="70"/>
       <c r="AD14" s="169"/>
@@ -33623,10 +33613,10 @@
         <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="P15" s="291">
-        <v>2.89</v>
+        <v>3.0425</v>
       </c>
       <c r="Q15" s="291">
-        <v>2.95</v>
+        <v>3.1025</v>
       </c>
       <c r="R15" s="291">
         <v>0</v>
@@ -33636,7 +33626,7 @@
       </c>
       <c r="T15" s="291">
         <f t="shared" si="4"/>
-        <v>2.92</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="U15" s="291">
         <f t="shared" si="5"/>
@@ -33644,15 +33634,15 @@
       </c>
       <c r="V15" s="153"/>
       <c r="W15" s="291">
-        <v>2.92</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="X15" s="153"/>
       <c r="Y15" s="291">
-        <v>2.92</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="Z15" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>1.5249999999999986E-3</v>
       </c>
       <c r="AA15" s="70"/>
       <c r="AD15" s="169"/>
@@ -33702,10 +33692,10 @@
         <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="P16" s="291">
-        <v>2.98</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="Q16" s="291">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="R16" s="291">
         <v>0</v>
@@ -33715,23 +33705,23 @@
       </c>
       <c r="T16" s="291">
         <f t="shared" si="4"/>
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="U16" s="291">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="V16" s="153"/>
       <c r="W16" s="291">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="X16" s="153"/>
       <c r="Y16" s="291">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="Z16" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>1.7000000000000036E-3</v>
       </c>
       <c r="AA16" s="70"/>
       <c r="AD16" s="169"/>
@@ -33781,10 +33771,10 @@
         <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="P17" s="291">
-        <v>3.0550000000000002</v>
+        <v>3.2325000000000004</v>
       </c>
       <c r="Q17" s="291">
-        <v>3.1150000000000002</v>
+        <v>3.2925</v>
       </c>
       <c r="R17" s="291">
         <v>0</v>
@@ -33794,23 +33784,23 @@
       </c>
       <c r="T17" s="291">
         <f t="shared" si="4"/>
-        <v>3.085</v>
+        <v>3.2625000000000002</v>
       </c>
       <c r="U17" s="291">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="V17" s="153"/>
       <c r="W17" s="291">
-        <v>3.085</v>
+        <v>3.2625000000000002</v>
       </c>
       <c r="X17" s="153"/>
       <c r="Y17" s="291">
-        <v>3.085</v>
+        <v>3.2625000000000002</v>
       </c>
       <c r="Z17" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>1.7750000000000023E-3</v>
       </c>
       <c r="AA17" s="70"/>
       <c r="AD17" s="169"/>
@@ -33860,10 +33850,10 @@
         <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="P18" s="291">
-        <v>3.1274999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="Q18" s="291">
-        <v>3.1875</v>
+        <v>3.37</v>
       </c>
       <c r="R18" s="291">
         <v>0</v>
@@ -33873,7 +33863,7 @@
       </c>
       <c r="T18" s="291">
         <f t="shared" si="4"/>
-        <v>3.1574999999999998</v>
+        <v>3.34</v>
       </c>
       <c r="U18" s="291">
         <f t="shared" si="5"/>
@@ -33881,15 +33871,15 @@
       </c>
       <c r="V18" s="153"/>
       <c r="W18" s="291">
-        <v>3.1574999999999998</v>
+        <v>3.34</v>
       </c>
       <c r="X18" s="153"/>
       <c r="Y18" s="291">
-        <v>3.1574999999999998</v>
+        <v>3.34</v>
       </c>
       <c r="Z18" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8250000000000002E-3</v>
       </c>
       <c r="AA18" s="70"/>
       <c r="AD18" s="169"/>
@@ -34018,10 +34008,10 @@
         <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="P20" s="291">
-        <v>3.2550000000000003</v>
+        <v>3.4450000000000003</v>
       </c>
       <c r="Q20" s="291">
-        <v>3.3149999999999999</v>
+        <v>3.5050000000000003</v>
       </c>
       <c r="R20" s="291">
         <v>0</v>
@@ -34031,23 +34021,23 @@
       </c>
       <c r="T20" s="291">
         <f t="shared" si="4"/>
-        <v>3.2850000000000001</v>
+        <v>3.4750000000000005</v>
       </c>
       <c r="U20" s="291">
         <f t="shared" si="5"/>
-        <v>5.9999999999999609E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="V20" s="153"/>
       <c r="W20" s="291">
-        <v>3.2850000000000001</v>
+        <v>3.4750000000000005</v>
       </c>
       <c r="X20" s="153"/>
       <c r="Y20" s="291">
-        <v>3.2850000000000001</v>
+        <v>3.4750000000000005</v>
       </c>
       <c r="Z20" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA20" s="70"/>
       <c r="AD20" s="169"/>
@@ -34255,10 +34245,10 @@
         <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="P23" s="291">
-        <v>3.3800000000000003</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="Q23" s="291">
-        <v>3.46</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="R23" s="291">
         <v>0</v>
@@ -34268,23 +34258,23 @@
       </c>
       <c r="T23" s="291">
         <f t="shared" si="4"/>
-        <v>3.42</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="U23" s="291">
         <f t="shared" si="5"/>
-        <v>7.9999999999999627E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V23" s="153"/>
       <c r="W23" s="291">
-        <v>3.42</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="X23" s="153"/>
       <c r="Y23" s="291">
-        <v>3.42</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="Z23" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA23" s="70"/>
       <c r="AD23" s="169"/>
@@ -34650,10 +34640,10 @@
         <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="P28" s="291">
-        <v>3.4725000000000001</v>
+        <v>3.6625000000000001</v>
       </c>
       <c r="Q28" s="291">
-        <v>3.5525000000000002</v>
+        <v>3.7425000000000002</v>
       </c>
       <c r="R28" s="291">
         <v>0</v>
@@ -34663,7 +34653,7 @@
       </c>
       <c r="T28" s="291">
         <f t="shared" si="4"/>
-        <v>3.5125000000000002</v>
+        <v>3.7025000000000001</v>
       </c>
       <c r="U28" s="291">
         <f t="shared" si="5"/>
@@ -34671,15 +34661,15 @@
       </c>
       <c r="V28" s="153"/>
       <c r="W28" s="291">
-        <v>3.5125000000000002</v>
+        <v>3.7025000000000001</v>
       </c>
       <c r="X28" s="153"/>
       <c r="Y28" s="291">
-        <v>3.5125000000000002</v>
+        <v>3.7025000000000001</v>
       </c>
       <c r="Z28" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA28" s="70"/>
       <c r="AD28" s="169"/>
@@ -35045,10 +35035,10 @@
         <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="P33" s="291">
-        <v>3.5075000000000003</v>
+        <v>3.6975000000000002</v>
       </c>
       <c r="Q33" s="291">
-        <v>3.5875000000000004</v>
+        <v>3.7775000000000003</v>
       </c>
       <c r="R33" s="291">
         <v>0</v>
@@ -35058,7 +35048,7 @@
       </c>
       <c r="T33" s="291">
         <f t="shared" si="4"/>
-        <v>3.5475000000000003</v>
+        <v>3.7375000000000003</v>
       </c>
       <c r="U33" s="291">
         <f t="shared" si="5"/>
@@ -35066,15 +35056,15 @@
       </c>
       <c r="V33" s="153"/>
       <c r="W33" s="291">
-        <v>3.5475000000000003</v>
+        <v>3.7375000000000003</v>
       </c>
       <c r="X33" s="153"/>
       <c r="Y33" s="291">
-        <v>3.5475000000000003</v>
+        <v>3.7375000000000003</v>
       </c>
       <c r="Z33" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA33" s="70"/>
       <c r="AD33" s="169"/>
@@ -35440,10 +35430,10 @@
         <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="P38" s="291">
-        <v>3.52</v>
+        <v>3.71</v>
       </c>
       <c r="Q38" s="291">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="R38" s="291">
         <v>0</v>
@@ -35453,7 +35443,7 @@
       </c>
       <c r="T38" s="291">
         <f t="shared" si="4"/>
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="U38" s="291">
         <f t="shared" si="5"/>
@@ -35461,15 +35451,15 @@
       </c>
       <c r="V38" s="153"/>
       <c r="W38" s="291">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="X38" s="153"/>
       <c r="Y38" s="291">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="Z38" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA38" s="70"/>
       <c r="AD38" s="169"/>
@@ -35598,10 +35588,10 @@
         <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="P40" s="291">
-        <v>3.46</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="Q40" s="291">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="R40" s="291">
         <v>0</v>
@@ -35611,23 +35601,23 @@
       </c>
       <c r="T40" s="291">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="U40" s="291">
         <f t="shared" si="5"/>
-        <v>8.0000000000000071E-2</v>
+        <v>7.9999999999999627E-2</v>
       </c>
       <c r="V40" s="153"/>
       <c r="W40" s="291">
-        <v>3.5</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="X40" s="153"/>
       <c r="Y40" s="291">
-        <v>3.5</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="Z40" s="295">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>1.8999999999999989E-3</v>
       </c>
       <c r="AA40" s="70"/>
       <c r="AD40" s="169"/>
